--- a/R/assets/Data Boxplot.xlsx
+++ b/R/assets/Data Boxplot.xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="PP"/>
-    <sheet r:id="rId2" sheetId="2" name="LP"/>
-    <sheet r:id="rId3" sheetId="3" name="TP"/>
-    <sheet r:id="rId4" sheetId="4" name="PB"/>
-    <sheet r:id="rId5" sheetId="5" name="LB"/>
-    <sheet r:id="rId6" sheetId="6" name="TB"/>
+    <sheet r:id="rId1" sheetId="1" name="Table"/>
+    <sheet r:id="rId2" sheetId="2" name="PP"/>
+    <sheet r:id="rId3" sheetId="3" name="LP"/>
+    <sheet r:id="rId4" sheetId="4" name="TP"/>
+    <sheet r:id="rId5" sheetId="5" name="PB"/>
+    <sheet r:id="rId6" sheetId="6" name="LB"/>
+    <sheet r:id="rId7" sheetId="7" name="TB"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="34">
   <si>
     <t>G11</t>
   </si>
@@ -86,22 +87,63 @@
   <si>
     <t>41.20</t>
   </si>
+  <si>
+    <t>Karakteristik</t>
+  </si>
+  <si>
+    <t>Galur (mm)</t>
+  </si>
+  <si>
+    <t>Panjang Polong</t>
+  </si>
+  <si>
+    <t>Lebar Polong</t>
+  </si>
+  <si>
+    <t>Tebal Polong</t>
+  </si>
+  <si>
+    <t>Panjang Biji</t>
+  </si>
+  <si>
+    <t>Lebar Biji</t>
+  </si>
+  <si>
+    <t>Tebal Biji</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -111,7 +153,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -143,28 +192,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,23 +221,44 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,24 +562,1514 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="22" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <f>CONCATENATE(B16,"−(",B17,")−",B18)</f>
+      </c>
+      <c r="C3" s="1">
+        <f>CONCATENATE(C16,"−(",C17,")−",C18)</f>
+      </c>
+      <c r="D3" s="1">
+        <f>CONCATENATE(D16,"−(",D17,")−",D18)</f>
+      </c>
+      <c r="E3" s="1">
+        <f>CONCATENATE(E16,"−(",E17,")−",E18)</f>
+      </c>
+      <c r="F3" s="1">
+        <f>CONCATENATE(F16,"−(",F17,")−",F18)</f>
+      </c>
+      <c r="G3" s="1">
+        <f>CONCATENATE(G16,"−(",G17,")−",G18)</f>
+      </c>
+      <c r="H3" s="1">
+        <f>CONCATENATE(H16,"−(",H17,")−",H18)</f>
+      </c>
+      <c r="I3" s="1">
+        <f>CONCATENATE(I16,"−(",I17,")−",I18)</f>
+      </c>
+      <c r="J3" s="1">
+        <f>CONCATENATE(J16,"−(",J17,")−",J18)</f>
+      </c>
+      <c r="K3" s="1">
+        <f>CONCATENATE(K16,"−(",K17,")−",K18)</f>
+      </c>
+      <c r="L3" s="1">
+        <f>CONCATENATE(L16,"−(",L17,")−",L18)</f>
+      </c>
+      <c r="M3" s="1">
+        <f>CONCATENATE(M16,"−(",M17,")−",M18)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <f>CONCATENATE(B21,"−(",B22,")−",B23)</f>
+      </c>
+      <c r="C4" s="1">
+        <f>CONCATENATE(C21,"−(",C22,")−",C23)</f>
+      </c>
+      <c r="D4" s="1">
+        <f>CONCATENATE(D21,"−(",D22,")−",D23)</f>
+      </c>
+      <c r="E4" s="1">
+        <f>CONCATENATE(E21,"−(",E22,")−",E23)</f>
+      </c>
+      <c r="F4" s="1">
+        <f>CONCATENATE(F21,"−(",F22,")−",F23)</f>
+      </c>
+      <c r="G4" s="1">
+        <f>CONCATENATE(G21,"−(",G22,")−",G23)</f>
+      </c>
+      <c r="H4" s="1">
+        <f>CONCATENATE(H21,"−(",H22,")−",H23)</f>
+      </c>
+      <c r="I4" s="1">
+        <f>CONCATENATE(I21,"−(",I22,")−",I23)</f>
+      </c>
+      <c r="J4" s="1">
+        <f>CONCATENATE(J21,"−(",J22,")−",J23)</f>
+      </c>
+      <c r="K4" s="1">
+        <f>CONCATENATE(K21,"−(",K22,")−",K23)</f>
+      </c>
+      <c r="L4" s="1">
+        <f>CONCATENATE(L21,"−(",L22,")−",L23)</f>
+      </c>
+      <c r="M4" s="1">
+        <f>CONCATENATE(M21,"−(",M22,")−",M23)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <f>CONCATENATE(B26,"−(",B27,")−",B28)</f>
+      </c>
+      <c r="C5" s="1">
+        <f>CONCATENATE(C26,"−(",C27,")−",C28)</f>
+      </c>
+      <c r="D5" s="1">
+        <f>CONCATENATE(D26,"−(",D27,")−",D28)</f>
+      </c>
+      <c r="E5" s="1">
+        <f>CONCATENATE(E26,"−(",E27,")−",E28)</f>
+      </c>
+      <c r="F5" s="1">
+        <f>CONCATENATE(F26,"−(",F27,")−",F28)</f>
+      </c>
+      <c r="G5" s="1">
+        <f>CONCATENATE(G26,"−(",G27,")−",G28)</f>
+      </c>
+      <c r="H5" s="1">
+        <f>CONCATENATE(H26,"−(",H27,")−",H28)</f>
+      </c>
+      <c r="I5" s="1">
+        <f>CONCATENATE(I26,"−(",I27,")−",I28)</f>
+      </c>
+      <c r="J5" s="1">
+        <f>CONCATENATE(J26,"−(",J27,")−",J28)</f>
+      </c>
+      <c r="K5" s="1">
+        <f>CONCATENATE(K26,"−(",K27,")−",K28)</f>
+      </c>
+      <c r="L5" s="1">
+        <f>CONCATENATE(L26,"−(",L27,")−",L28)</f>
+      </c>
+      <c r="M5" s="1">
+        <f>CONCATENATE(M26,"−(",M27,")−",M28)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <f>CONCATENATE(B31,"−(",B32,")−",B33)</f>
+      </c>
+      <c r="C6" s="1">
+        <f>CONCATENATE(C31,"−(",C32,")−",C33)</f>
+      </c>
+      <c r="D6" s="1">
+        <f>CONCATENATE(D31,"−(",D32,")−",D33)</f>
+      </c>
+      <c r="E6" s="1">
+        <f>CONCATENATE(E31,"−(",E32,")−",E33)</f>
+      </c>
+      <c r="F6" s="1">
+        <f>CONCATENATE(F31,"−(",F32,")−",F33)</f>
+      </c>
+      <c r="G6" s="1">
+        <f>CONCATENATE(G31,"−(",G32,")−",G33)</f>
+      </c>
+      <c r="H6" s="1">
+        <f>CONCATENATE(H31,"−(",H32,")−",H33)</f>
+      </c>
+      <c r="I6" s="1">
+        <f>CONCATENATE(I31,"−(",I32,")−",I33)</f>
+      </c>
+      <c r="J6" s="1">
+        <f>CONCATENATE(J31,"−(",J32,")−",J33)</f>
+      </c>
+      <c r="K6" s="1">
+        <f>CONCATENATE(K31,"−(",K32,")−",K33)</f>
+      </c>
+      <c r="L6" s="1">
+        <f>CONCATENATE(L31,"−(",L32,")−",L33)</f>
+      </c>
+      <c r="M6" s="1">
+        <f>CONCATENATE(M31,"−(",M32,")−",M33)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <f>CONCATENATE(B36,"−(",B37,")−",B38)</f>
+      </c>
+      <c r="C7" s="1">
+        <f>CONCATENATE(C36,"−(",C37,")−",C38)</f>
+      </c>
+      <c r="D7" s="1">
+        <f>CONCATENATE(D36,"−(",D37,")−",D38)</f>
+      </c>
+      <c r="E7" s="1">
+        <f>CONCATENATE(E36,"−(",E37,")−",E38)</f>
+      </c>
+      <c r="F7" s="1">
+        <f>CONCATENATE(F36,"−(",F37,")−",F38)</f>
+      </c>
+      <c r="G7" s="1">
+        <f>CONCATENATE(G36,"−(",G37,")−",G38)</f>
+      </c>
+      <c r="H7" s="1">
+        <f>CONCATENATE(H36,"−(",H37,")−",H38)</f>
+      </c>
+      <c r="I7" s="1">
+        <f>CONCATENATE(I36,"−(",I37,")−",I38)</f>
+      </c>
+      <c r="J7" s="1">
+        <f>CONCATENATE(J36,"−(",J37,")−",J38)</f>
+      </c>
+      <c r="K7" s="1">
+        <f>CONCATENATE(K36,"−(",K37,")−",K38)</f>
+      </c>
+      <c r="L7" s="1">
+        <f>CONCATENATE(L36,"−(",L37,")−",L38)</f>
+      </c>
+      <c r="M7" s="1">
+        <f>CONCATENATE(M36,"−(",M37,")−",M38)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <f>CONCATENATE(B41,"−(",B42,")−",B43)</f>
+      </c>
+      <c r="C8" s="1">
+        <f>CONCATENATE(C41,"−(",C42,")−",C43)</f>
+      </c>
+      <c r="D8" s="1">
+        <f>CONCATENATE(D41,"−(",D42,")−",D43)</f>
+      </c>
+      <c r="E8" s="1">
+        <f>CONCATENATE(E41,"−(",E42,")−",E43)</f>
+      </c>
+      <c r="F8" s="1">
+        <f>CONCATENATE(F41,"−(",F42,")−",F43)</f>
+      </c>
+      <c r="G8" s="1">
+        <f>CONCATENATE(G41,"−(",G42,")−",G43)</f>
+      </c>
+      <c r="H8" s="1">
+        <f>CONCATENATE(H41,"−(",H42,")−",H43)</f>
+      </c>
+      <c r="I8" s="1">
+        <f>CONCATENATE(I41,"−(",I42,")−",I43)</f>
+      </c>
+      <c r="J8" s="1">
+        <f>CONCATENATE(J41,"−(",J42,")−",J43)</f>
+      </c>
+      <c r="K8" s="1">
+        <f>CONCATENATE(K41,"−(",K42,")−",K43)</f>
+      </c>
+      <c r="L8" s="1">
+        <f>CONCATENATE(L41,"−(",L42,")−",L43)</f>
+      </c>
+      <c r="M8" s="1">
+        <f>CONCATENATE(M41,"−(",M42,")−",M43)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1">
+        <f>B$2</f>
+      </c>
+      <c r="C15" s="1">
+        <f>C$2</f>
+      </c>
+      <c r="D15" s="1">
+        <f>D$2</f>
+      </c>
+      <c r="E15" s="1">
+        <f>E$2</f>
+      </c>
+      <c r="F15" s="1">
+        <f>F$2</f>
+      </c>
+      <c r="G15" s="1">
+        <f>G$2</f>
+      </c>
+      <c r="H15" s="1">
+        <f>H$2</f>
+      </c>
+      <c r="I15" s="1">
+        <f>I$2</f>
+      </c>
+      <c r="J15" s="1">
+        <f>J$2</f>
+      </c>
+      <c r="K15" s="1">
+        <f>K$2</f>
+      </c>
+      <c r="L15" s="1">
+        <f>L$2</f>
+      </c>
+      <c r="M15" s="1">
+        <f>M$2</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <f>ROUND(MIN(PP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C16" s="1">
+        <f>ROUND(MIN(PP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D16" s="1">
+        <f>ROUND(MIN(PP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E16" s="1">
+        <f>ROUND(MIN(PP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F16" s="1">
+        <f>ROUND(MIN(PP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G16" s="1">
+        <f>ROUND(MIN(PP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H16" s="1">
+        <f>ROUND(MIN(PP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I16" s="1">
+        <f>ROUND(MIN(PP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J16" s="1">
+        <f>ROUND(MIN(PP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K16" s="1">
+        <f>ROUND(MIN(PP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L16" s="1">
+        <f>ROUND(MIN(PP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M16" s="1">
+        <f>ROUND(MIN(PP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <f>ROUND(AVERAGE(PP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C17" s="1">
+        <f>ROUND(AVERAGE(PP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D17" s="1">
+        <f>ROUND(AVERAGE(PP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E17" s="1">
+        <f>ROUND(AVERAGE(PP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F17" s="1">
+        <f>ROUND(AVERAGE(PP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G17" s="1">
+        <f>ROUND(AVERAGE(PP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H17" s="1">
+        <f>ROUND(AVERAGE(PP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I17" s="1">
+        <f>ROUND(AVERAGE(PP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J17" s="1">
+        <f>ROUND(AVERAGE(PP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K17" s="1">
+        <f>ROUND(AVERAGE(PP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L17" s="1">
+        <f>ROUND(AVERAGE(PP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M17" s="1">
+        <f>ROUND(AVERAGE(PP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <f>ROUND(MAX(PP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C18" s="1">
+        <f>ROUND(MAX(PP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D18" s="1">
+        <f>ROUND(MAX(PP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E18" s="1">
+        <f>ROUND(MAX(PP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F18" s="1">
+        <f>ROUND(MAX(PP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G18" s="1">
+        <f>ROUND(MAX(PP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H18" s="1">
+        <f>ROUND(MAX(PP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I18" s="1">
+        <f>ROUND(MAX(PP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J18" s="1">
+        <f>ROUND(MAX(PP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K18" s="1">
+        <f>ROUND(MAX(PP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L18" s="1">
+        <f>ROUND(MAX(PP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M18" s="1">
+        <f>ROUND(MAX(PP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <f>B$2</f>
+      </c>
+      <c r="C20" s="1">
+        <f>C$2</f>
+      </c>
+      <c r="D20" s="1">
+        <f>D$2</f>
+      </c>
+      <c r="E20" s="1">
+        <f>E$2</f>
+      </c>
+      <c r="F20" s="1">
+        <f>F$2</f>
+      </c>
+      <c r="G20" s="1">
+        <f>G$2</f>
+      </c>
+      <c r="H20" s="1">
+        <f>H$2</f>
+      </c>
+      <c r="I20" s="1">
+        <f>I$2</f>
+      </c>
+      <c r="J20" s="1">
+        <f>J$2</f>
+      </c>
+      <c r="K20" s="1">
+        <f>K$2</f>
+      </c>
+      <c r="L20" s="1">
+        <f>L$2</f>
+      </c>
+      <c r="M20" s="1">
+        <f>M$2</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1">
+        <f>ROUND(MIN(LP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C21" s="1">
+        <f>ROUND(MIN(LP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D21" s="1">
+        <f>ROUND(MIN(LP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E21" s="1">
+        <f>ROUND(MIN(LP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F21" s="1">
+        <f>ROUND(MIN(LP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G21" s="1">
+        <f>ROUND(MIN(LP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H21" s="1">
+        <f>ROUND(MIN(LP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I21" s="1">
+        <f>ROUND(MIN(LP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J21" s="1">
+        <f>ROUND(MIN(LP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K21" s="1">
+        <f>ROUND(MIN(LP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L21" s="1">
+        <f>ROUND(MIN(LP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M21" s="1">
+        <f>ROUND(MIN(LP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <f>ROUND(AVERAGE(LP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C22" s="1">
+        <f>ROUND(AVERAGE(LP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D22" s="1">
+        <f>ROUND(AVERAGE(LP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E22" s="1">
+        <f>ROUND(AVERAGE(LP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F22" s="1">
+        <f>ROUND(AVERAGE(LP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G22" s="1">
+        <f>ROUND(AVERAGE(LP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H22" s="1">
+        <f>ROUND(AVERAGE(LP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I22" s="1">
+        <f>ROUND(AVERAGE(LP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J22" s="1">
+        <f>ROUND(AVERAGE(LP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K22" s="1">
+        <f>ROUND(AVERAGE(LP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L22" s="1">
+        <f>ROUND(AVERAGE(LP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M22" s="1">
+        <f>ROUND(AVERAGE(LP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <f>ROUND(MAX(LP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C23" s="1">
+        <f>ROUND(MAX(LP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D23" s="1">
+        <f>ROUND(MAX(LP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E23" s="1">
+        <f>ROUND(MAX(LP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F23" s="1">
+        <f>ROUND(MAX(LP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G23" s="1">
+        <f>ROUND(MAX(LP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H23" s="1">
+        <f>ROUND(MAX(LP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I23" s="1">
+        <f>ROUND(MAX(LP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J23" s="1">
+        <f>ROUND(MAX(LP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K23" s="1">
+        <f>ROUND(MAX(LP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L23" s="1">
+        <f>ROUND(MAX(LP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M23" s="1">
+        <f>ROUND(MAX(LP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B$2</f>
+      </c>
+      <c r="C25" s="1">
+        <f>C$2</f>
+      </c>
+      <c r="D25" s="1">
+        <f>D$2</f>
+      </c>
+      <c r="E25" s="1">
+        <f>E$2</f>
+      </c>
+      <c r="F25" s="1">
+        <f>F$2</f>
+      </c>
+      <c r="G25" s="1">
+        <f>G$2</f>
+      </c>
+      <c r="H25" s="1">
+        <f>H$2</f>
+      </c>
+      <c r="I25" s="1">
+        <f>I$2</f>
+      </c>
+      <c r="J25" s="1">
+        <f>J$2</f>
+      </c>
+      <c r="K25" s="1">
+        <f>K$2</f>
+      </c>
+      <c r="L25" s="1">
+        <f>L$2</f>
+      </c>
+      <c r="M25" s="1">
+        <f>M$2</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <f>ROUND(MIN(TP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C26" s="1">
+        <f>ROUND(MIN(TP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D26" s="1">
+        <f>ROUND(MIN(TP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E26" s="1">
+        <f>ROUND(MIN(TP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F26" s="1">
+        <f>ROUND(MIN(TP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G26" s="1">
+        <f>ROUND(MIN(TP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H26" s="1">
+        <f>ROUND(MIN(TP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I26" s="1">
+        <f>ROUND(MIN(TP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J26" s="1">
+        <f>ROUND(MIN(TP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K26" s="1">
+        <f>ROUND(MIN(TP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L26" s="1">
+        <f>ROUND(MIN(TP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M26" s="1">
+        <f>ROUND(MIN(TP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <f>ROUND(AVERAGE(TP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C27" s="1">
+        <f>ROUND(AVERAGE(TP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D27" s="1">
+        <f>ROUND(AVERAGE(TP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E27" s="1">
+        <f>ROUND(AVERAGE(TP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F27" s="1">
+        <f>ROUND(AVERAGE(TP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G27" s="1">
+        <f>ROUND(AVERAGE(TP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H27" s="1">
+        <f>ROUND(AVERAGE(TP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I27" s="1">
+        <f>ROUND(AVERAGE(TP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J27" s="1">
+        <f>ROUND(AVERAGE(TP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K27" s="1">
+        <f>ROUND(AVERAGE(TP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L27" s="1">
+        <f>ROUND(AVERAGE(TP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M27" s="1">
+        <f>ROUND(AVERAGE(TP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <f>ROUND(MAX(TP!A$2:A$25), 2)</f>
+      </c>
+      <c r="C28" s="1">
+        <f>ROUND(MAX(TP!B$2:B$25), 2)</f>
+      </c>
+      <c r="D28" s="1">
+        <f>ROUND(MAX(TP!C$2:C$25), 2)</f>
+      </c>
+      <c r="E28" s="1">
+        <f>ROUND(MAX(TP!D$2:D$25), 2)</f>
+      </c>
+      <c r="F28" s="1">
+        <f>ROUND(MAX(TP!E$2:E$25), 2)</f>
+      </c>
+      <c r="G28" s="1">
+        <f>ROUND(MAX(TP!F$2:F$25), 2)</f>
+      </c>
+      <c r="H28" s="1">
+        <f>ROUND(MAX(TP!G$2:G$25), 2)</f>
+      </c>
+      <c r="I28" s="1">
+        <f>ROUND(MAX(TP!H$2:H$25), 2)</f>
+      </c>
+      <c r="J28" s="1">
+        <f>ROUND(MAX(TP!I$2:I$25), 2)</f>
+      </c>
+      <c r="K28" s="1">
+        <f>ROUND(MAX(TP!J$2:J$25), 2)</f>
+      </c>
+      <c r="L28" s="1">
+        <f>ROUND(MAX(TP!K$2:K$25), 2)</f>
+      </c>
+      <c r="M28" s="1">
+        <f>ROUND(MAX(TP!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B$2</f>
+      </c>
+      <c r="C30" s="1">
+        <f>C$2</f>
+      </c>
+      <c r="D30" s="1">
+        <f>D$2</f>
+      </c>
+      <c r="E30" s="1">
+        <f>E$2</f>
+      </c>
+      <c r="F30" s="1">
+        <f>F$2</f>
+      </c>
+      <c r="G30" s="1">
+        <f>G$2</f>
+      </c>
+      <c r="H30" s="1">
+        <f>H$2</f>
+      </c>
+      <c r="I30" s="1">
+        <f>I$2</f>
+      </c>
+      <c r="J30" s="1">
+        <f>J$2</f>
+      </c>
+      <c r="K30" s="1">
+        <f>K$2</f>
+      </c>
+      <c r="L30" s="1">
+        <f>L$2</f>
+      </c>
+      <c r="M30" s="1">
+        <f>M$2</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <f>ROUND(MIN(TB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C31" s="1">
+        <f>ROUND(MIN(TB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D31" s="1">
+        <f>ROUND(MIN(TB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E31" s="1">
+        <f>ROUND(MIN(TB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F31" s="1">
+        <f>ROUND(MIN(TB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G31" s="1">
+        <f>ROUND(MIN(TB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H31" s="1">
+        <f>ROUND(MIN(TB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I31" s="1">
+        <f>ROUND(MIN(TB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J31" s="1">
+        <f>ROUND(MIN(TB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K31" s="1">
+        <f>ROUND(MIN(TB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L31" s="1">
+        <f>ROUND(MIN(TB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M31" s="1">
+        <f>ROUND(MIN(TB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C32" s="1">
+        <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D32" s="1">
+        <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E32" s="1">
+        <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F32" s="1">
+        <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G32" s="1">
+        <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H32" s="1">
+        <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I32" s="1">
+        <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J32" s="1">
+        <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K32" s="1">
+        <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L32" s="1">
+        <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M32" s="1">
+        <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C33" s="1">
+        <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D33" s="1">
+        <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E33" s="1">
+        <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F33" s="1">
+        <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G33" s="1">
+        <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H33" s="1">
+        <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I33" s="1">
+        <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J33" s="1">
+        <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K33" s="1">
+        <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L33" s="1">
+        <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M33" s="1">
+        <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <f>B$2</f>
+      </c>
+      <c r="C35" s="1">
+        <f>C$2</f>
+      </c>
+      <c r="D35" s="1">
+        <f>D$2</f>
+      </c>
+      <c r="E35" s="1">
+        <f>E$2</f>
+      </c>
+      <c r="F35" s="1">
+        <f>F$2</f>
+      </c>
+      <c r="G35" s="1">
+        <f>G$2</f>
+      </c>
+      <c r="H35" s="1">
+        <f>H$2</f>
+      </c>
+      <c r="I35" s="1">
+        <f>I$2</f>
+      </c>
+      <c r="J35" s="1">
+        <f>J$2</f>
+      </c>
+      <c r="K35" s="1">
+        <f>K$2</f>
+      </c>
+      <c r="L35" s="1">
+        <f>L$2</f>
+      </c>
+      <c r="M35" s="1">
+        <f>M$2</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <f>ROUND(MIN(LB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C36" s="1">
+        <f>ROUND(MIN(LB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D36" s="1">
+        <f>ROUND(MIN(LB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E36" s="1">
+        <f>ROUND(MIN(LB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F36" s="1">
+        <f>ROUND(MIN(LB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G36" s="1">
+        <f>ROUND(MIN(LB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H36" s="1">
+        <f>ROUND(MIN(LB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I36" s="1">
+        <f>ROUND(MIN(LB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J36" s="1">
+        <f>ROUND(MIN(LB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K36" s="1">
+        <f>ROUND(MIN(LB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L36" s="1">
+        <f>ROUND(MIN(LB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M36" s="1">
+        <f>ROUND(MIN(LB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <f>ROUND(AVERAGE(LB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C37" s="1">
+        <f>ROUND(AVERAGE(LB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D37" s="1">
+        <f>ROUND(AVERAGE(LB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E37" s="1">
+        <f>ROUND(AVERAGE(LB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F37" s="1">
+        <f>ROUND(AVERAGE(LB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G37" s="1">
+        <f>ROUND(AVERAGE(LB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H37" s="1">
+        <f>ROUND(AVERAGE(LB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I37" s="1">
+        <f>ROUND(AVERAGE(LB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J37" s="1">
+        <f>ROUND(AVERAGE(LB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K37" s="1">
+        <f>ROUND(AVERAGE(LB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L37" s="1">
+        <f>ROUND(AVERAGE(LB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M37" s="1">
+        <f>ROUND(AVERAGE(LB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <f>ROUND(MAX(LB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C38" s="1">
+        <f>ROUND(MAX(LB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D38" s="1">
+        <f>ROUND(MAX(LB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E38" s="1">
+        <f>ROUND(MAX(LB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F38" s="1">
+        <f>ROUND(MAX(LB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G38" s="1">
+        <f>ROUND(MAX(LB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H38" s="1">
+        <f>ROUND(MAX(LB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I38" s="1">
+        <f>ROUND(MAX(LB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J38" s="1">
+        <f>ROUND(MAX(LB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K38" s="1">
+        <f>ROUND(MAX(LB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L38" s="1">
+        <f>ROUND(MAX(LB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M38" s="1">
+        <f>ROUND(MAX(LB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B$2</f>
+      </c>
+      <c r="C40" s="1">
+        <f>C$2</f>
+      </c>
+      <c r="D40" s="1">
+        <f>D$2</f>
+      </c>
+      <c r="E40" s="1">
+        <f>E$2</f>
+      </c>
+      <c r="F40" s="1">
+        <f>F$2</f>
+      </c>
+      <c r="G40" s="1">
+        <f>G$2</f>
+      </c>
+      <c r="H40" s="1">
+        <f>H$2</f>
+      </c>
+      <c r="I40" s="1">
+        <f>I$2</f>
+      </c>
+      <c r="J40" s="1">
+        <f>J$2</f>
+      </c>
+      <c r="K40" s="1">
+        <f>K$2</f>
+      </c>
+      <c r="L40" s="1">
+        <f>L$2</f>
+      </c>
+      <c r="M40" s="1">
+        <f>M$2</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1">
+        <f>ROUND(MIN(TB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C41" s="1">
+        <f>ROUND(MIN(TB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D41" s="1">
+        <f>ROUND(MIN(TB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E41" s="1">
+        <f>ROUND(MIN(TB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F41" s="1">
+        <f>ROUND(MIN(TB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G41" s="1">
+        <f>ROUND(MIN(TB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H41" s="1">
+        <f>ROUND(MIN(TB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I41" s="1">
+        <f>ROUND(MIN(TB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J41" s="1">
+        <f>ROUND(MIN(TB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K41" s="1">
+        <f>ROUND(MIN(TB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L41" s="1">
+        <f>ROUND(MIN(TB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M41" s="1">
+        <f>ROUND(MIN(TB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="1">
+        <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C42" s="1">
+        <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D42" s="1">
+        <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E42" s="1">
+        <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F42" s="1">
+        <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G42" s="1">
+        <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H42" s="1">
+        <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I42" s="1">
+        <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J42" s="1">
+        <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K42" s="1">
+        <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L42" s="1">
+        <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M42" s="1">
+        <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="1">
+        <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
+      </c>
+      <c r="C43" s="1">
+        <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
+      </c>
+      <c r="D43" s="1">
+        <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
+      </c>
+      <c r="E43" s="1">
+        <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
+      </c>
+      <c r="F43" s="1">
+        <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
+      </c>
+      <c r="G43" s="1">
+        <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
+      </c>
+      <c r="H43" s="1">
+        <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
+      </c>
+      <c r="I43" s="1">
+        <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
+      </c>
+      <c r="J43" s="1">
+        <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
+      </c>
+      <c r="K43" s="1">
+        <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
+      </c>
+      <c r="L43" s="1">
+        <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
+      </c>
+      <c r="M43" s="1">
+        <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -529,7 +2089,7 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -538,19 +2098,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -559,7 +2119,7 @@
       <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5"/>
@@ -577,10 +2137,10 @@
       <c r="Y1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="12">
+      <c r="A2" s="2">
         <v>40.65</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="5">
         <v>34.2</v>
       </c>
       <c r="C2" s="2">
@@ -589,28 +2149,28 @@
       <c r="D2" s="2">
         <v>43.7</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="2">
         <v>36.5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="2">
         <v>53.5</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="2">
         <v>41.96</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="2">
         <v>44.7</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="2">
         <v>42.6</v>
       </c>
       <c r="J2" s="2">
         <v>41.9</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="2">
         <v>40.91</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="2">
         <v>50.6</v>
       </c>
       <c r="M2" s="5"/>
@@ -628,10 +2188,10 @@
       <c r="Y2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12">
+      <c r="A3" s="2">
         <v>44.25</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="5">
         <v>37.4</v>
       </c>
       <c r="C3" s="2">
@@ -640,28 +2200,28 @@
       <c r="D3" s="2">
         <v>46.7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="2">
         <v>36.7</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="2">
         <v>53.5</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="2">
         <v>42.93</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="2">
         <v>47.4</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="2">
         <v>43.3</v>
       </c>
       <c r="J3" s="2">
         <v>39.7</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="2">
         <v>38.82</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="2">
         <v>55.7</v>
       </c>
       <c r="M3" s="5"/>
@@ -679,10 +2239,10 @@
       <c r="Y3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="12">
+      <c r="A4" s="2">
         <v>40.19</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="5">
         <v>38.1</v>
       </c>
       <c r="C4" s="2">
@@ -691,28 +2251,28 @@
       <c r="D4" s="2">
         <v>44</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="2">
         <v>40.1</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="2">
         <v>52.6</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="2">
         <v>41.93</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="2">
         <v>47.5</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="2">
         <v>44.6</v>
       </c>
       <c r="J4" s="2">
         <v>37.3</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="2">
         <v>40.02</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="2">
         <v>56.3</v>
       </c>
       <c r="M4" s="6"/>
@@ -730,10 +2290,10 @@
       <c r="Y4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="12">
+      <c r="A5" s="2">
         <v>43.98</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <v>33.4</v>
       </c>
       <c r="C5" s="2">
@@ -742,28 +2302,28 @@
       <c r="D5" s="2">
         <v>53</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="2">
         <v>37.6</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="2">
         <v>51.7</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="2">
         <v>41.42</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="2">
         <v>47.6</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="2">
         <v>44.7</v>
       </c>
       <c r="J5" s="2">
         <v>40.9</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="2">
         <v>39.66</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="2">
         <v>53.8</v>
       </c>
       <c r="M5" s="5"/>
@@ -781,10 +2341,10 @@
       <c r="Y5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="12">
+      <c r="A6" s="2">
         <v>36.77</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <v>39.3</v>
       </c>
       <c r="C6" s="2">
@@ -793,28 +2353,28 @@
       <c r="D6" s="2">
         <v>40</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="2">
         <v>38.7</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="2">
         <v>54.5</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="2">
         <v>42.73</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="2">
         <v>42.6</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="2">
         <v>45.2</v>
       </c>
       <c r="J6" s="2">
         <v>38.2</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="2">
         <v>41.57</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="2">
         <v>50.7</v>
       </c>
       <c r="M6" s="7"/>
@@ -832,10 +2392,10 @@
       <c r="Y6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="12">
+      <c r="A7" s="2">
         <v>40.56</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>37.2</v>
       </c>
       <c r="C7" s="2">
@@ -844,28 +2404,28 @@
       <c r="D7" s="2">
         <v>47.8</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="2">
         <v>36.6</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="2">
         <v>54.2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="2">
         <v>44.29</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="2">
         <v>45.8</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="2">
         <v>45.1</v>
       </c>
       <c r="J7" s="2">
         <v>42.1</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="2">
         <v>39.73</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="2">
         <v>52.5</v>
       </c>
       <c r="M7" s="7"/>
@@ -883,10 +2443,10 @@
       <c r="Y7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="12">
+      <c r="A8" s="2">
         <v>40.65</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="5">
         <v>34.1</v>
       </c>
       <c r="C8" s="2">
@@ -895,28 +2455,28 @@
       <c r="D8" s="2">
         <v>41.6</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="2">
         <v>39.7</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="2">
         <v>56.2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="2">
         <v>42.18</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="2">
         <v>44.3</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="2">
         <v>42.4</v>
       </c>
       <c r="J8" s="2">
         <v>37.3</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="2">
         <v>40.44</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="2">
         <v>52.2</v>
       </c>
       <c r="M8" s="7"/>
@@ -934,10 +2494,10 @@
       <c r="Y8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="12">
+      <c r="A9" s="2">
         <v>39.57</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="5">
         <v>34.5</v>
       </c>
       <c r="C9" s="2">
@@ -946,28 +2506,28 @@
       <c r="D9" s="2">
         <v>44.8</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="2">
         <v>38.1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="2">
         <v>54.8</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="2">
         <v>43.08</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="2">
         <v>42.2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="2">
         <v>43.6</v>
       </c>
       <c r="J9" s="2">
         <v>39.4</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="2">
         <v>54.3</v>
       </c>
       <c r="M9" s="7"/>
@@ -985,10 +2545,10 @@
       <c r="Y9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="12">
+      <c r="A10" s="2">
         <v>36.94</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>34.9</v>
       </c>
       <c r="C10" s="2">
@@ -997,28 +2557,28 @@
       <c r="D10" s="2">
         <v>39.9</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="2">
         <v>39.1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="2">
         <v>50.7</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="2">
         <v>42.74</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="2">
         <v>47.5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="2">
         <v>43.9</v>
       </c>
       <c r="J10" s="2">
         <v>37.2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="2">
         <v>40.77</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="2">
         <v>50.6</v>
       </c>
       <c r="M10" s="5"/>
@@ -1036,10 +2596,10 @@
       <c r="Y10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <v>38.7</v>
       </c>
       <c r="C11" s="2">
@@ -1048,28 +2608,28 @@
       <c r="D11" s="2">
         <v>42.9</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="2">
         <v>39.7</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="2">
         <v>51.1</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="2">
         <v>43.21</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="2">
         <v>47.3</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="2">
         <v>43.5</v>
       </c>
       <c r="J11" s="2">
         <v>38.7</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="2">
         <v>40.97</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="2">
         <v>53.8</v>
       </c>
       <c r="M11" s="5"/>
@@ -1087,10 +2647,10 @@
       <c r="Y11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="12">
+      <c r="A12" s="2">
         <v>39.03</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="5">
         <v>34.7</v>
       </c>
       <c r="C12" s="2">
@@ -1099,28 +2659,28 @@
       <c r="D12" s="2">
         <v>44.17</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="2">
         <v>36.1</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="2">
         <v>55.1</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="2">
         <v>41.12</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="2">
         <v>47.8</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="2">
         <v>44.6</v>
       </c>
       <c r="J12" s="2">
         <v>42.6</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="2">
         <v>39.18</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="2">
         <v>50.7</v>
       </c>
       <c r="M12" s="7"/>
@@ -1138,10 +2698,10 @@
       <c r="Y12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="12">
+      <c r="A13" s="2">
         <v>40.02</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="5">
         <v>38.1</v>
       </c>
       <c r="C13" s="2">
@@ -1150,28 +2710,28 @@
       <c r="D13" s="2">
         <v>43.26</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="2">
         <v>40.6</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="2">
         <v>50.1</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="2">
         <v>45.1</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="2">
         <v>45.6</v>
       </c>
       <c r="J13" s="2">
         <v>42.9</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="2">
         <v>39.48</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="2">
         <v>51.6</v>
       </c>
       <c r="M13" s="7"/>
@@ -1189,10 +2749,10 @@
       <c r="Y13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="12">
+      <c r="A14" s="2">
         <v>40.26</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="5">
         <v>37.8</v>
       </c>
       <c r="C14" s="2">
@@ -1201,28 +2761,28 @@
       <c r="D14" s="2">
         <v>42.85</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="2">
         <v>40.6</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="2">
         <v>51.7</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="2">
         <v>42.81</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="2">
         <v>46.8</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="2">
         <v>46.8</v>
       </c>
       <c r="J14" s="2">
         <v>41.1</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="2">
         <v>38.99</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="2">
         <v>51.4</v>
       </c>
       <c r="M14" s="7"/>
@@ -1240,10 +2800,10 @@
       <c r="Y14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="12">
+      <c r="A15" s="2">
         <v>41.34</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="5">
         <v>36.6</v>
       </c>
       <c r="C15" s="2">
@@ -1252,28 +2812,28 @@
       <c r="D15" s="2">
         <v>43.35</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="2">
         <v>35.1</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="2">
         <v>53.1</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="2">
         <v>41.99</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="2">
         <v>46.2</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="2">
         <v>45.1</v>
       </c>
       <c r="J15" s="2">
         <v>38.5</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="2">
         <v>38.54</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="2">
         <v>50.9</v>
       </c>
       <c r="M15" s="7"/>
@@ -1291,10 +2851,10 @@
       <c r="Y15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="5">
         <v>37.9</v>
       </c>
       <c r="C16" s="2">
@@ -1303,28 +2863,28 @@
       <c r="D16" s="2">
         <v>42.62</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="2">
         <v>39.7</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="2">
         <v>51.2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="2">
         <v>42.61</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="2">
         <v>49.9</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="2">
         <v>45.1</v>
       </c>
       <c r="J16" s="2">
         <v>40.1</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="2">
         <v>41.86</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="2">
         <v>52.6</v>
       </c>
       <c r="M16" s="7"/>
@@ -1342,10 +2902,10 @@
       <c r="Y16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="12">
+      <c r="A17" s="2">
         <v>38.85</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="5">
         <v>37.3</v>
       </c>
       <c r="C17" s="2">
@@ -1354,28 +2914,28 @@
       <c r="D17" s="2">
         <v>45.14</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="2">
         <v>36.7</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="2">
         <v>52.8</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="2">
         <v>43.08</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="2">
         <v>43.1</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="2">
         <v>43.9</v>
       </c>
       <c r="J17" s="2">
         <v>38.3</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="2">
         <v>41.69</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="2">
         <v>54.6</v>
       </c>
       <c r="M17" s="7"/>
@@ -1393,10 +2953,10 @@
       <c r="Y17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="12">
+      <c r="A18" s="2">
         <v>38.81</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="5">
         <v>35.1</v>
       </c>
       <c r="C18" s="2">
@@ -1405,28 +2965,28 @@
       <c r="D18" s="2">
         <v>44.98</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="2">
         <v>35.5</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="2">
         <v>53.1</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="2">
         <v>43.42</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="2">
         <v>43.1</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="2">
         <v>42.2</v>
       </c>
       <c r="J18" s="2">
         <v>42.2</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="2">
         <v>40.17</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="2">
         <v>53.1</v>
       </c>
       <c r="M18" s="7"/>
@@ -1444,10 +3004,10 @@
       <c r="Y18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="12">
+      <c r="A19" s="2">
         <v>41.77</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="5">
         <v>39.1</v>
       </c>
       <c r="C19" s="2">
@@ -1456,28 +3016,28 @@
       <c r="D19" s="2">
         <v>50.1</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="2">
         <v>35.4</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="2">
         <v>49.8</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="2">
         <v>42.29</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="2">
         <v>47.2</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="2">
         <v>43.1</v>
       </c>
       <c r="J19" s="2">
         <v>39.1</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="2">
         <v>38.58</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="2">
         <v>52.8</v>
       </c>
       <c r="M19" s="7"/>
@@ -1495,10 +3055,10 @@
       <c r="Y19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="12">
+      <c r="A20" s="2">
         <v>42.42</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="5">
         <v>38.5</v>
       </c>
       <c r="C20" s="2">
@@ -1507,28 +3067,28 @@
       <c r="D20" s="2">
         <v>42.65</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="2">
         <v>35.4</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="2">
         <v>51.1</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="2">
         <v>47.5</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="2">
         <v>42.4</v>
       </c>
       <c r="J20" s="2">
         <v>42.7</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="2">
         <v>40.15</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="2">
         <v>51.2</v>
       </c>
       <c r="M20" s="7"/>
@@ -1546,10 +3106,10 @@
       <c r="Y20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="12">
+      <c r="A21" s="2">
         <v>40.27</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="5">
         <v>36.8</v>
       </c>
       <c r="C21" s="2">
@@ -1558,28 +3118,28 @@
       <c r="D21" s="2">
         <v>45.04</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="2">
         <v>39.4</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="2">
         <v>54.5</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="2">
         <v>44.7</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="2">
         <v>45.3</v>
       </c>
       <c r="J21" s="2">
         <v>39</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="2">
         <v>52.1</v>
       </c>
       <c r="M21" s="7"/>
@@ -1597,10 +3157,10 @@
       <c r="Y21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="12">
+      <c r="A22" s="2">
         <v>38.93</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="5">
         <v>37.8</v>
       </c>
       <c r="C22" s="2">
@@ -1609,28 +3169,28 @@
       <c r="D22" s="2">
         <v>44.87</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="2">
         <v>37.6</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="2">
         <v>50.6</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="2">
         <v>43.84</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="2">
         <v>45.5</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="2">
         <v>44.1</v>
       </c>
       <c r="J22" s="2">
         <v>40.6</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="2">
         <v>53.9</v>
       </c>
       <c r="M22" s="7"/>
@@ -1648,10 +3208,10 @@
       <c r="Y22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="12">
+      <c r="A23" s="2">
         <v>42.59</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="5">
         <v>33.5</v>
       </c>
       <c r="C23" s="2">
@@ -1660,28 +3220,28 @@
       <c r="D23" s="2">
         <v>43.28</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="2">
         <v>37.9</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="2">
         <v>55.5</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="2">
         <v>41.26</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="2">
         <v>46.5</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="2">
         <v>44.1</v>
       </c>
       <c r="J23" s="2">
         <v>37.8</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="2">
         <v>41.77</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="2">
         <v>55.4</v>
       </c>
       <c r="M23" s="7"/>
@@ -1699,10 +3259,10 @@
       <c r="Y23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="12">
+      <c r="A24" s="2">
         <v>42.52</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="5">
         <v>36.8</v>
       </c>
       <c r="C24" s="2">
@@ -1711,28 +3271,28 @@
       <c r="D24" s="2">
         <v>46.26</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="2">
         <v>39.8</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="2">
         <v>53.8</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="2">
         <v>43.92</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="2">
         <v>46.2</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="2">
         <v>44.1</v>
       </c>
       <c r="J24" s="2">
         <v>40.7</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="2">
         <v>39.63</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="2">
         <v>55.8</v>
       </c>
       <c r="M24" s="7"/>
@@ -1750,10 +3310,10 @@
       <c r="Y24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="5">
         <v>35.4</v>
       </c>
       <c r="C25" s="2">
@@ -1762,28 +3322,28 @@
       <c r="D25" s="2">
         <v>44.83</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="2">
         <v>40.2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="2">
         <v>52.5</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="2">
         <v>44.49</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="2">
         <v>47.6</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="2">
         <v>45.2</v>
       </c>
       <c r="J25" s="2">
         <v>38.4</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="2">
         <v>54.6</v>
       </c>
       <c r="M25" s="7"/>
@@ -1805,7 +3365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3123,986 +4683,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:L25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6.47</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="L2" s="2">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>5.14</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="K3" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="L3" s="2">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5.42</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="J7" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="K7" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="L7" s="2">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5.98</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="I8" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="L8" s="2">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="I9" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="L9" s="2">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="E10" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="K10" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="L10" s="2">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5.84</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="L11" s="2">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2">
-        <f>AVERAGE(A2:A11)</f>
-      </c>
-      <c r="B12" s="2">
-        <f>AVERAGE(B2:B11)</f>
-      </c>
-      <c r="C12" s="2">
-        <f>AVERAGE(C2:C11)</f>
-      </c>
-      <c r="D12" s="2">
-        <f>AVERAGE(D2:D11)</f>
-      </c>
-      <c r="E12" s="2">
-        <f>AVERAGE(E2:E11)</f>
-      </c>
-      <c r="F12" s="2">
-        <f>AVERAGE(F2:F11)</f>
-      </c>
-      <c r="G12" s="2">
-        <f>AVERAGE(G2:G11)</f>
-      </c>
-      <c r="H12" s="2">
-        <f>AVERAGE(H2:H11)</f>
-      </c>
-      <c r="I12" s="2">
-        <f>AVERAGE(I2:I11)</f>
-      </c>
-      <c r="J12" s="2">
-        <f>AVERAGE(J2:J11)</f>
-      </c>
-      <c r="K12" s="2">
-        <f>AVERAGE(K2:K11)</f>
-      </c>
-      <c r="L12" s="2">
-        <f>AVERAGE(L2:L11)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2">
-        <v>6.998266968818502</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5.166809701690799</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.810016720895685</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6.419430103839693</v>
-      </c>
-      <c r="E13" s="2">
-        <v>4.8130381570611975</v>
-      </c>
-      <c r="F13" s="2">
-        <v>6.28</v>
-      </c>
-      <c r="G13" s="2">
-        <v>4.447931538602413</v>
-      </c>
-      <c r="H13" s="2">
-        <v>6.066640407127493</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5.910788098407077</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5.423858339820857</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5.433356688517437</v>
-      </c>
-      <c r="L13" s="2">
-        <v>7.349901585913568</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4.720863631198737</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5.25707616018557</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.26396882474474</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4.929584565743811</v>
-      </c>
-      <c r="F14" s="2">
-        <v>6.55</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5.8702777109623145</v>
-      </c>
-      <c r="H14" s="2">
-        <v>6.445174933407324</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5.82727177672798</v>
-      </c>
-      <c r="J14" s="2">
-        <v>4.899910908215977</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5.630534718048661</v>
-      </c>
-      <c r="L14" s="2">
-        <v>6.459635487948535</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2">
-        <v>5.988413125578151</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5.121183216575594</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6.339774260737762</v>
-      </c>
-      <c r="D15" s="2">
-        <v>7.889270720721509</v>
-      </c>
-      <c r="E15" s="2">
-        <v>6.088617603428652</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5.961919489906116</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5.689540283898293</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5.837872402764541</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4.77</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5.530311956643292</v>
-      </c>
-      <c r="K15" s="2">
-        <v>5.802408458191065</v>
-      </c>
-      <c r="L15" s="2">
-        <v>5.9726859506447365</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="2">
-        <v>5.6023178379609515</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4.136588066236821</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5.1231786422471</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6.487936712815563</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5.387602830049207</v>
-      </c>
-      <c r="F16" s="2">
-        <v>6.031248190761306</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4.743405730221095</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5.774065504070311</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5.219696641294283</v>
-      </c>
-      <c r="J16" s="2">
-        <v>4.635438180898596</v>
-      </c>
-      <c r="K16" s="2">
-        <v>4.96385685694609</v>
-      </c>
-      <c r="L16" s="2">
-        <v>6.456253382286356</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2">
-        <v>5.333499034002628</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4.961003982486801</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5.114597844694847</v>
-      </c>
-      <c r="D17" s="2">
-        <v>7.539470583494605</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5.007201063094572</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5.908213860755529</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5.011867072539157</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5.064659768602175</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4.67</v>
-      </c>
-      <c r="J17" s="2">
-        <v>4.933343710126478</v>
-      </c>
-      <c r="K17" s="2">
-        <v>5.783334481539301</v>
-      </c>
-      <c r="L17" s="2">
-        <v>6.271133722795168</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="2">
-        <v>5.4673409341120776</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4.857413460043967</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5.901217073761857</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7.911625463884626</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5.773074147272988</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4.915566078459683</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5.587328358687486</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5.404398783500797</v>
-      </c>
-      <c r="J18" s="2">
-        <v>4.367313962536444</v>
-      </c>
-      <c r="K18" s="2">
-        <v>5.046898295426059</v>
-      </c>
-      <c r="L18" s="2">
-        <v>6.783648363131709</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="2">
-        <v>5.742645652652865</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4.025210121189427</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5.538793475425376</v>
-      </c>
-      <c r="D19" s="2">
-        <v>6.970297082046485</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5.671293312143926</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5.72</v>
-      </c>
-      <c r="G19" s="2">
-        <v>6.0499949385948435</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5.9102485554086215</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4.980849317205445</v>
-      </c>
-      <c r="J19" s="2">
-        <v>6.155209135835825</v>
-      </c>
-      <c r="K19" s="2">
-        <v>6.065485784847917</v>
-      </c>
-      <c r="L19" s="2">
-        <v>7.250882552226315</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="2">
-        <v>5.940346069676997</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.5195033413754198</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5.603620978844842</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6.222942021300549</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5.18923300034237</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5.8667799562798795</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5.120239288401083</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5.646770205383443</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5.247048166040065</v>
-      </c>
-      <c r="J20" s="2">
-        <v>5.712077164353255</v>
-      </c>
-      <c r="K20" s="2">
-        <v>4.710513086513653</v>
-      </c>
-      <c r="L20" s="2">
-        <v>7.619851726407956</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="2">
-        <v>6.499980638645974</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5.075969795417178</v>
-      </c>
-      <c r="C21" s="2">
-        <v>6.327006870918664</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7.788414637379498</v>
-      </c>
-      <c r="E21" s="2">
-        <v>6.263798939292834</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5.94506558271506</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5.533837111391017</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5.853919964362746</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5.781903870160924</v>
-      </c>
-      <c r="J21" s="2">
-        <v>5.272751348263055</v>
-      </c>
-      <c r="K21" s="2">
-        <v>5.82474165704391</v>
-      </c>
-      <c r="L21" s="2">
-        <v>7.139271742088191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="2">
-        <v>5.875188137538556</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4.845819284158646</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6.665751892902214</v>
-      </c>
-      <c r="D22" s="2">
-        <v>6.423555903550345</v>
-      </c>
-      <c r="E22" s="2">
-        <v>4.767338270398582</v>
-      </c>
-      <c r="F22" s="2">
-        <v>6.123752954242303</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4.249424001856154</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5.867855751303926</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5.6142564066159615</v>
-      </c>
-      <c r="J22" s="2">
-        <v>4.659075693320702</v>
-      </c>
-      <c r="K22" s="2">
-        <v>6.216660240057294</v>
-      </c>
-      <c r="L22" s="2">
-        <v>7.109221751096301</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="2">
-        <f>AVERAGE(A13:A22)</f>
-      </c>
-      <c r="B23" s="2">
-        <f>AVERAGE(B13:B22)</f>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C13:C22)</f>
-      </c>
-      <c r="D23" s="2">
-        <f>AVERAGE(D13:D22)</f>
-      </c>
-      <c r="E23" s="2">
-        <f>AVERAGE(E13:E22)</f>
-      </c>
-      <c r="F23" s="2">
-        <f>AVERAGE(F13:F22)</f>
-      </c>
-      <c r="G23" s="2">
-        <f>AVERAGE(G13:G22)</f>
-      </c>
-      <c r="H23" s="2">
-        <f>AVERAGE(H13:H22)</f>
-      </c>
-      <c r="I23" s="2">
-        <f>AVERAGE(I13:I22)</f>
-      </c>
-      <c r="J23" s="2">
-        <f>AVERAGE(J13:J22)</f>
-      </c>
-      <c r="K23" s="2">
-        <f>AVERAGE(K13:K22)</f>
-      </c>
-      <c r="L23" s="2">
-        <f>AVERAGE(L13:L22)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2">
-        <v>7.0451362032434535</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3.7511300266849825</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5.674452334054033</v>
-      </c>
-      <c r="D24" s="2">
-        <v>6.7984898518898715</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4.6879344951434385</v>
-      </c>
-      <c r="F24" s="2">
-        <v>6.219450286553014</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5.258022186080273</v>
-      </c>
-      <c r="H24" s="2">
-        <v>6.589939569795128</v>
-      </c>
-      <c r="I24" s="2">
-        <v>4.495691825109052</v>
-      </c>
-      <c r="J24" s="2">
-        <v>5.646061250943143</v>
-      </c>
-      <c r="K24" s="2">
-        <v>5.99436786596055</v>
-      </c>
-      <c r="L24" s="2">
-        <v>6.455067730852566</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2">
-        <v>6.30653721470866</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3.8220695830109603</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5.70746029421513</v>
-      </c>
-      <c r="D25" s="2">
-        <v>7.514150187888072</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4.8376645336168504</v>
-      </c>
-      <c r="F25" s="2">
-        <v>6.21</v>
-      </c>
-      <c r="G25" s="2">
-        <v>4.2611045665049385</v>
-      </c>
-      <c r="H25" s="2">
-        <v>6.6525486203233655</v>
-      </c>
-      <c r="I25" s="2">
-        <v>5.313781151685682</v>
-      </c>
-      <c r="J25" s="2">
-        <v>4.552902212201103</v>
-      </c>
-      <c r="K25" s="2">
-        <v>5.780142544929634</v>
-      </c>
-      <c r="L25" s="2">
-        <v>6.211640213071035</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -4168,914 +4748,914 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="B2" s="2">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="C2" s="2">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="D2" s="2">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="E2" s="2">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="F2" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="H2" s="2">
         <v>6.5</v>
       </c>
-      <c r="G2" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7.1</v>
-      </c>
       <c r="I2" s="2">
-        <v>7.7</v>
+        <v>5.1</v>
       </c>
       <c r="J2" s="2">
-        <v>7.7</v>
+        <v>4.2</v>
       </c>
       <c r="K2" s="2">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L2" s="2">
-        <v>9.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="B3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="D3" s="2">
         <v>6.4</v>
       </c>
-      <c r="C3" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.3</v>
-      </c>
       <c r="E3" s="2">
-        <v>6.88</v>
+        <v>4.6</v>
       </c>
       <c r="F3" s="2">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="G3" s="2">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="H3" s="2">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I3" s="2">
-        <v>7.3</v>
+        <v>5.14</v>
       </c>
       <c r="J3" s="2">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="K3" s="2">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="L3" s="2">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="B4" s="2">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="C4" s="2">
-        <v>8.1</v>
+        <v>5.5</v>
       </c>
       <c r="D4" s="2">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="E4" s="2">
-        <v>6.54</v>
+        <v>5.7</v>
       </c>
       <c r="F4" s="2">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="G4" s="2">
-        <v>6.9</v>
+        <v>4.7</v>
       </c>
       <c r="H4" s="2">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="I4" s="2">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="K4" s="2">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="L4" s="2">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="B5" s="2">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="C5" s="2">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="D5" s="2">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="E5" s="2">
-        <v>6.92</v>
+        <v>5.1</v>
       </c>
       <c r="F5" s="2">
-        <v>6.5</v>
+        <v>5.42</v>
       </c>
       <c r="G5" s="2">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="I5" s="2">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="J5" s="2">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="L5" s="2">
-        <v>8.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="B6" s="2">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="C6" s="2">
-        <v>8.3</v>
+        <v>6.5</v>
       </c>
       <c r="D6" s="2">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="E6" s="2">
-        <v>6.67</v>
+        <v>5.5</v>
       </c>
       <c r="F6" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="J6" s="2">
         <v>6.4</v>
       </c>
-      <c r="G6" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="H6" s="2">
-        <v>7</v>
-      </c>
-      <c r="I6" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="J6" s="2">
-        <v>7.1</v>
-      </c>
       <c r="K6" s="2">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="L6" s="2">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="C7" s="2">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="D7" s="2">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="E7" s="2">
-        <v>6.89</v>
+        <v>5.5</v>
       </c>
       <c r="F7" s="2">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="G7" s="2">
-        <v>7.5</v>
+        <v>5.7</v>
       </c>
       <c r="H7" s="2">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I7" s="2">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="J7" s="2">
-        <v>7.6</v>
+        <v>5.8</v>
       </c>
       <c r="K7" s="2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L7" s="2">
-        <v>9.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.98</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L8" s="2">
         <v>7.2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8.3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>6.45</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7.35</v>
-      </c>
-      <c r="J8" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="K8" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>8.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="2">
         <v>7.2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="E9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="L9" s="2">
         <v>6.2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8.3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6.91</v>
-      </c>
-      <c r="F9" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="G9" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="I9" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="L9" s="2">
-        <v>9.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="C10" s="2">
-        <v>8.7</v>
+        <v>6.4</v>
       </c>
       <c r="D10" s="2">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="E10" s="2">
-        <v>7.1</v>
+        <v>4.6</v>
       </c>
       <c r="F10" s="2">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="G10" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="L10" s="2">
         <v>6.9</v>
-      </c>
-      <c r="I10" s="2">
-        <v>7.33</v>
-      </c>
-      <c r="J10" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="K10" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="L10" s="2">
-        <v>9.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="B11" s="2">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="C11" s="2">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="D11" s="2">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="E11" s="2">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="F11" s="2">
+        <v>5.84</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L11" s="2">
         <v>7.5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="J11" s="2">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="L11" s="2">
-        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2">
-        <v>7.220000000000001</v>
+        <f>AVERAGE(A2:A11)</f>
       </c>
       <c r="B12" s="2">
-        <v>6.19</v>
+        <f>AVERAGE(B2:B11)</f>
       </c>
       <c r="C12" s="2">
-        <v>8.17</v>
+        <f>AVERAGE(C2:C11)</f>
       </c>
       <c r="D12" s="2">
-        <v>8.03</v>
+        <f>AVERAGE(D2:D11)</f>
       </c>
       <c r="E12" s="2">
-        <v>6.840000000000001</v>
+        <f>AVERAGE(E2:E11)</f>
       </c>
       <c r="F12" s="2">
-        <v>7.1</v>
+        <f>AVERAGE(F2:F11)</f>
       </c>
       <c r="G12" s="2">
-        <v>7</v>
+        <f>AVERAGE(G2:G11)</f>
       </c>
       <c r="H12" s="2">
-        <v>7.01</v>
+        <f>AVERAGE(H2:H11)</f>
       </c>
       <c r="I12" s="2">
-        <v>7.3100000000000005</v>
+        <f>AVERAGE(I2:I11)</f>
       </c>
       <c r="J12" s="2">
-        <v>7.01</v>
+        <f>AVERAGE(J2:J11)</f>
       </c>
       <c r="K12" s="2">
-        <v>6.279999999999999</v>
+        <f>AVERAGE(K2:K11)</f>
       </c>
       <c r="L12" s="2">
-        <v>9.190000000000001</v>
+        <f>AVERAGE(L2:L11)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2">
-        <v>7.877702172582611</v>
+        <v>6.998266968818502</v>
       </c>
       <c r="B13" s="2">
-        <v>6.1</v>
+        <v>5.166809701690799</v>
       </c>
       <c r="C13" s="2">
-        <v>7.828749888348694</v>
+        <v>6.810016720895685</v>
       </c>
       <c r="D13" s="2">
-        <v>9.599622659304822</v>
+        <v>6.419430103839693</v>
       </c>
       <c r="E13" s="2">
-        <v>6.78</v>
+        <v>4.8130381570611975</v>
       </c>
       <c r="F13" s="2">
-        <v>5.511156837281124</v>
+        <v>6.28</v>
       </c>
       <c r="G13" s="2">
-        <v>6.718523060407909</v>
+        <v>4.447931538602413</v>
       </c>
       <c r="H13" s="2">
-        <v>7.906377217630187</v>
+        <v>6.066640407127493</v>
       </c>
       <c r="I13" s="2">
-        <v>7.962041710004714</v>
+        <v>5.910788098407077</v>
       </c>
       <c r="J13" s="2">
-        <v>6.445901990323281</v>
+        <v>5.423858339820857</v>
       </c>
       <c r="K13" s="2">
-        <v>7.278327121662137</v>
+        <v>5.433356688517437</v>
       </c>
       <c r="L13" s="2">
-        <v>7.695469300421721</v>
+        <v>7.349901585913568</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2">
-        <v>6.938307263475199</v>
+        <v>6.8</v>
       </c>
       <c r="B14" s="2">
-        <v>6.4</v>
+        <v>4.720863631198737</v>
       </c>
       <c r="C14" s="2">
-        <v>7.87352458891509</v>
+        <v>5.25707616018557</v>
       </c>
       <c r="D14" s="2">
-        <v>8.807371737412154</v>
+        <v>6.26396882474474</v>
       </c>
       <c r="E14" s="2">
+        <v>4.929584565743811</v>
+      </c>
+      <c r="F14" s="2">
         <v>6.55</v>
       </c>
-      <c r="F14" s="2">
-        <v>7.0761655760768924</v>
-      </c>
       <c r="G14" s="2">
-        <v>6.77</v>
+        <v>5.8702777109623145</v>
       </c>
       <c r="H14" s="2">
-        <v>7.648264004393271</v>
+        <v>6.445174933407324</v>
       </c>
       <c r="I14" s="2">
-        <v>8.7</v>
+        <v>5.82727177672798</v>
       </c>
       <c r="J14" s="2">
-        <v>8.888444952142608</v>
+        <v>4.899910908215977</v>
       </c>
       <c r="K14" s="2">
-        <v>5.024437150578736</v>
+        <v>5.630534718048661</v>
       </c>
       <c r="L14" s="2">
-        <v>9.933377816294453</v>
+        <v>6.459635487948535</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2">
-        <v>7.306499657479227</v>
+        <v>5.988413125578151</v>
       </c>
       <c r="B15" s="2">
-        <v>6.7</v>
+        <v>5.121183216575594</v>
       </c>
       <c r="C15" s="2">
-        <v>7.979506805494408</v>
+        <v>6.339774260737762</v>
       </c>
       <c r="D15" s="2">
-        <v>9.927341757729085</v>
+        <v>7.889270720721509</v>
       </c>
       <c r="E15" s="2">
-        <v>6.34</v>
+        <v>6.088617603428652</v>
       </c>
       <c r="F15" s="2">
-        <v>8.258419931294153</v>
+        <v>5.961919489906116</v>
       </c>
       <c r="G15" s="2">
-        <v>6.3</v>
+        <v>5.689540283898293</v>
       </c>
       <c r="H15" s="2">
-        <v>6.447171852087907</v>
+        <v>5.837872402764541</v>
       </c>
       <c r="I15" s="2">
-        <v>7.9</v>
+        <v>4.77</v>
       </c>
       <c r="J15" s="2">
-        <v>5.251876491915669</v>
+        <v>5.530311956643292</v>
       </c>
       <c r="K15" s="2">
-        <v>6.7</v>
+        <v>5.802408458191065</v>
       </c>
       <c r="L15" s="2">
-        <v>8.46</v>
+        <v>5.9726859506447365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2">
-        <v>6.528714144453999</v>
+        <v>5.6023178379609515</v>
       </c>
       <c r="B16" s="2">
-        <v>6.4</v>
+        <v>4.136588066236821</v>
       </c>
       <c r="C16" s="2">
-        <v>6.934494790957458</v>
+        <v>5.1231786422471</v>
       </c>
       <c r="D16" s="2">
-        <v>6.277491720984646</v>
+        <v>6.487936712815563</v>
       </c>
       <c r="E16" s="2">
-        <v>7.7</v>
+        <v>5.387602830049207</v>
       </c>
       <c r="F16" s="2">
-        <v>8.03665665099084</v>
+        <v>6.031248190761306</v>
       </c>
       <c r="G16" s="2">
-        <v>6.912062051376429</v>
+        <v>4.743405730221095</v>
       </c>
       <c r="H16" s="2">
-        <v>7.8666051180070244</v>
+        <v>5.774065504070311</v>
       </c>
       <c r="I16" s="2">
-        <v>6.31</v>
+        <v>5.219696641294283</v>
       </c>
       <c r="J16" s="2">
-        <v>5.907292141018392</v>
+        <v>4.635438180898596</v>
       </c>
       <c r="K16" s="2">
-        <v>6.90266726494974</v>
+        <v>4.96385685694609</v>
       </c>
       <c r="L16" s="2">
-        <v>10.657516413863927</v>
+        <v>6.456253382286356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2">
-        <v>7.991032249489161</v>
+        <v>5.333499034002628</v>
       </c>
       <c r="B17" s="2">
-        <v>6.9</v>
+        <v>4.961003982486801</v>
       </c>
       <c r="C17" s="2">
-        <v>9.55257349978388</v>
+        <v>5.114597844694847</v>
       </c>
       <c r="D17" s="2">
-        <v>6.91725346931001</v>
+        <v>7.539470583494605</v>
       </c>
       <c r="E17" s="2">
-        <v>7.4</v>
+        <v>5.007201063094572</v>
       </c>
       <c r="F17" s="2">
-        <v>7.949426766583991</v>
+        <v>5.908213860755529</v>
       </c>
       <c r="G17" s="2">
-        <v>7.650869533657106</v>
+        <v>5.011867072539157</v>
       </c>
       <c r="H17" s="2">
-        <v>8.28195916156918</v>
+        <v>5.064659768602175</v>
       </c>
       <c r="I17" s="2">
-        <v>7.023190400045365</v>
+        <v>4.67</v>
       </c>
       <c r="J17" s="2">
-        <v>6.332584257359995</v>
+        <v>4.933343710126478</v>
       </c>
       <c r="K17" s="2">
-        <v>7.4</v>
+        <v>5.783334481539301</v>
       </c>
       <c r="L17" s="2">
-        <v>7.280785903878314</v>
+        <v>6.271133722795168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2">
-        <v>7.111244544779078</v>
+        <v>5.4673409341120776</v>
       </c>
       <c r="B18" s="2">
-        <v>6.5</v>
+        <v>4.857413460043967</v>
       </c>
       <c r="C18" s="2">
-        <v>6.559715610992978</v>
+        <v>5.901217073761857</v>
       </c>
       <c r="D18" s="2">
-        <v>6.958914644520004</v>
+        <v>7.911625463884626</v>
       </c>
       <c r="E18" s="2">
-        <v>7.07</v>
+        <v>5.773074147272988</v>
       </c>
       <c r="F18" s="2">
-        <v>6.882348708493816</v>
+        <v>5.9</v>
       </c>
       <c r="G18" s="2">
-        <v>6.7735250447196975</v>
+        <v>4.915566078459683</v>
       </c>
       <c r="H18" s="2">
-        <v>6.26240987337909</v>
+        <v>5.587328358687486</v>
       </c>
       <c r="I18" s="2">
-        <v>8.040548491502465</v>
+        <v>5.404398783500797</v>
       </c>
       <c r="J18" s="2">
-        <v>8.220590513755788</v>
+        <v>4.367313962536444</v>
       </c>
       <c r="K18" s="2">
-        <v>8.143968787079396</v>
+        <v>5.046898295426059</v>
       </c>
       <c r="L18" s="2">
-        <v>8.643016338136</v>
+        <v>6.783648363131709</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2">
-        <v>7.781539200984035</v>
+        <v>5.742645652652865</v>
       </c>
       <c r="B19" s="2">
-        <v>6.1</v>
+        <v>4.025210121189427</v>
       </c>
       <c r="C19" s="2">
-        <v>8.533674102486973</v>
+        <v>5.538793475425376</v>
       </c>
       <c r="D19" s="2">
-        <v>8.382590329695121</v>
+        <v>6.970297082046485</v>
       </c>
       <c r="E19" s="2">
-        <v>6.44</v>
+        <v>5.671293312143926</v>
       </c>
       <c r="F19" s="2">
-        <v>7.6</v>
+        <v>5.72</v>
       </c>
       <c r="G19" s="2">
-        <v>6.17</v>
+        <v>6.0499949385948435</v>
       </c>
       <c r="H19" s="2">
-        <v>5.880518468419753</v>
+        <v>5.9102485554086215</v>
       </c>
       <c r="I19" s="2">
-        <v>7.2</v>
+        <v>4.980849317205445</v>
       </c>
       <c r="J19" s="2">
-        <v>5.33714382579004</v>
+        <v>6.155209135835825</v>
       </c>
       <c r="K19" s="2">
-        <v>6.279950970851823</v>
+        <v>6.065485784847917</v>
       </c>
       <c r="L19" s="2">
-        <v>10.666149044916803</v>
+        <v>7.250882552226315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2">
-        <v>6.403839291646738</v>
+        <v>5.940346069676997</v>
       </c>
       <c r="B20" s="2">
-        <v>6.5</v>
+        <v>3.5195033413754198</v>
       </c>
       <c r="C20" s="2">
-        <v>8.305520768710403</v>
+        <v>5.603620978844842</v>
       </c>
       <c r="D20" s="2">
-        <v>8.123505929142897</v>
+        <v>6.222942021300549</v>
       </c>
       <c r="E20" s="2">
-        <v>7.9</v>
+        <v>5.18923300034237</v>
       </c>
       <c r="F20" s="2">
-        <v>5.902951852290964</v>
+        <v>5.8667799562798795</v>
       </c>
       <c r="G20" s="2">
-        <v>6.624223594039673</v>
+        <v>5.120239288401083</v>
       </c>
       <c r="H20" s="2">
-        <v>6.084237616271252</v>
+        <v>5.646770205383443</v>
       </c>
       <c r="I20" s="2">
-        <v>6.22</v>
+        <v>5.247048166040065</v>
       </c>
       <c r="J20" s="2">
-        <v>7.7147679877770425</v>
+        <v>5.712077164353255</v>
       </c>
       <c r="K20" s="2">
-        <v>6.004307065116652</v>
+        <v>4.710513086513653</v>
       </c>
       <c r="L20" s="2">
-        <v>9.58379502842702</v>
+        <v>7.619851726407956</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2">
-        <v>7.947869704714305</v>
+        <v>6.499980638645974</v>
       </c>
       <c r="B21" s="2">
-        <v>6.6</v>
+        <v>5.075969795417178</v>
       </c>
       <c r="C21" s="2">
-        <v>8.947567365568187</v>
+        <v>6.327006870918664</v>
       </c>
       <c r="D21" s="2">
-        <v>9.92661973913269</v>
+        <v>7.788414637379498</v>
       </c>
       <c r="E21" s="2">
-        <v>7.67</v>
+        <v>6.263798939292834</v>
       </c>
       <c r="F21" s="2">
-        <v>6.624036970021956</v>
+        <v>5.94506558271506</v>
       </c>
       <c r="G21" s="2">
-        <v>6.61</v>
+        <v>5.533837111391017</v>
       </c>
       <c r="H21" s="2">
-        <v>6.872700391052763</v>
+        <v>5.853919964362746</v>
       </c>
       <c r="I21" s="2">
-        <v>6.77</v>
+        <v>5.781903870160924</v>
       </c>
       <c r="J21" s="2">
-        <v>7.496277095614884</v>
+        <v>5.272751348263055</v>
       </c>
       <c r="K21" s="2">
-        <v>7.807872527589998</v>
+        <v>5.82474165704391</v>
       </c>
       <c r="L21" s="2">
-        <v>9.76</v>
+        <v>7.139271742088191</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2">
-        <v>7.28498473730604</v>
+        <v>5.875188137538556</v>
       </c>
       <c r="B22" s="2">
-        <v>6</v>
+        <v>4.845819284158646</v>
       </c>
       <c r="C22" s="2">
-        <v>6.69901697606701</v>
+        <v>6.665751892902214</v>
       </c>
       <c r="D22" s="2">
-        <v>7.41460323408497</v>
+        <v>6.423555903550345</v>
       </c>
       <c r="E22" s="2">
-        <v>7.3</v>
+        <v>4.767338270398582</v>
       </c>
       <c r="F22" s="2">
-        <v>8.009390186841523</v>
+        <v>6.123752954242303</v>
       </c>
       <c r="G22" s="2">
-        <v>7.020347436342417</v>
+        <v>4.249424001856154</v>
       </c>
       <c r="H22" s="2">
-        <v>8</v>
+        <v>5.867855751303926</v>
       </c>
       <c r="I22" s="2">
-        <v>8.7</v>
+        <v>5.6142564066159615</v>
       </c>
       <c r="J22" s="2">
-        <v>8.354302544823392</v>
+        <v>4.659075693320702</v>
       </c>
       <c r="K22" s="2">
-        <v>7.241643626349898</v>
+        <v>6.216660240057294</v>
       </c>
       <c r="L22" s="2">
-        <v>9.736440123454473</v>
+        <v>7.109221751096301</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2">
-        <v>7.317173296691038</v>
+        <f>AVERAGE(A13:A22)</f>
       </c>
       <c r="B23" s="2">
-        <v>6.42</v>
+        <f>AVERAGE(B13:B22)</f>
       </c>
       <c r="C23" s="2">
-        <v>8.32143443973251</v>
+        <f>AVERAGE(C13:C22)</f>
       </c>
       <c r="D23" s="2">
-        <v>8.233531522131639</v>
+        <f>AVERAGE(D13:D22)</f>
       </c>
       <c r="E23" s="2">
-        <v>7.13</v>
+        <f>AVERAGE(E13:E22)</f>
       </c>
       <c r="F23" s="2">
-        <v>7.085055347987526</v>
+        <f>AVERAGE(F13:F22)</f>
       </c>
       <c r="G23" s="2">
-        <v>6.596098099754914</v>
+        <f>AVERAGE(G13:G22)</f>
       </c>
       <c r="H23" s="2">
-        <v>7.473305405972518</v>
+        <f>AVERAGE(H13:H22)</f>
       </c>
       <c r="I23" s="2">
-        <v>7.427231024592794</v>
+        <f>AVERAGE(I13:I22)</f>
       </c>
       <c r="J23" s="2">
-        <v>7.05491818005211</v>
+        <f>AVERAGE(J13:J22)</f>
       </c>
       <c r="K23" s="2">
-        <v>6.878317451417837</v>
+        <f>AVERAGE(K13:K22)</f>
       </c>
       <c r="L23" s="2">
-        <v>8.541415638639723</v>
+        <f>AVERAGE(L13:L22)</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2">
-        <v>5.839970573742137</v>
+        <v>7.0451362032434535</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
+        <v>3.7511300266849825</v>
       </c>
       <c r="C24" s="2">
-        <v>6.847470870151319</v>
+        <v>5.674452334054033</v>
       </c>
       <c r="D24" s="2">
-        <v>9.602688458288425</v>
+        <v>6.7984898518898715</v>
       </c>
       <c r="E24" s="2">
-        <v>7.2</v>
+        <v>4.6879344951434385</v>
       </c>
       <c r="F24" s="2">
-        <v>6.9</v>
+        <v>6.219450286553014</v>
       </c>
       <c r="G24" s="2">
-        <v>7.804571553674258</v>
+        <v>5.258022186080273</v>
       </c>
       <c r="H24" s="2">
-        <v>7.157506063187061</v>
+        <v>6.589939569795128</v>
       </c>
       <c r="I24" s="2">
-        <v>6.897734593946369</v>
+        <v>4.495691825109052</v>
       </c>
       <c r="J24" s="2">
-        <v>6.2453964022497255</v>
+        <v>5.646061250943143</v>
       </c>
       <c r="K24" s="2">
-        <v>5.9</v>
+        <v>5.99436786596055</v>
       </c>
       <c r="L24" s="2">
-        <v>9.909345592664618</v>
+        <v>6.455067730852566</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2">
-        <v>8.3143730153881</v>
+        <v>6.30653721470866</v>
       </c>
       <c r="B25" s="2">
-        <v>6.3</v>
+        <v>3.8220695830109603</v>
       </c>
       <c r="C25" s="2">
-        <v>8.927970664232102</v>
+        <v>5.70746029421513</v>
       </c>
       <c r="D25" s="2">
-        <v>9.12220023879359</v>
+        <v>7.514150187888072</v>
       </c>
       <c r="E25" s="2">
-        <v>6.88</v>
+        <v>4.8376645336168504</v>
       </c>
       <c r="F25" s="2">
-        <v>5.924232682732652</v>
+        <v>6.21</v>
       </c>
       <c r="G25" s="2">
-        <v>6.704717056439474</v>
+        <v>4.2611045665049385</v>
       </c>
       <c r="H25" s="2">
-        <v>7.784830799438552</v>
+        <v>6.6525486203233655</v>
       </c>
       <c r="I25" s="2">
-        <v>8.8</v>
+        <v>5.313781151685682</v>
       </c>
       <c r="J25" s="2">
-        <v>7.077585461363255</v>
+        <v>4.552902212201103</v>
       </c>
       <c r="K25" s="2">
-        <v>7.467613601664505</v>
+        <v>5.780142544929634</v>
       </c>
       <c r="L25" s="2">
-        <v>8.23</v>
+        <v>6.211640213071035</v>
       </c>
     </row>
   </sheetData>
@@ -5148,914 +5728,914 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="B2" s="2">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="C2" s="2">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="D2" s="2">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="F2" s="2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="G2" s="2">
-        <v>4.8</v>
+        <v>7.3</v>
       </c>
       <c r="H2" s="2">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="I2" s="2">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="J2" s="2">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="K2" s="2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L2" s="2">
-        <v>6.3</v>
+        <v>9.8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="B3" s="2">
-        <v>4.1</v>
+        <v>6.4</v>
       </c>
       <c r="C3" s="2">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="D3" s="2">
-        <v>7.4</v>
+        <v>8.3</v>
       </c>
       <c r="E3" s="2">
-        <v>5.5</v>
+        <v>6.88</v>
       </c>
       <c r="F3" s="2">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="G3" s="2">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="H3" s="2">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="I3" s="2">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="J3" s="2">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="K3" s="2">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="L3" s="2">
-        <v>5.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="B4" s="2">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="C4" s="2">
-        <v>6.77</v>
+        <v>8.1</v>
       </c>
       <c r="D4" s="2">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="E4" s="2">
-        <v>4.9</v>
+        <v>6.54</v>
       </c>
       <c r="F4" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K4" s="2">
         <v>6.8</v>
       </c>
-      <c r="G4" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5.1</v>
-      </c>
       <c r="L4" s="2">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="C5" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.92</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="H5" s="2">
         <v>6.9</v>
       </c>
-      <c r="D5" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5.4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="K5" s="2">
         <v>6.2</v>
       </c>
-      <c r="I5" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4.9</v>
-      </c>
       <c r="L5" s="2">
-        <v>6.2</v>
+        <v>8.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="B6" s="2">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="C6" s="2">
-        <v>6.5</v>
+        <v>8.3</v>
       </c>
       <c r="D6" s="2">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="E6" s="2">
-        <v>5.7</v>
+        <v>6.67</v>
       </c>
       <c r="F6" s="2">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G6" s="2">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="H6" s="2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J6" s="2">
-        <v>5.1</v>
+        <v>7.1</v>
       </c>
       <c r="K6" s="2">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="L6" s="2">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="B7" s="2">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>6.51</v>
+        <v>8.4</v>
       </c>
       <c r="D7" s="2">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="E7" s="2">
-        <v>5.3</v>
+        <v>6.89</v>
       </c>
       <c r="F7" s="2">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="H7" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="2">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="J7" s="2">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="K7" s="2">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="L7" s="2">
-        <v>6.5</v>
+        <v>9.2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="C8" s="2">
-        <v>6.87</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>7.2</v>
+        <v>8.3</v>
       </c>
       <c r="E8" s="2">
-        <v>5.6</v>
+        <v>6.45</v>
       </c>
       <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="K8" s="2">
         <v>6.1</v>
       </c>
-      <c r="G8" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="J8" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5.7</v>
-      </c>
       <c r="L8" s="2">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="B9" s="2">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="C9" s="2">
-        <v>6.6</v>
+        <v>8.2</v>
       </c>
       <c r="D9" s="2">
-        <v>7.4</v>
+        <v>8.3</v>
       </c>
       <c r="E9" s="2">
-        <v>5.7</v>
+        <v>6.91</v>
       </c>
       <c r="F9" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="G9" s="2">
         <v>6.7</v>
       </c>
-      <c r="G9" s="2">
-        <v>5.2</v>
-      </c>
       <c r="H9" s="2">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="I9" s="2">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="J9" s="2">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="K9" s="2">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="L9" s="2">
-        <v>7.1</v>
+        <v>9.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>6.8</v>
+        <v>8.7</v>
       </c>
       <c r="D10" s="2">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="E10" s="2">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="F10" s="2">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="G10" s="2">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="I10" s="2">
-        <v>5.9</v>
+        <v>7.33</v>
       </c>
       <c r="J10" s="2">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="K10" s="2">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="L10" s="2">
-        <v>5.9</v>
+        <v>9.7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2">
         <v>5.9</v>
       </c>
-      <c r="B11" s="2">
-        <v>5.1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="G11" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="J11" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>6.9</v>
-      </c>
       <c r="L11" s="2">
-        <v>7.1</v>
+        <v>9</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2">
-        <v>5.52</v>
+        <v>7.220000000000001</v>
       </c>
       <c r="B12" s="2">
-        <v>4.790000000000001</v>
+        <v>6.19</v>
       </c>
       <c r="C12" s="2">
-        <v>6.709999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="D12" s="2">
-        <v>6.890000000000001</v>
+        <v>8.03</v>
       </c>
       <c r="E12" s="2">
-        <v>5.470000000000001</v>
+        <v>6.840000000000001</v>
       </c>
       <c r="F12" s="2">
-        <v>6.470000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="G12" s="2">
-        <v>5.430000000000001</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2">
-        <v>6.119999999999999</v>
+        <v>7.01</v>
       </c>
       <c r="I12" s="2">
-        <v>5.91</v>
+        <v>7.3100000000000005</v>
       </c>
       <c r="J12" s="2">
-        <v>5.609999999999999</v>
+        <v>7.01</v>
       </c>
       <c r="K12" s="2">
-        <v>5.529999999999999</v>
+        <v>6.279999999999999</v>
       </c>
       <c r="L12" s="2">
-        <v>6.390000000000001</v>
+        <v>9.190000000000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2">
-        <v>5.3774288016480645</v>
+        <v>7.877702172582611</v>
       </c>
       <c r="B13" s="2">
-        <v>3.8579385527527856</v>
+        <v>6.1</v>
       </c>
       <c r="C13" s="2">
-        <v>5.64</v>
+        <v>7.828749888348694</v>
       </c>
       <c r="D13" s="2">
-        <v>7.162645346016722</v>
+        <v>9.599622659304822</v>
       </c>
       <c r="E13" s="2">
-        <v>4.616525422617952</v>
+        <v>6.78</v>
       </c>
       <c r="F13" s="2">
-        <v>6.309547084214204</v>
+        <v>5.511156837281124</v>
       </c>
       <c r="G13" s="2">
-        <v>5.14376082681342</v>
+        <v>6.718523060407909</v>
       </c>
       <c r="H13" s="2">
-        <v>6.5030362671710975</v>
+        <v>7.906377217630187</v>
       </c>
       <c r="I13" s="2">
-        <v>4.630597338410783</v>
+        <v>7.962041710004714</v>
       </c>
       <c r="J13" s="2">
-        <v>5.375230182427922</v>
+        <v>6.445901990323281</v>
       </c>
       <c r="K13" s="2">
-        <v>6.1716586415429395</v>
+        <v>7.278327121662137</v>
       </c>
       <c r="L13" s="2">
-        <v>7.231859555495246</v>
+        <v>7.695469300421721</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2">
-        <v>5.560567634145587</v>
+        <v>6.938307263475199</v>
       </c>
       <c r="B14" s="2">
-        <v>3.659465895239965</v>
+        <v>6.4</v>
       </c>
       <c r="C14" s="2">
-        <v>7.44</v>
+        <v>7.87352458891509</v>
       </c>
       <c r="D14" s="2">
-        <v>6.016228082635305</v>
+        <v>8.807371737412154</v>
       </c>
       <c r="E14" s="2">
-        <v>4.116010101074134</v>
+        <v>6.55</v>
       </c>
       <c r="F14" s="2">
-        <v>7.527731397927155</v>
+        <v>7.0761655760768924</v>
       </c>
       <c r="G14" s="2">
-        <v>5.059247365206989</v>
+        <v>6.77</v>
       </c>
       <c r="H14" s="2">
-        <v>6.103980739710433</v>
+        <v>7.648264004393271</v>
       </c>
       <c r="I14" s="2">
-        <v>7.306750174983759</v>
+        <v>8.7</v>
       </c>
       <c r="J14" s="2">
-        <v>5.624374838168295</v>
+        <v>8.888444952142608</v>
       </c>
       <c r="K14" s="2">
-        <v>6.332710480382374</v>
+        <v>5.024437150578736</v>
       </c>
       <c r="L14" s="2">
-        <v>8.03126283035563</v>
+        <v>9.933377816294453</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2">
-        <v>6.138852577930679</v>
+        <v>7.306499657479227</v>
       </c>
       <c r="B15" s="2">
-        <v>5.37103884345521</v>
+        <v>6.7</v>
       </c>
       <c r="C15" s="2">
-        <v>5.76</v>
+        <v>7.979506805494408</v>
       </c>
       <c r="D15" s="2">
-        <v>7.706570470293208</v>
+        <v>9.927341757729085</v>
       </c>
       <c r="E15" s="2">
-        <v>4.287955683215489</v>
+        <v>6.34</v>
       </c>
       <c r="F15" s="2">
-        <v>6.322624987370721</v>
+        <v>8.258419931294153</v>
       </c>
       <c r="G15" s="2">
-        <v>5.94430512361283</v>
+        <v>6.3</v>
       </c>
       <c r="H15" s="2">
-        <v>6.874297482949087</v>
+        <v>6.447171852087907</v>
       </c>
       <c r="I15" s="2">
-        <v>7.102473677894812</v>
+        <v>7.9</v>
       </c>
       <c r="J15" s="2">
-        <v>5.87778424961023</v>
+        <v>5.251876491915669</v>
       </c>
       <c r="K15" s="2">
-        <v>4.7927091995551985</v>
+        <v>6.7</v>
       </c>
       <c r="L15" s="2">
-        <v>5.208880893846525</v>
+        <v>8.46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2">
-        <v>4.994687373285935</v>
+        <v>6.528714144453999</v>
       </c>
       <c r="B16" s="2">
-        <v>3.2980367710836336</v>
+        <v>6.4</v>
       </c>
       <c r="C16" s="2">
-        <v>7.79</v>
+        <v>6.934494790957458</v>
       </c>
       <c r="D16" s="2">
-        <v>6.197670361252222</v>
+        <v>6.277491720984646</v>
       </c>
       <c r="E16" s="2">
-        <v>6.148324216682205</v>
+        <v>7.7</v>
       </c>
       <c r="F16" s="2">
-        <v>7.824000027180948</v>
+        <v>8.03665665099084</v>
       </c>
       <c r="G16" s="2">
-        <v>5.8726673814319135</v>
+        <v>6.912062051376429</v>
       </c>
       <c r="H16" s="2">
-        <v>6.548606978505581</v>
+        <v>7.8666051180070244</v>
       </c>
       <c r="I16" s="2">
-        <v>6.590535873593174</v>
+        <v>6.31</v>
       </c>
       <c r="J16" s="2">
-        <v>5.046042559119881</v>
+        <v>5.907292141018392</v>
       </c>
       <c r="K16" s="2">
-        <v>4.967029554096603</v>
+        <v>6.90266726494974</v>
       </c>
       <c r="L16" s="2">
-        <v>5.373321696305931</v>
+        <v>10.657516413863927</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2">
-        <v>4.645583589079133</v>
+        <v>7.991032249489161</v>
       </c>
       <c r="B17" s="2">
-        <v>4.060424168509613</v>
+        <v>6.9</v>
       </c>
       <c r="C17" s="2">
-        <v>7.100039014610002</v>
+        <v>9.55257349978388</v>
       </c>
       <c r="D17" s="2">
-        <v>6.853111983752575</v>
+        <v>6.91725346931001</v>
       </c>
       <c r="E17" s="2">
-        <v>3.775240307191065</v>
+        <v>7.4</v>
       </c>
       <c r="F17" s="2">
-        <v>8.332383652476919</v>
+        <v>7.949426766583991</v>
       </c>
       <c r="G17" s="2">
-        <v>6.188160258850426</v>
+        <v>7.650869533657106</v>
       </c>
       <c r="H17" s="2">
-        <v>7.18</v>
+        <v>8.28195916156918</v>
       </c>
       <c r="I17" s="2">
-        <v>7.358931178751492</v>
+        <v>7.023190400045365</v>
       </c>
       <c r="J17" s="2">
-        <v>5.278170846982637</v>
+        <v>6.332584257359995</v>
       </c>
       <c r="K17" s="2">
-        <v>6.019344324471217</v>
+        <v>7.4</v>
       </c>
       <c r="L17" s="2">
-        <v>4.611905441440637</v>
+        <v>7.280785903878314</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2">
-        <v>6.2248476811719105</v>
+        <v>7.111244544779078</v>
       </c>
       <c r="B18" s="2">
-        <v>4.250033881847351</v>
+        <v>6.5</v>
       </c>
       <c r="C18" s="2">
-        <v>5.83</v>
+        <v>6.559715610992978</v>
       </c>
       <c r="D18" s="2">
-        <v>7.401954403635077</v>
+        <v>6.958914644520004</v>
       </c>
       <c r="E18" s="2">
-        <v>6.95</v>
+        <v>7.07</v>
       </c>
       <c r="F18" s="2">
-        <v>8.043911156645473</v>
+        <v>6.882348708493816</v>
       </c>
       <c r="G18" s="2">
-        <v>6.344333103181292</v>
+        <v>6.7735250447196975</v>
       </c>
       <c r="H18" s="2">
-        <v>6.1765083026071235</v>
+        <v>6.26240987337909</v>
       </c>
       <c r="I18" s="2">
-        <v>6.273501461102041</v>
+        <v>8.040548491502465</v>
       </c>
       <c r="J18" s="2">
-        <v>4.592280461018424</v>
+        <v>8.220590513755788</v>
       </c>
       <c r="K18" s="2">
-        <v>5.86579405668836</v>
+        <v>8.143968787079396</v>
       </c>
       <c r="L18" s="2">
-        <v>6.267227616348494</v>
+        <v>8.643016338136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2">
-        <v>5.375993277989558</v>
+        <v>7.781539200984035</v>
       </c>
       <c r="B19" s="2">
-        <v>3.9079815259252166</v>
+        <v>6.1</v>
       </c>
       <c r="C19" s="2">
-        <v>6.949859693505493</v>
+        <v>8.533674102486973</v>
       </c>
       <c r="D19" s="2">
-        <v>7.696035558337897</v>
+        <v>8.382590329695121</v>
       </c>
       <c r="E19" s="2">
-        <v>4.7113539937387765</v>
+        <v>6.44</v>
       </c>
       <c r="F19" s="2">
-        <v>5.314206124073012</v>
+        <v>7.6</v>
       </c>
       <c r="G19" s="2">
-        <v>5.9269425158126054</v>
+        <v>6.17</v>
       </c>
       <c r="H19" s="2">
-        <v>5.4811894197683015</v>
+        <v>5.880518468419753</v>
       </c>
       <c r="I19" s="2">
-        <v>5.605385057326984</v>
+        <v>7.2</v>
       </c>
       <c r="J19" s="2">
-        <v>4.798385877975789</v>
+        <v>5.33714382579004</v>
       </c>
       <c r="K19" s="2">
-        <v>5.992084698961704</v>
+        <v>6.279950970851823</v>
       </c>
       <c r="L19" s="2">
-        <v>7.505504134928156</v>
+        <v>10.666149044916803</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="2">
-        <v>4.577008529851776</v>
+        <v>6.403839291646738</v>
       </c>
       <c r="B20" s="2">
-        <v>2.9765123303912953</v>
+        <v>6.5</v>
       </c>
       <c r="C20" s="2">
-        <v>7.265370395353134</v>
+        <v>8.305520768710403</v>
       </c>
       <c r="D20" s="2">
-        <v>6.425152426356935</v>
+        <v>8.123505929142897</v>
       </c>
       <c r="E20" s="2">
-        <v>5.482302623864714</v>
+        <v>7.9</v>
       </c>
       <c r="F20" s="2">
-        <v>5.742968699370305</v>
+        <v>5.902951852290964</v>
       </c>
       <c r="G20" s="2">
-        <v>5.499640128993797</v>
+        <v>6.624223594039673</v>
       </c>
       <c r="H20" s="2">
-        <v>6.565384560188054</v>
+        <v>6.084237616271252</v>
       </c>
       <c r="I20" s="2">
-        <v>4.474036303490072</v>
+        <v>6.22</v>
       </c>
       <c r="J20" s="2">
-        <v>5.0382312527646596</v>
+        <v>7.7147679877770425</v>
       </c>
       <c r="K20" s="2">
-        <v>5.259233109149937</v>
+        <v>6.004307065116652</v>
       </c>
       <c r="L20" s="2">
-        <v>7.456787369978434</v>
+        <v>9.58379502842702</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="2">
-        <v>6.057257871237359</v>
+        <v>7.947869704714305</v>
       </c>
       <c r="B21" s="2">
-        <v>3.948617134344985</v>
+        <v>6.6</v>
       </c>
       <c r="C21" s="2">
-        <v>7.97</v>
+        <v>8.947567365568187</v>
       </c>
       <c r="D21" s="2">
-        <v>7.10456166004229</v>
+        <v>9.92661973913269</v>
       </c>
       <c r="E21" s="2">
-        <v>6.96</v>
+        <v>7.67</v>
       </c>
       <c r="F21" s="2">
-        <v>7.812539270739903</v>
+        <v>6.624036970021956</v>
       </c>
       <c r="G21" s="2">
-        <v>5.887638520859897</v>
+        <v>6.61</v>
       </c>
       <c r="H21" s="2">
-        <v>6.98</v>
+        <v>6.872700391052763</v>
       </c>
       <c r="I21" s="2">
-        <v>5.571728323844184</v>
+        <v>6.77</v>
       </c>
       <c r="J21" s="2">
-        <v>4.855018069021192</v>
+        <v>7.496277095614884</v>
       </c>
       <c r="K21" s="2">
-        <v>5.83142882451371</v>
+        <v>7.807872527589998</v>
       </c>
       <c r="L21" s="2">
-        <v>5.955022538841728</v>
+        <v>9.76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="2">
-        <v>6.082686342291013</v>
+        <v>7.28498473730604</v>
       </c>
       <c r="B22" s="2">
-        <v>3.5126535396358167</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>7.920544227135794</v>
+        <v>6.69901697606701</v>
       </c>
       <c r="D22" s="2">
-        <v>5.923820960165378</v>
+        <v>7.41460323408497</v>
       </c>
       <c r="E22" s="2">
-        <v>6.71</v>
+        <v>7.3</v>
       </c>
       <c r="F22" s="2">
-        <v>7.541218176664707</v>
+        <v>8.009390186841523</v>
       </c>
       <c r="G22" s="2">
-        <v>4.958915359461168</v>
+        <v>7.020347436342417</v>
       </c>
       <c r="H22" s="2">
-        <v>5.47</v>
+        <v>8</v>
       </c>
       <c r="I22" s="2">
-        <v>7.347194391540178</v>
+        <v>8.7</v>
       </c>
       <c r="J22" s="2">
-        <v>6.235603049578185</v>
+        <v>8.354302544823392</v>
       </c>
       <c r="K22" s="2">
-        <v>5.958899373976839</v>
+        <v>7.241643626349898</v>
       </c>
       <c r="L22" s="2">
-        <v>4.824461647598058</v>
+        <v>9.736440123454473</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="2">
-        <v>5.5</v>
+        <v>7.317173296691038</v>
       </c>
       <c r="B23" s="2">
-        <v>3.8</v>
+        <v>6.42</v>
       </c>
       <c r="C23" s="2">
-        <v>6.9</v>
+        <v>8.32143443973251</v>
       </c>
       <c r="D23" s="2">
-        <v>6.8</v>
+        <v>8.233531522131639</v>
       </c>
       <c r="E23" s="2">
-        <v>5.5</v>
+        <v>7.13</v>
       </c>
       <c r="F23" s="2">
-        <v>7.8</v>
+        <v>7.085055347987526</v>
       </c>
       <c r="G23" s="2">
-        <v>5.682561058422434</v>
+        <v>6.596098099754914</v>
       </c>
       <c r="H23" s="2">
-        <v>6.41</v>
+        <v>7.473305405972518</v>
       </c>
       <c r="I23" s="2">
-        <v>6.8</v>
+        <v>7.427231024592794</v>
       </c>
       <c r="J23" s="2">
-        <v>5.12</v>
+        <v>7.05491818005211</v>
       </c>
       <c r="K23" s="2">
-        <v>5.7</v>
+        <v>6.878317451417837</v>
       </c>
       <c r="L23" s="2">
-        <v>6.24</v>
+        <v>8.541415638639723</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="2">
-        <v>4.733873652226416</v>
+        <v>5.839970573742137</v>
       </c>
       <c r="B24" s="2">
-        <v>3.1255153163602776</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>5.78</v>
+        <v>6.847470870151319</v>
       </c>
       <c r="D24" s="2">
-        <v>6.555294665791365</v>
+        <v>9.602688458288425</v>
       </c>
       <c r="E24" s="2">
-        <v>5.174566822038111</v>
+        <v>7.2</v>
       </c>
       <c r="F24" s="2">
-        <v>5.655966235815601</v>
+        <v>6.9</v>
       </c>
       <c r="G24" s="2">
-        <v>4.9256731145477275</v>
+        <v>7.804571553674258</v>
       </c>
       <c r="H24" s="2">
-        <v>6.529848377884271</v>
+        <v>7.157506063187061</v>
       </c>
       <c r="I24" s="2">
-        <v>7.174511931736857</v>
+        <v>6.897734593946369</v>
       </c>
       <c r="J24" s="2">
-        <v>6.181113397403163</v>
+        <v>6.2453964022497255</v>
       </c>
       <c r="K24" s="2">
-        <v>5.539488736150949</v>
+        <v>5.9</v>
       </c>
       <c r="L24" s="2">
-        <v>6.954620159248022</v>
+        <v>9.909345592664618</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2">
-        <v>5.037912241141281</v>
+        <v>8.3143730153881</v>
       </c>
       <c r="B25" s="2">
-        <v>5.119324197682639</v>
+        <v>6.3</v>
       </c>
       <c r="C25" s="2">
-        <v>7.54</v>
+        <v>8.927970664232102</v>
       </c>
       <c r="D25" s="2">
-        <v>7.603840930926129</v>
+        <v>9.12220023879359</v>
       </c>
       <c r="E25" s="2">
-        <v>3.88047407499454</v>
+        <v>6.88</v>
       </c>
       <c r="F25" s="2">
-        <v>6.514844084493875</v>
+        <v>5.924232682732652</v>
       </c>
       <c r="G25" s="2">
-        <v>5.239035173771401</v>
+        <v>6.704717056439474</v>
       </c>
       <c r="H25" s="2">
-        <v>7.04563149065519</v>
+        <v>7.784830799438552</v>
       </c>
       <c r="I25" s="2">
-        <v>6.858558040491106</v>
+        <v>8.8</v>
       </c>
       <c r="J25" s="2">
-        <v>5.34720246206906</v>
+        <v>7.077585461363255</v>
       </c>
       <c r="K25" s="2">
-        <v>5.363163650806124</v>
+        <v>7.467613601664505</v>
       </c>
       <c r="L25" s="2">
-        <v>7.072515573837589</v>
+        <v>8.23</v>
       </c>
     </row>
   </sheetData>
@@ -6128,6 +6708,986 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L2" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.77</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.51</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.87</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="L8" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.709999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.890000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5.470000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.470000000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.430000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6.119999999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5.91</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5.609999999999999</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5.529999999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.390000000000001</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2">
+        <v>5.3774288016480645</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3.8579385527527856</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7.162645346016722</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.616525422617952</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.309547084214204</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5.14376082681342</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6.5030362671710975</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.630597338410783</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5.375230182427922</v>
+      </c>
+      <c r="K13" s="2">
+        <v>6.1716586415429395</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7.231859555495246</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2">
+        <v>5.560567634145587</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.659465895239965</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.016228082635305</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.116010101074134</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7.527731397927155</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5.059247365206989</v>
+      </c>
+      <c r="H14" s="2">
+        <v>6.103980739710433</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7.306750174983759</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5.624374838168295</v>
+      </c>
+      <c r="K14" s="2">
+        <v>6.332710480382374</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8.03126283035563</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2">
+        <v>6.138852577930679</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.37103884345521</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.76</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7.706570470293208</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.287955683215489</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6.322624987370721</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5.94430512361283</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6.874297482949087</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7.102473677894812</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5.87778424961023</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4.7927091995551985</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5.208880893846525</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2">
+        <v>4.994687373285935</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.2980367710836336</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.79</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.197670361252222</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.148324216682205</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7.824000027180948</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5.8726673814319135</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.548606978505581</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6.590535873593174</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5.046042559119881</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4.967029554096603</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5.373321696305931</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2">
+        <v>4.645583589079133</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4.060424168509613</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.100039014610002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.853111983752575</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.775240307191065</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8.332383652476919</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.188160258850426</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7.358931178751492</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5.278170846982637</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6.019344324471217</v>
+      </c>
+      <c r="L17" s="2">
+        <v>4.611905441440637</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2">
+        <v>6.2248476811719105</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4.250033881847351</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7.401954403635077</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.95</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8.043911156645473</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.344333103181292</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6.1765083026071235</v>
+      </c>
+      <c r="I18" s="2">
+        <v>6.273501461102041</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4.592280461018424</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5.86579405668836</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6.267227616348494</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2">
+        <v>5.375993277989558</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.9079815259252166</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.949859693505493</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7.696035558337897</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.7113539937387765</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.314206124073012</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5.9269425158126054</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.4811894197683015</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5.605385057326984</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4.798385877975789</v>
+      </c>
+      <c r="K19" s="2">
+        <v>5.992084698961704</v>
+      </c>
+      <c r="L19" s="2">
+        <v>7.505504134928156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2">
+        <v>4.577008529851776</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.9765123303912953</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.265370395353134</v>
+      </c>
+      <c r="D20" s="2">
+        <v>6.425152426356935</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.482302623864714</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5.742968699370305</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.499640128993797</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6.565384560188054</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4.474036303490072</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5.0382312527646596</v>
+      </c>
+      <c r="K20" s="2">
+        <v>5.259233109149937</v>
+      </c>
+      <c r="L20" s="2">
+        <v>7.456787369978434</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2">
+        <v>6.057257871237359</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3.948617134344985</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.97</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7.10456166004229</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6.96</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7.812539270739903</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5.887638520859897</v>
+      </c>
+      <c r="H21" s="2">
+        <v>6.98</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5.571728323844184</v>
+      </c>
+      <c r="J21" s="2">
+        <v>4.855018069021192</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5.83142882451371</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5.955022538841728</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2">
+        <v>6.082686342291013</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.5126535396358167</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.920544227135794</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.923820960165378</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="F22" s="2">
+        <v>7.541218176664707</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4.958915359461168</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5.47</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7.347194391540178</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6.235603049578185</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5.958899373976839</v>
+      </c>
+      <c r="L22" s="2">
+        <v>4.824461647598058</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5.682561058422434</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6.41</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="L23" s="2">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="2">
+        <v>4.733873652226416</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3.1255153163602776</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5.78</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.555294665791365</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.174566822038111</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.655966235815601</v>
+      </c>
+      <c r="G24" s="2">
+        <v>4.9256731145477275</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6.529848377884271</v>
+      </c>
+      <c r="I24" s="2">
+        <v>7.174511931736857</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6.181113397403163</v>
+      </c>
+      <c r="K24" s="2">
+        <v>5.539488736150949</v>
+      </c>
+      <c r="L24" s="2">
+        <v>6.954620159248022</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2">
+        <v>5.037912241141281</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5.119324197682639</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7.54</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7.603840930926129</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.88047407499454</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6.514844084493875</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5.239035173771401</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7.04563149065519</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6.858558040491106</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5.34720246206906</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5.363163650806124</v>
+      </c>
+      <c r="L25" s="2">
+        <v>7.072515573837589</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2">
         <v>4.4</v>
       </c>
       <c r="B2" s="2">

--- a/R/assets/Data Boxplot.xlsx
+++ b/R/assets/Data Boxplot.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Blog\Learn\R\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8920C93A-3EA9-4D5B-AD36-F620FD75FC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Table"/>
-    <sheet r:id="rId2" sheetId="2" name="PP"/>
-    <sheet r:id="rId3" sheetId="3" name="LP"/>
-    <sheet r:id="rId4" sheetId="4" name="TP"/>
-    <sheet r:id="rId5" sheetId="5" name="PB"/>
-    <sheet r:id="rId6" sheetId="6" name="LB"/>
-    <sheet r:id="rId7" sheetId="7" name="TB"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="PP" sheetId="2" r:id="rId2"/>
+    <sheet name="LP" sheetId="3" r:id="rId3"/>
+    <sheet name="TP" sheetId="4" r:id="rId4"/>
+    <sheet name="PB" sheetId="5" r:id="rId5"/>
+    <sheet name="LB" sheetId="6" r:id="rId6"/>
+    <sheet name="TB" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="35">
   <si>
     <t>G11</t>
   </si>
@@ -112,9 +118,6 @@
     <t>Tebal Biji</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>MIN</t>
   </si>
   <si>
@@ -123,11 +126,17 @@
   <si>
     <t>MAX</t>
   </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>Galur</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -192,83 +201,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="2" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -279,10 +298,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -320,71 +339,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,7 +431,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -435,11 +454,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -448,13 +467,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -464,7 +483,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -473,7 +492,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -482,7 +501,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -490,10 +509,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -558,32 +577,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="3" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="26.7109375" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
@@ -602,1453 +613,2411 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
-        <f>CONCATENATE(B16,"−(",B17,")−",B18)</f>
-      </c>
-      <c r="C3" s="1">
-        <f>CONCATENATE(C16,"−(",C17,")−",C18)</f>
-      </c>
-      <c r="D3" s="1">
-        <f>CONCATENATE(D16,"−(",D17,")−",D18)</f>
-      </c>
-      <c r="E3" s="1">
-        <f>CONCATENATE(E16,"−(",E17,")−",E18)</f>
-      </c>
-      <c r="F3" s="1">
-        <f>CONCATENATE(F16,"−(",F17,")−",F18)</f>
-      </c>
-      <c r="G3" s="1">
-        <f>CONCATENATE(G16,"−(",G17,")−",G18)</f>
-      </c>
-      <c r="H3" s="1">
-        <f>CONCATENATE(H16,"−(",H17,")−",H18)</f>
-      </c>
-      <c r="I3" s="1">
-        <f>CONCATENATE(I16,"−(",I17,")−",I18)</f>
-      </c>
-      <c r="J3" s="1">
-        <f>CONCATENATE(J16,"−(",J17,")−",J18)</f>
-      </c>
-      <c r="K3" s="1">
-        <f>CONCATENATE(K16,"−(",K17,")−",K18)</f>
-      </c>
-      <c r="L3" s="1">
-        <f>CONCATENATE(L16,"−(",L17,")−",L18)</f>
-      </c>
-      <c r="M3" s="1">
-        <f>CONCATENATE(M16,"−(",M17,")−",M18)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="18" t="str">
+        <f>CONCATENATE(B12,"−(",B13,")−","(",B15,")−",B14)</f>
+        <v>36,77−(40,49)−(40,27)−44,25</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f t="shared" ref="C3:M3" si="0">CONCATENATE(C12,"−(",C13,")−","(",C15,")−",C14)</f>
+        <v>33,4−(36,55)−(37)−39,3</v>
+      </c>
+      <c r="D3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>43,3−(45,54)−(45,55)−47,8</v>
+      </c>
+      <c r="E3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>39,9−(44,49)−(44,09)−53</v>
+      </c>
+      <c r="F3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>35,1−(38,03)−(38)−40,6</v>
+      </c>
+      <c r="G3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>49,8−(52,82)−(52,95)−56,2</v>
+      </c>
+      <c r="H3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>41,12−(42,73)−(42,74)−44,49</v>
+      </c>
+      <c r="I3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>42,2−(46)−(46,35)−49,9</v>
+      </c>
+      <c r="J3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>42,2−(44,19)−(44,1)−46,8</v>
+      </c>
+      <c r="K3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>37,2−(39,86)−(39,55)−42,9</v>
+      </c>
+      <c r="L3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>38,54−(40,15)−(40,09)−41,86</v>
+      </c>
+      <c r="M3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>50,6−(52,97)−(52,7)−56,3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
-        <f>CONCATENATE(B21,"−(",B22,")−",B23)</f>
-      </c>
-      <c r="C4" s="1">
-        <f>CONCATENATE(C21,"−(",C22,")−",C23)</f>
-      </c>
-      <c r="D4" s="1">
-        <f>CONCATENATE(D21,"−(",D22,")−",D23)</f>
-      </c>
-      <c r="E4" s="1">
-        <f>CONCATENATE(E21,"−(",E22,")−",E23)</f>
-      </c>
-      <c r="F4" s="1">
-        <f>CONCATENATE(F21,"−(",F22,")−",F23)</f>
-      </c>
-      <c r="G4" s="1">
-        <f>CONCATENATE(G21,"−(",G22,")−",G23)</f>
-      </c>
-      <c r="H4" s="1">
-        <f>CONCATENATE(H21,"−(",H22,")−",H23)</f>
-      </c>
-      <c r="I4" s="1">
-        <f>CONCATENATE(I21,"−(",I22,")−",I23)</f>
-      </c>
-      <c r="J4" s="1">
-        <f>CONCATENATE(J21,"−(",J22,")−",J23)</f>
-      </c>
-      <c r="K4" s="1">
-        <f>CONCATENATE(K21,"−(",K22,")−",K23)</f>
-      </c>
-      <c r="L4" s="1">
-        <f>CONCATENATE(L21,"−(",L22,")−",L23)</f>
-      </c>
-      <c r="M4" s="1">
-        <f>CONCATENATE(M21,"−(",M22,")−",M23)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="18" t="str">
+        <f>CONCATENATE(B17,"−(",B18,")−","(",B20,")−",B19)</f>
+        <v>7,2−(8,54)−(8,6)−9,7</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f t="shared" ref="C4:M4" si="1">CONCATENATE(C17,"−(",C18,")−","(",C20,")−",C19)</f>
+        <v>6−(7,28)−(7,25)−8,5</v>
+      </c>
+      <c r="D4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>8,18−(10,11)−(10,15)−12,07</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>8,77−(9,73)−(9,68)−10,68</v>
+      </c>
+      <c r="F4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>6,5−(7,98)−(8,24)−8,89</v>
+      </c>
+      <c r="G4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>7,5−(9,28)−(9,36)−11,05</v>
+      </c>
+      <c r="H4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>7,6−(8,7)−(8,63)−9,65</v>
+      </c>
+      <c r="I4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>8,5−(9,66)−(9,63)−10,97</v>
+      </c>
+      <c r="J4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>7,7−(9,68)−(9,74)−11,34</v>
+      </c>
+      <c r="K4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>6,7−(8,41)−(8,56)−10,16</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>6,5−(7,76)−(7,74)−8,75</v>
+      </c>
+      <c r="M4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>9,07−(10,88)−(10,79)−12,41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
-        <f>CONCATENATE(B26,"−(",B27,")−",B28)</f>
-      </c>
-      <c r="C5" s="1">
-        <f>CONCATENATE(C26,"−(",C27,")−",C28)</f>
-      </c>
-      <c r="D5" s="1">
-        <f>CONCATENATE(D26,"−(",D27,")−",D28)</f>
-      </c>
-      <c r="E5" s="1">
-        <f>CONCATENATE(E26,"−(",E27,")−",E28)</f>
-      </c>
-      <c r="F5" s="1">
-        <f>CONCATENATE(F26,"−(",F27,")−",F28)</f>
-      </c>
-      <c r="G5" s="1">
-        <f>CONCATENATE(G26,"−(",G27,")−",G28)</f>
-      </c>
-      <c r="H5" s="1">
-        <f>CONCATENATE(H26,"−(",H27,")−",H28)</f>
-      </c>
-      <c r="I5" s="1">
-        <f>CONCATENATE(I26,"−(",I27,")−",I28)</f>
-      </c>
-      <c r="J5" s="1">
-        <f>CONCATENATE(J26,"−(",J27,")−",J28)</f>
-      </c>
-      <c r="K5" s="1">
-        <f>CONCATENATE(K26,"−(",K27,")−",K28)</f>
-      </c>
-      <c r="L5" s="1">
-        <f>CONCATENATE(L26,"−(",L27,")−",L28)</f>
-      </c>
-      <c r="M5" s="1">
-        <f>CONCATENATE(M26,"−(",M27,")−",M28)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="16" t="s">
+      <c r="B5" s="18" t="str">
+        <f>CONCATENATE(B22,"−(",B23,")−","(",B25,")−",B24)</f>
+        <v>5,33−(6,21)−(6,17)−7,7</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f t="shared" ref="C5:M5" si="2">CONCATENATE(C22,"−(",C23,")−","(",C25,")−",C24)</f>
+        <v>3,52−(4,48)−(4,6)−5,17</v>
+      </c>
+      <c r="D5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>5,11−(5,95)−(5,88)−6,81</v>
+      </c>
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>5,5−(7)−(6,98)−7,91</v>
+      </c>
+      <c r="F5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>4,6−(5,31)−(5,35)−6,26</v>
+      </c>
+      <c r="G5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>5,2−(5,91)−(5,95)−6,55</v>
+      </c>
+      <c r="H5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>4,25−(5,16)−(5,11)−6,1</v>
+      </c>
+      <c r="I5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>5,06−(5,92)−(5,86)−6,65</v>
+      </c>
+      <c r="J5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>4,5−(5,13)−(5,05)−5,91</v>
+      </c>
+      <c r="K5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>4,2−(5,19)−(5,2)−6,4</v>
+      </c>
+      <c r="L5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>4,71−(5,48)−(5,42)−6,22</v>
+      </c>
+      <c r="M5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>5,97−(6,75)−(6,72)−7,62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
-        <f>CONCATENATE(B31,"−(",B32,")−",B33)</f>
-      </c>
-      <c r="C6" s="1">
-        <f>CONCATENATE(C31,"−(",C32,")−",C33)</f>
-      </c>
-      <c r="D6" s="1">
-        <f>CONCATENATE(D31,"−(",D32,")−",D33)</f>
-      </c>
-      <c r="E6" s="1">
-        <f>CONCATENATE(E31,"−(",E32,")−",E33)</f>
-      </c>
-      <c r="F6" s="1">
-        <f>CONCATENATE(F31,"−(",F32,")−",F33)</f>
-      </c>
-      <c r="G6" s="1">
-        <f>CONCATENATE(G31,"−(",G32,")−",G33)</f>
-      </c>
-      <c r="H6" s="1">
-        <f>CONCATENATE(H31,"−(",H32,")−",H33)</f>
-      </c>
-      <c r="I6" s="1">
-        <f>CONCATENATE(I31,"−(",I32,")−",I33)</f>
-      </c>
-      <c r="J6" s="1">
-        <f>CONCATENATE(J31,"−(",J32,")−",J33)</f>
-      </c>
-      <c r="K6" s="1">
-        <f>CONCATENATE(K31,"−(",K32,")−",K33)</f>
-      </c>
-      <c r="L6" s="1">
-        <f>CONCATENATE(L31,"−(",L32,")−",L33)</f>
-      </c>
-      <c r="M6" s="1">
-        <f>CONCATENATE(M31,"−(",M32,")−",M33)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="16" t="s">
+      <c r="B6" s="18" t="str">
+        <f>CONCATENATE(B27,"−(",B28,")−","(",B30,")−",B29)</f>
+        <v>3,73−(4,71)−(4,68)−5,56</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f t="shared" ref="C6:M6" si="3">CONCATENATE(C27,"−(",C28,")−","(",C30,")−",C29)</f>
+        <v>3,58−(4,25)−(4,3)−4,95</v>
+      </c>
+      <c r="D6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>4,53−(5,33)−(5,4)−6,44</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>4,7−(5,72)−(5,57)−7,2</v>
+      </c>
+      <c r="F6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>3,87−(4,89)−(4,97)−5,85</v>
+      </c>
+      <c r="G6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>3,3−(4,26)−(4,37)−5</v>
+      </c>
+      <c r="H6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>3,43−(4,11)−(4,19)−4,8</v>
+      </c>
+      <c r="I6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>4,33−(5,13)−(5,18)−5,87</v>
+      </c>
+      <c r="J6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>3,78−(4,58)−(4,7)−5,34</v>
+      </c>
+      <c r="K6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>3,74−(4,56)−(4,55)−5,44</v>
+      </c>
+      <c r="L6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>3,84−(4,81)−(4,8)−5,58</v>
+      </c>
+      <c r="M6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>4,99−(5,91)−(5,91)−6,9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
-        <f>CONCATENATE(B36,"−(",B37,")−",B38)</f>
-      </c>
-      <c r="C7" s="1">
-        <f>CONCATENATE(C36,"−(",C37,")−",C38)</f>
-      </c>
-      <c r="D7" s="1">
-        <f>CONCATENATE(D36,"−(",D37,")−",D38)</f>
-      </c>
-      <c r="E7" s="1">
-        <f>CONCATENATE(E36,"−(",E37,")−",E38)</f>
-      </c>
-      <c r="F7" s="1">
-        <f>CONCATENATE(F36,"−(",F37,")−",F38)</f>
-      </c>
-      <c r="G7" s="1">
-        <f>CONCATENATE(G36,"−(",G37,")−",G38)</f>
-      </c>
-      <c r="H7" s="1">
-        <f>CONCATENATE(H36,"−(",H37,")−",H38)</f>
-      </c>
-      <c r="I7" s="1">
-        <f>CONCATENATE(I36,"−(",I37,")−",I38)</f>
-      </c>
-      <c r="J7" s="1">
-        <f>CONCATENATE(J36,"−(",J37,")−",J38)</f>
-      </c>
-      <c r="K7" s="1">
-        <f>CONCATENATE(K36,"−(",K37,")−",K38)</f>
-      </c>
-      <c r="L7" s="1">
-        <f>CONCATENATE(L36,"−(",L37,")−",L38)</f>
-      </c>
-      <c r="M7" s="1">
-        <f>CONCATENATE(M36,"−(",M37,")−",M38)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="18" t="str">
+        <f>CONCATENATE(B32,"−(",B33,")−","(",B35,")−",B34)</f>
+        <v>4,58−(5,46)−(5,45)−6,22</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f t="shared" ref="C7:M7" si="4">CONCATENATE(C32,"−(",C33,")−","(",C35,")−",C34)</f>
+        <v>2,98−(4,32)−(4,28)−5,37</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>5,64−(6,83)−(6,84)−7,97</v>
+      </c>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>5,92−(6,88)−(6,87)−7,71</v>
+      </c>
+      <c r="F7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>3,78−(5,35)−(5,49)−6,96</v>
+      </c>
+      <c r="G7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>5,31−(6,75)−(6,56)−8,33</v>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>4,8−(5,52)−(5,5)−6,34</v>
+      </c>
+      <c r="I7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>5,47−(6,3)−(6,25)−7,18</v>
+      </c>
+      <c r="J7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>4,47−(6,17)−(6,1)−7,36</v>
+      </c>
+      <c r="K7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>4,59−(5,46)−(5,39)−6,3</v>
+      </c>
+      <c r="L7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>4,6−(5,61)−(5,57)−6,9</v>
+      </c>
+      <c r="M7" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>4,61−(6,38)−(6,3)−8,03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
-        <f>CONCATENATE(B41,"−(",B42,")−",B43)</f>
-      </c>
-      <c r="C8" s="1">
-        <f>CONCATENATE(C41,"−(",C42,")−",C43)</f>
-      </c>
-      <c r="D8" s="1">
-        <f>CONCATENATE(D41,"−(",D42,")−",D43)</f>
-      </c>
-      <c r="E8" s="1">
-        <f>CONCATENATE(E41,"−(",E42,")−",E43)</f>
-      </c>
-      <c r="F8" s="1">
-        <f>CONCATENATE(F41,"−(",F42,")−",F43)</f>
-      </c>
-      <c r="G8" s="1">
-        <f>CONCATENATE(G41,"−(",G42,")−",G43)</f>
-      </c>
-      <c r="H8" s="1">
-        <f>CONCATENATE(H41,"−(",H42,")−",H43)</f>
-      </c>
-      <c r="I8" s="1">
-        <f>CONCATENATE(I41,"−(",I42,")−",I43)</f>
-      </c>
-      <c r="J8" s="1">
-        <f>CONCATENATE(J41,"−(",J42,")−",J43)</f>
-      </c>
-      <c r="K8" s="1">
-        <f>CONCATENATE(K41,"−(",K42,")−",K43)</f>
-      </c>
-      <c r="L8" s="1">
-        <f>CONCATENATE(L41,"−(",L42,")−",L43)</f>
-      </c>
-      <c r="M8" s="1">
-        <f>CONCATENATE(M41,"−(",M42,")−",M43)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
+      <c r="B8" s="18" t="str">
+        <f>CONCATENATE(B37,"−(",B38,")−","(",B40,")−",B39)</f>
+        <v>3,73−(4,71)−(4,68)−5,56</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f t="shared" ref="C8:M8" si="5">CONCATENATE(C37,"−(",C38,")−","(",C40,")−",C39)</f>
+        <v>3,58−(4,25)−(4,3)−4,95</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>4,53−(5,33)−(5,4)−6,44</v>
+      </c>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>4,7−(5,72)−(5,57)−7,2</v>
+      </c>
+      <c r="F8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>3,87−(4,89)−(4,97)−5,85</v>
+      </c>
+      <c r="G8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>3,3−(4,26)−(4,37)−5</v>
+      </c>
+      <c r="H8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>3,43−(4,11)−(4,19)−4,8</v>
+      </c>
+      <c r="I8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>4,33−(5,13)−(5,18)−5,87</v>
+      </c>
+      <c r="J8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>3,78−(4,58)−(4,7)−5,34</v>
+      </c>
+      <c r="K8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>3,74−(4,56)−(4,55)−5,44</v>
+      </c>
+      <c r="L8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>3,84−(4,81)−(4,8)−5,58</v>
+      </c>
+      <c r="M8" s="18" t="str">
+        <f t="shared" si="5"/>
+        <v>4,99−(5,91)−(5,91)−6,9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="18" t="str">
+        <f t="shared" ref="B11:M11" si="6">B$2</f>
+        <v>G11</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G12</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G13</v>
+      </c>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G14</v>
+      </c>
+      <c r="F11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G15</v>
+      </c>
+      <c r="G11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G16</v>
+      </c>
+      <c r="H11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G17</v>
+      </c>
+      <c r="I11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G18</v>
+      </c>
+      <c r="J11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G19</v>
+      </c>
+      <c r="K11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G20</v>
+      </c>
+      <c r="L11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G32</v>
+      </c>
+      <c r="M11" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v>G33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="1">
-        <f>B$2</f>
-      </c>
-      <c r="C15" s="1">
-        <f>C$2</f>
-      </c>
-      <c r="D15" s="1">
-        <f>D$2</f>
-      </c>
-      <c r="E15" s="1">
-        <f>E$2</f>
-      </c>
-      <c r="F15" s="1">
-        <f>F$2</f>
-      </c>
-      <c r="G15" s="1">
-        <f>G$2</f>
-      </c>
-      <c r="H15" s="1">
-        <f>H$2</f>
-      </c>
-      <c r="I15" s="1">
-        <f>I$2</f>
-      </c>
-      <c r="J15" s="1">
-        <f>J$2</f>
-      </c>
-      <c r="K15" s="1">
-        <f>K$2</f>
-      </c>
-      <c r="L15" s="1">
-        <f>L$2</f>
-      </c>
-      <c r="M15" s="1">
-        <f>M$2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="16" t="s">
+      <c r="B12" s="18">
+        <f>ROUND(MIN(PP!A$2:A$25), 2)</f>
+        <v>36.770000000000003</v>
+      </c>
+      <c r="C12" s="18">
+        <f>ROUND(MIN(PP!B$2:B$25), 2)</f>
+        <v>33.4</v>
+      </c>
+      <c r="D12" s="18">
+        <f>ROUND(MIN(PP!C$2:C$25), 2)</f>
+        <v>43.3</v>
+      </c>
+      <c r="E12" s="18">
+        <f>ROUND(MIN(PP!D$2:D$25), 2)</f>
+        <v>39.9</v>
+      </c>
+      <c r="F12" s="18">
+        <f>ROUND(MIN(PP!E$2:E$25), 2)</f>
+        <v>35.1</v>
+      </c>
+      <c r="G12" s="18">
+        <f>ROUND(MIN(PP!F$2:F$25), 2)</f>
+        <v>49.8</v>
+      </c>
+      <c r="H12" s="18">
+        <f>ROUND(MIN(PP!G$2:G$25), 2)</f>
+        <v>41.12</v>
+      </c>
+      <c r="I12" s="18">
+        <f>ROUND(MIN(PP!H$2:H$25), 2)</f>
+        <v>42.2</v>
+      </c>
+      <c r="J12" s="18">
+        <f>ROUND(MIN(PP!I$2:I$25), 2)</f>
+        <v>42.2</v>
+      </c>
+      <c r="K12" s="18">
+        <f>ROUND(MIN(PP!J$2:J$25), 2)</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L12" s="18">
+        <f>ROUND(MIN(PP!K$2:K$25), 2)</f>
+        <v>38.54</v>
+      </c>
+      <c r="M12" s="18">
+        <f>ROUND(MIN(PP!L$2:L$25), 2)</f>
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="1">
-        <f>ROUND(MIN(PP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C16" s="1">
-        <f>ROUND(MIN(PP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D16" s="1">
-        <f>ROUND(MIN(PP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E16" s="1">
-        <f>ROUND(MIN(PP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F16" s="1">
-        <f>ROUND(MIN(PP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G16" s="1">
-        <f>ROUND(MIN(PP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H16" s="1">
-        <f>ROUND(MIN(PP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I16" s="1">
-        <f>ROUND(MIN(PP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J16" s="1">
-        <f>ROUND(MIN(PP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K16" s="1">
-        <f>ROUND(MIN(PP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L16" s="1">
-        <f>ROUND(MIN(PP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M16" s="1">
-        <f>ROUND(MIN(PP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="16" t="s">
+      <c r="B13" s="18">
+        <f>ROUND(AVERAGE(PP!A$2:A$25), 2)</f>
+        <v>40.49</v>
+      </c>
+      <c r="C13" s="18">
+        <f>ROUND(AVERAGE(PP!B$2:B$25), 2)</f>
+        <v>36.549999999999997</v>
+      </c>
+      <c r="D13" s="18">
+        <f>ROUND(AVERAGE(PP!C$2:C$25), 2)</f>
+        <v>45.54</v>
+      </c>
+      <c r="E13" s="18">
+        <f>ROUND(AVERAGE(PP!D$2:D$25), 2)</f>
+        <v>44.49</v>
+      </c>
+      <c r="F13" s="18">
+        <f>ROUND(AVERAGE(PP!E$2:E$25), 2)</f>
+        <v>38.03</v>
+      </c>
+      <c r="G13" s="18">
+        <f>ROUND(AVERAGE(PP!F$2:F$25), 2)</f>
+        <v>52.82</v>
+      </c>
+      <c r="H13" s="18">
+        <f>ROUND(AVERAGE(PP!G$2:G$25), 2)</f>
+        <v>42.73</v>
+      </c>
+      <c r="I13" s="18">
+        <f>ROUND(AVERAGE(PP!H$2:H$25), 2)</f>
+        <v>46</v>
+      </c>
+      <c r="J13" s="18">
+        <f>ROUND(AVERAGE(PP!I$2:I$25), 2)</f>
+        <v>44.19</v>
+      </c>
+      <c r="K13" s="18">
+        <f>ROUND(AVERAGE(PP!J$2:J$25), 2)</f>
+        <v>39.86</v>
+      </c>
+      <c r="L13" s="18">
+        <f>ROUND(AVERAGE(PP!K$2:K$25), 2)</f>
+        <v>40.15</v>
+      </c>
+      <c r="M13" s="18">
+        <f>ROUND(AVERAGE(PP!L$2:L$25), 2)</f>
+        <v>52.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1">
-        <f>ROUND(AVERAGE(PP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C17" s="1">
-        <f>ROUND(AVERAGE(PP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D17" s="1">
-        <f>ROUND(AVERAGE(PP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E17" s="1">
-        <f>ROUND(AVERAGE(PP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F17" s="1">
-        <f>ROUND(AVERAGE(PP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G17" s="1">
-        <f>ROUND(AVERAGE(PP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H17" s="1">
-        <f>ROUND(AVERAGE(PP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I17" s="1">
-        <f>ROUND(AVERAGE(PP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J17" s="1">
-        <f>ROUND(AVERAGE(PP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K17" s="1">
-        <f>ROUND(AVERAGE(PP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L17" s="1">
-        <f>ROUND(AVERAGE(PP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M17" s="1">
-        <f>ROUND(AVERAGE(PP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="16" t="s">
+      <c r="B14" s="18">
+        <f>ROUND(MAX(PP!A$2:A$25), 2)</f>
+        <v>44.25</v>
+      </c>
+      <c r="C14" s="18">
+        <f>ROUND(MAX(PP!B$2:B$25), 2)</f>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D14" s="18">
+        <f>ROUND(MAX(PP!C$2:C$25), 2)</f>
+        <v>47.8</v>
+      </c>
+      <c r="E14" s="18">
+        <f>ROUND(MAX(PP!D$2:D$25), 2)</f>
+        <v>53</v>
+      </c>
+      <c r="F14" s="18">
+        <f>ROUND(MAX(PP!E$2:E$25), 2)</f>
+        <v>40.6</v>
+      </c>
+      <c r="G14" s="18">
+        <f>ROUND(MAX(PP!F$2:F$25), 2)</f>
+        <v>56.2</v>
+      </c>
+      <c r="H14" s="18">
+        <f>ROUND(MAX(PP!G$2:G$25), 2)</f>
+        <v>44.49</v>
+      </c>
+      <c r="I14" s="18">
+        <f>ROUND(MAX(PP!H$2:H$25), 2)</f>
+        <v>49.9</v>
+      </c>
+      <c r="J14" s="18">
+        <f>ROUND(MAX(PP!I$2:I$25), 2)</f>
+        <v>46.8</v>
+      </c>
+      <c r="K14" s="18">
+        <f>ROUND(MAX(PP!J$2:J$25), 2)</f>
+        <v>42.9</v>
+      </c>
+      <c r="L14" s="18">
+        <f>ROUND(MAX(PP!K$2:K$25), 2)</f>
+        <v>41.86</v>
+      </c>
+      <c r="M14" s="18">
+        <f>ROUND(MAX(PP!L$2:L$25), 2)</f>
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="1">
-        <f>ROUND(MAX(PP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C18" s="1">
-        <f>ROUND(MAX(PP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D18" s="1">
-        <f>ROUND(MAX(PP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E18" s="1">
-        <f>ROUND(MAX(PP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F18" s="1">
-        <f>ROUND(MAX(PP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G18" s="1">
-        <f>ROUND(MAX(PP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H18" s="1">
-        <f>ROUND(MAX(PP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I18" s="1">
-        <f>ROUND(MAX(PP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J18" s="1">
-        <f>ROUND(MAX(PP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K18" s="1">
-        <f>ROUND(MAX(PP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L18" s="1">
-        <f>ROUND(MAX(PP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M18" s="1">
-        <f>ROUND(MAX(PP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="21" t="s">
+      <c r="B15" s="18">
+        <f>ROUND(MEDIAN(PP!A$2:A$25), 2)</f>
+        <v>40.270000000000003</v>
+      </c>
+      <c r="C15" s="18">
+        <f>ROUND(MEDIAN(PP!B$2:B$25), 2)</f>
+        <v>37</v>
+      </c>
+      <c r="D15" s="18">
+        <f>ROUND(MEDIAN(PP!C$2:C$25), 2)</f>
+        <v>45.55</v>
+      </c>
+      <c r="E15" s="18">
+        <f>ROUND(MEDIAN(PP!D$2:D$25), 2)</f>
+        <v>44.09</v>
+      </c>
+      <c r="F15" s="18">
+        <f>ROUND(MEDIAN(PP!E$2:E$25), 2)</f>
+        <v>38</v>
+      </c>
+      <c r="G15" s="18">
+        <f>ROUND(MEDIAN(PP!F$2:F$25), 2)</f>
+        <v>52.95</v>
+      </c>
+      <c r="H15" s="18">
+        <f>ROUND(MEDIAN(PP!G$2:G$25), 2)</f>
+        <v>42.74</v>
+      </c>
+      <c r="I15" s="18">
+        <f>ROUND(MEDIAN(PP!H$2:H$25), 2)</f>
+        <v>46.35</v>
+      </c>
+      <c r="J15" s="18">
+        <f>ROUND(MEDIAN(PP!I$2:I$25), 2)</f>
+        <v>44.1</v>
+      </c>
+      <c r="K15" s="18">
+        <f>ROUND(MEDIAN(PP!J$2:J$25), 2)</f>
+        <v>39.549999999999997</v>
+      </c>
+      <c r="L15" s="18">
+        <f>ROUND(MEDIAN(PP!K$2:K$25), 2)</f>
+        <v>40.090000000000003</v>
+      </c>
+      <c r="M15" s="18">
+        <f>ROUND(MEDIAN(PP!L$2:L$25), 2)</f>
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1">
-        <f>B$2</f>
-      </c>
-      <c r="C20" s="1">
-        <f>C$2</f>
-      </c>
-      <c r="D20" s="1">
-        <f>D$2</f>
-      </c>
-      <c r="E20" s="1">
-        <f>E$2</f>
-      </c>
-      <c r="F20" s="1">
-        <f>F$2</f>
-      </c>
-      <c r="G20" s="1">
-        <f>G$2</f>
-      </c>
-      <c r="H20" s="1">
-        <f>H$2</f>
-      </c>
-      <c r="I20" s="1">
-        <f>I$2</f>
-      </c>
-      <c r="J20" s="1">
-        <f>J$2</f>
-      </c>
-      <c r="K20" s="1">
-        <f>K$2</f>
-      </c>
-      <c r="L20" s="1">
-        <f>L$2</f>
-      </c>
-      <c r="M20" s="1">
-        <f>M$2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="16" t="s">
+      <c r="B16" s="18" t="str">
+        <f t="shared" ref="B16:M16" si="7">B$2</f>
+        <v>G11</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G12</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G13</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G14</v>
+      </c>
+      <c r="F16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G15</v>
+      </c>
+      <c r="G16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G16</v>
+      </c>
+      <c r="H16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G17</v>
+      </c>
+      <c r="I16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G18</v>
+      </c>
+      <c r="J16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G19</v>
+      </c>
+      <c r="K16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G20</v>
+      </c>
+      <c r="L16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G32</v>
+      </c>
+      <c r="M16" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>G33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="18">
+        <f>ROUND(MIN(LP!A$2:A$25), 2)</f>
+        <v>7.2</v>
+      </c>
+      <c r="C17" s="18">
+        <f>ROUND(MIN(LP!B$2:B$25), 2)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="18">
+        <f>ROUND(MIN(LP!C$2:C$25), 2)</f>
+        <v>8.18</v>
+      </c>
+      <c r="E17" s="18">
+        <f>ROUND(MIN(LP!D$2:D$25), 2)</f>
+        <v>8.77</v>
+      </c>
+      <c r="F17" s="18">
+        <f>ROUND(MIN(LP!E$2:E$25), 2)</f>
+        <v>6.5</v>
+      </c>
+      <c r="G17" s="18">
+        <f>ROUND(MIN(LP!F$2:F$25), 2)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H17" s="18">
+        <f>ROUND(MIN(LP!G$2:G$25), 2)</f>
+        <v>7.6</v>
+      </c>
+      <c r="I17" s="18">
+        <f>ROUND(MIN(LP!H$2:H$25), 2)</f>
+        <v>8.5</v>
+      </c>
+      <c r="J17" s="18">
+        <f>ROUND(MIN(LP!I$2:I$25), 2)</f>
+        <v>7.7</v>
+      </c>
+      <c r="K17" s="18">
+        <f>ROUND(MIN(LP!J$2:J$25), 2)</f>
+        <v>6.7</v>
+      </c>
+      <c r="L17" s="18">
+        <f>ROUND(MIN(LP!K$2:K$25), 2)</f>
+        <v>6.5</v>
+      </c>
+      <c r="M17" s="18">
+        <f>ROUND(MIN(LP!L$2:L$25), 2)</f>
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1">
-        <f>ROUND(MIN(LP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C21" s="1">
-        <f>ROUND(MIN(LP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D21" s="1">
-        <f>ROUND(MIN(LP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E21" s="1">
-        <f>ROUND(MIN(LP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F21" s="1">
-        <f>ROUND(MIN(LP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G21" s="1">
-        <f>ROUND(MIN(LP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H21" s="1">
-        <f>ROUND(MIN(LP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I21" s="1">
-        <f>ROUND(MIN(LP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J21" s="1">
-        <f>ROUND(MIN(LP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K21" s="1">
-        <f>ROUND(MIN(LP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L21" s="1">
-        <f>ROUND(MIN(LP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M21" s="1">
-        <f>ROUND(MIN(LP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="16" t="s">
+      <c r="B18" s="18">
+        <f>ROUND(AVERAGE(LP!A$2:A$25), 2)</f>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C18" s="18">
+        <f>ROUND(AVERAGE(LP!B$2:B$25), 2)</f>
+        <v>7.28</v>
+      </c>
+      <c r="D18" s="18">
+        <f>ROUND(AVERAGE(LP!C$2:C$25), 2)</f>
+        <v>10.11</v>
+      </c>
+      <c r="E18" s="18">
+        <f>ROUND(AVERAGE(LP!D$2:D$25), 2)</f>
+        <v>9.73</v>
+      </c>
+      <c r="F18" s="18">
+        <f>ROUND(AVERAGE(LP!E$2:E$25), 2)</f>
+        <v>7.98</v>
+      </c>
+      <c r="G18" s="18">
+        <f>ROUND(AVERAGE(LP!F$2:F$25), 2)</f>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H18" s="18">
+        <f>ROUND(AVERAGE(LP!G$2:G$25), 2)</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I18" s="18">
+        <f>ROUND(AVERAGE(LP!H$2:H$25), 2)</f>
+        <v>9.66</v>
+      </c>
+      <c r="J18" s="18">
+        <f>ROUND(AVERAGE(LP!I$2:I$25), 2)</f>
+        <v>9.68</v>
+      </c>
+      <c r="K18" s="18">
+        <f>ROUND(AVERAGE(LP!J$2:J$25), 2)</f>
+        <v>8.41</v>
+      </c>
+      <c r="L18" s="18">
+        <f>ROUND(AVERAGE(LP!K$2:K$25), 2)</f>
+        <v>7.76</v>
+      </c>
+      <c r="M18" s="18">
+        <f>ROUND(AVERAGE(LP!L$2:L$25), 2)</f>
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1">
-        <f>ROUND(AVERAGE(LP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C22" s="1">
-        <f>ROUND(AVERAGE(LP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D22" s="1">
-        <f>ROUND(AVERAGE(LP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E22" s="1">
-        <f>ROUND(AVERAGE(LP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F22" s="1">
-        <f>ROUND(AVERAGE(LP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G22" s="1">
-        <f>ROUND(AVERAGE(LP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H22" s="1">
-        <f>ROUND(AVERAGE(LP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I22" s="1">
-        <f>ROUND(AVERAGE(LP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J22" s="1">
-        <f>ROUND(AVERAGE(LP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K22" s="1">
-        <f>ROUND(AVERAGE(LP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L22" s="1">
-        <f>ROUND(AVERAGE(LP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M22" s="1">
-        <f>ROUND(AVERAGE(LP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="16" t="s">
+      <c r="B19" s="18">
+        <f>ROUND(MAX(LP!A$2:A$25), 2)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C19" s="18">
+        <f>ROUND(MAX(LP!B$2:B$25), 2)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D19" s="18">
+        <f>ROUND(MAX(LP!C$2:C$25), 2)</f>
+        <v>12.07</v>
+      </c>
+      <c r="E19" s="18">
+        <f>ROUND(MAX(LP!D$2:D$25), 2)</f>
+        <v>10.68</v>
+      </c>
+      <c r="F19" s="18">
+        <f>ROUND(MAX(LP!E$2:E$25), 2)</f>
+        <v>8.89</v>
+      </c>
+      <c r="G19" s="18">
+        <f>ROUND(MAX(LP!F$2:F$25), 2)</f>
+        <v>11.05</v>
+      </c>
+      <c r="H19" s="18">
+        <f>ROUND(MAX(LP!G$2:G$25), 2)</f>
+        <v>9.65</v>
+      </c>
+      <c r="I19" s="18">
+        <f>ROUND(MAX(LP!H$2:H$25), 2)</f>
+        <v>10.97</v>
+      </c>
+      <c r="J19" s="18">
+        <f>ROUND(MAX(LP!I$2:I$25), 2)</f>
+        <v>11.34</v>
+      </c>
+      <c r="K19" s="18">
+        <f>ROUND(MAX(LP!J$2:J$25), 2)</f>
+        <v>10.16</v>
+      </c>
+      <c r="L19" s="18">
+        <f>ROUND(MAX(LP!K$2:K$25), 2)</f>
+        <v>8.75</v>
+      </c>
+      <c r="M19" s="18">
+        <f>ROUND(MAX(LP!L$2:L$25), 2)</f>
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="1">
-        <f>ROUND(MAX(LP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C23" s="1">
-        <f>ROUND(MAX(LP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D23" s="1">
-        <f>ROUND(MAX(LP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E23" s="1">
-        <f>ROUND(MAX(LP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F23" s="1">
-        <f>ROUND(MAX(LP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G23" s="1">
-        <f>ROUND(MAX(LP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H23" s="1">
-        <f>ROUND(MAX(LP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I23" s="1">
-        <f>ROUND(MAX(LP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J23" s="1">
-        <f>ROUND(MAX(LP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K23" s="1">
-        <f>ROUND(MAX(LP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L23" s="1">
-        <f>ROUND(MAX(LP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M23" s="1">
-        <f>ROUND(MAX(LP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="21" t="s">
+      <c r="B20" s="18">
+        <f>ROUND(MEDIAN(LP!A$2:A$25), 2)</f>
+        <v>8.6</v>
+      </c>
+      <c r="C20" s="18">
+        <f>ROUND(MEDIAN(LP!B$2:B$25), 2)</f>
+        <v>7.25</v>
+      </c>
+      <c r="D20" s="18">
+        <f>ROUND(MEDIAN(LP!C$2:C$25), 2)</f>
+        <v>10.15</v>
+      </c>
+      <c r="E20" s="18">
+        <f>ROUND(MEDIAN(LP!D$2:D$25), 2)</f>
+        <v>9.68</v>
+      </c>
+      <c r="F20" s="18">
+        <f>ROUND(MEDIAN(LP!E$2:E$25), 2)</f>
+        <v>8.24</v>
+      </c>
+      <c r="G20" s="18">
+        <f>ROUND(MEDIAN(LP!F$2:F$25), 2)</f>
+        <v>9.36</v>
+      </c>
+      <c r="H20" s="18">
+        <f>ROUND(MEDIAN(LP!G$2:G$25), 2)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="I20" s="18">
+        <f>ROUND(MEDIAN(LP!H$2:H$25), 2)</f>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="J20" s="18">
+        <f>ROUND(MEDIAN(LP!I$2:I$25), 2)</f>
+        <v>9.74</v>
+      </c>
+      <c r="K20" s="18">
+        <f>ROUND(MEDIAN(LP!J$2:J$25), 2)</f>
+        <v>8.56</v>
+      </c>
+      <c r="L20" s="18">
+        <f>ROUND(MEDIAN(LP!K$2:K$25), 2)</f>
+        <v>7.74</v>
+      </c>
+      <c r="M20" s="18">
+        <f>ROUND(MEDIAN(LP!L$2:L$25), 2)</f>
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
-        <f>B$2</f>
-      </c>
-      <c r="C25" s="1">
-        <f>C$2</f>
-      </c>
-      <c r="D25" s="1">
-        <f>D$2</f>
-      </c>
-      <c r="E25" s="1">
-        <f>E$2</f>
-      </c>
-      <c r="F25" s="1">
-        <f>F$2</f>
-      </c>
-      <c r="G25" s="1">
-        <f>G$2</f>
-      </c>
-      <c r="H25" s="1">
-        <f>H$2</f>
-      </c>
-      <c r="I25" s="1">
-        <f>I$2</f>
-      </c>
-      <c r="J25" s="1">
-        <f>J$2</f>
-      </c>
-      <c r="K25" s="1">
-        <f>K$2</f>
-      </c>
-      <c r="L25" s="1">
-        <f>L$2</f>
-      </c>
-      <c r="M25" s="1">
-        <f>M$2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="16" t="s">
+      <c r="B21" s="18" t="str">
+        <f t="shared" ref="B21:M21" si="8">B$2</f>
+        <v>G11</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G12</v>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G13</v>
+      </c>
+      <c r="E21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G14</v>
+      </c>
+      <c r="F21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G15</v>
+      </c>
+      <c r="G21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G16</v>
+      </c>
+      <c r="H21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G17</v>
+      </c>
+      <c r="I21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G18</v>
+      </c>
+      <c r="J21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G19</v>
+      </c>
+      <c r="K21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G20</v>
+      </c>
+      <c r="L21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G32</v>
+      </c>
+      <c r="M21" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>G33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="18">
+        <f>ROUND(MIN(TP!A$2:A$25), 2)</f>
+        <v>5.33</v>
+      </c>
+      <c r="C22" s="18">
+        <f>ROUND(MIN(TP!B$2:B$25), 2)</f>
+        <v>3.52</v>
+      </c>
+      <c r="D22" s="18">
+        <f>ROUND(MIN(TP!C$2:C$25), 2)</f>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E22" s="18">
+        <f>ROUND(MIN(TP!D$2:D$25), 2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F22" s="18">
+        <f>ROUND(MIN(TP!E$2:E$25), 2)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G22" s="18">
+        <f>ROUND(MIN(TP!F$2:F$25), 2)</f>
+        <v>5.2</v>
+      </c>
+      <c r="H22" s="18">
+        <f>ROUND(MIN(TP!G$2:G$25), 2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="I22" s="18">
+        <f>ROUND(MIN(TP!H$2:H$25), 2)</f>
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="J22" s="18">
+        <f>ROUND(MIN(TP!I$2:I$25), 2)</f>
+        <v>4.5</v>
+      </c>
+      <c r="K22" s="18">
+        <f>ROUND(MIN(TP!J$2:J$25), 2)</f>
+        <v>4.2</v>
+      </c>
+      <c r="L22" s="18">
+        <f>ROUND(MIN(TP!K$2:K$25), 2)</f>
+        <v>4.71</v>
+      </c>
+      <c r="M22" s="18">
+        <f>ROUND(MIN(TP!L$2:L$25), 2)</f>
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1">
-        <f>ROUND(MIN(TP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C26" s="1">
-        <f>ROUND(MIN(TP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D26" s="1">
-        <f>ROUND(MIN(TP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E26" s="1">
-        <f>ROUND(MIN(TP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F26" s="1">
-        <f>ROUND(MIN(TP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G26" s="1">
-        <f>ROUND(MIN(TP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H26" s="1">
-        <f>ROUND(MIN(TP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I26" s="1">
-        <f>ROUND(MIN(TP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J26" s="1">
-        <f>ROUND(MIN(TP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K26" s="1">
-        <f>ROUND(MIN(TP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L26" s="1">
-        <f>ROUND(MIN(TP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M26" s="1">
-        <f>ROUND(MIN(TP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="16" t="s">
+      <c r="B23" s="18">
+        <f>ROUND(AVERAGE(TP!A$2:A$25), 2)</f>
+        <v>6.21</v>
+      </c>
+      <c r="C23" s="18">
+        <f>ROUND(AVERAGE(TP!B$2:B$25), 2)</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D23" s="18">
+        <f>ROUND(AVERAGE(TP!C$2:C$25), 2)</f>
+        <v>5.95</v>
+      </c>
+      <c r="E23" s="18">
+        <f>ROUND(AVERAGE(TP!D$2:D$25), 2)</f>
+        <v>7</v>
+      </c>
+      <c r="F23" s="18">
+        <f>ROUND(AVERAGE(TP!E$2:E$25), 2)</f>
+        <v>5.31</v>
+      </c>
+      <c r="G23" s="18">
+        <f>ROUND(AVERAGE(TP!F$2:F$25), 2)</f>
+        <v>5.91</v>
+      </c>
+      <c r="H23" s="18">
+        <f>ROUND(AVERAGE(TP!G$2:G$25), 2)</f>
+        <v>5.16</v>
+      </c>
+      <c r="I23" s="18">
+        <f>ROUND(AVERAGE(TP!H$2:H$25), 2)</f>
+        <v>5.92</v>
+      </c>
+      <c r="J23" s="18">
+        <f>ROUND(AVERAGE(TP!I$2:I$25), 2)</f>
+        <v>5.13</v>
+      </c>
+      <c r="K23" s="18">
+        <f>ROUND(AVERAGE(TP!J$2:J$25), 2)</f>
+        <v>5.19</v>
+      </c>
+      <c r="L23" s="18">
+        <f>ROUND(AVERAGE(TP!K$2:K$25), 2)</f>
+        <v>5.48</v>
+      </c>
+      <c r="M23" s="18">
+        <f>ROUND(AVERAGE(TP!L$2:L$25), 2)</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1">
-        <f>ROUND(AVERAGE(TP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C27" s="1">
-        <f>ROUND(AVERAGE(TP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D27" s="1">
-        <f>ROUND(AVERAGE(TP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E27" s="1">
-        <f>ROUND(AVERAGE(TP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F27" s="1">
-        <f>ROUND(AVERAGE(TP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G27" s="1">
-        <f>ROUND(AVERAGE(TP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H27" s="1">
-        <f>ROUND(AVERAGE(TP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I27" s="1">
-        <f>ROUND(AVERAGE(TP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J27" s="1">
-        <f>ROUND(AVERAGE(TP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K27" s="1">
-        <f>ROUND(AVERAGE(TP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L27" s="1">
-        <f>ROUND(AVERAGE(TP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M27" s="1">
-        <f>ROUND(AVERAGE(TP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="16" t="s">
+      <c r="B24" s="18">
+        <f>ROUND(MAX(TP!A$2:A$25), 2)</f>
+        <v>7.7</v>
+      </c>
+      <c r="C24" s="18">
+        <f>ROUND(MAX(TP!B$2:B$25), 2)</f>
+        <v>5.17</v>
+      </c>
+      <c r="D24" s="18">
+        <f>ROUND(MAX(TP!C$2:C$25), 2)</f>
+        <v>6.81</v>
+      </c>
+      <c r="E24" s="18">
+        <f>ROUND(MAX(TP!D$2:D$25), 2)</f>
+        <v>7.91</v>
+      </c>
+      <c r="F24" s="18">
+        <f>ROUND(MAX(TP!E$2:E$25), 2)</f>
+        <v>6.26</v>
+      </c>
+      <c r="G24" s="18">
+        <f>ROUND(MAX(TP!F$2:F$25), 2)</f>
+        <v>6.55</v>
+      </c>
+      <c r="H24" s="18">
+        <f>ROUND(MAX(TP!G$2:G$25), 2)</f>
+        <v>6.1</v>
+      </c>
+      <c r="I24" s="18">
+        <f>ROUND(MAX(TP!H$2:H$25), 2)</f>
+        <v>6.65</v>
+      </c>
+      <c r="J24" s="18">
+        <f>ROUND(MAX(TP!I$2:I$25), 2)</f>
+        <v>5.91</v>
+      </c>
+      <c r="K24" s="18">
+        <f>ROUND(MAX(TP!J$2:J$25), 2)</f>
+        <v>6.4</v>
+      </c>
+      <c r="L24" s="18">
+        <f>ROUND(MAX(TP!K$2:K$25), 2)</f>
+        <v>6.22</v>
+      </c>
+      <c r="M24" s="18">
+        <f>ROUND(MAX(TP!L$2:L$25), 2)</f>
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1">
-        <f>ROUND(MAX(TP!A$2:A$25), 2)</f>
-      </c>
-      <c r="C28" s="1">
-        <f>ROUND(MAX(TP!B$2:B$25), 2)</f>
-      </c>
-      <c r="D28" s="1">
-        <f>ROUND(MAX(TP!C$2:C$25), 2)</f>
-      </c>
-      <c r="E28" s="1">
-        <f>ROUND(MAX(TP!D$2:D$25), 2)</f>
-      </c>
-      <c r="F28" s="1">
-        <f>ROUND(MAX(TP!E$2:E$25), 2)</f>
-      </c>
-      <c r="G28" s="1">
-        <f>ROUND(MAX(TP!F$2:F$25), 2)</f>
-      </c>
-      <c r="H28" s="1">
-        <f>ROUND(MAX(TP!G$2:G$25), 2)</f>
-      </c>
-      <c r="I28" s="1">
-        <f>ROUND(MAX(TP!H$2:H$25), 2)</f>
-      </c>
-      <c r="J28" s="1">
-        <f>ROUND(MAX(TP!I$2:I$25), 2)</f>
-      </c>
-      <c r="K28" s="1">
-        <f>ROUND(MAX(TP!J$2:J$25), 2)</f>
-      </c>
-      <c r="L28" s="1">
-        <f>ROUND(MAX(TP!K$2:K$25), 2)</f>
-      </c>
-      <c r="M28" s="1">
-        <f>ROUND(MAX(TP!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="21" t="s">
+      <c r="B25" s="18">
+        <f>ROUND(MEDIAN(TP!A$2:A$25), 2)</f>
+        <v>6.17</v>
+      </c>
+      <c r="C25" s="18">
+        <f>ROUND(MEDIAN(TP!B$2:B$25), 2)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D25" s="18">
+        <f>ROUND(MEDIAN(TP!C$2:C$25), 2)</f>
+        <v>5.88</v>
+      </c>
+      <c r="E25" s="18">
+        <f>ROUND(MEDIAN(TP!D$2:D$25), 2)</f>
+        <v>6.98</v>
+      </c>
+      <c r="F25" s="18">
+        <f>ROUND(MEDIAN(TP!E$2:E$25), 2)</f>
+        <v>5.35</v>
+      </c>
+      <c r="G25" s="18">
+        <f>ROUND(MEDIAN(TP!F$2:F$25), 2)</f>
+        <v>5.95</v>
+      </c>
+      <c r="H25" s="18">
+        <f>ROUND(MEDIAN(TP!G$2:G$25), 2)</f>
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="I25" s="18">
+        <f>ROUND(MEDIAN(TP!H$2:H$25), 2)</f>
+        <v>5.86</v>
+      </c>
+      <c r="J25" s="18">
+        <f>ROUND(MEDIAN(TP!I$2:I$25), 2)</f>
+        <v>5.05</v>
+      </c>
+      <c r="K25" s="18">
+        <f>ROUND(MEDIAN(TP!J$2:J$25), 2)</f>
+        <v>5.2</v>
+      </c>
+      <c r="L25" s="18">
+        <f>ROUND(MEDIAN(TP!K$2:K$25), 2)</f>
+        <v>5.42</v>
+      </c>
+      <c r="M25" s="18">
+        <f>ROUND(MEDIAN(TP!L$2:L$25), 2)</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
-        <f>B$2</f>
-      </c>
-      <c r="C30" s="1">
-        <f>C$2</f>
-      </c>
-      <c r="D30" s="1">
-        <f>D$2</f>
-      </c>
-      <c r="E30" s="1">
-        <f>E$2</f>
-      </c>
-      <c r="F30" s="1">
-        <f>F$2</f>
-      </c>
-      <c r="G30" s="1">
-        <f>G$2</f>
-      </c>
-      <c r="H30" s="1">
-        <f>H$2</f>
-      </c>
-      <c r="I30" s="1">
-        <f>I$2</f>
-      </c>
-      <c r="J30" s="1">
-        <f>J$2</f>
-      </c>
-      <c r="K30" s="1">
-        <f>K$2</f>
-      </c>
-      <c r="L30" s="1">
-        <f>L$2</f>
-      </c>
-      <c r="M30" s="1">
-        <f>M$2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="16" t="s">
+      <c r="B26" s="18" t="str">
+        <f t="shared" ref="B26:M26" si="9">B$2</f>
+        <v>G11</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G12</v>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G13</v>
+      </c>
+      <c r="E26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G14</v>
+      </c>
+      <c r="F26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G15</v>
+      </c>
+      <c r="G26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G16</v>
+      </c>
+      <c r="H26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G17</v>
+      </c>
+      <c r="I26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G18</v>
+      </c>
+      <c r="J26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G19</v>
+      </c>
+      <c r="K26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G20</v>
+      </c>
+      <c r="L26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G32</v>
+      </c>
+      <c r="M26" s="18" t="str">
+        <f t="shared" si="9"/>
+        <v>G33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="18">
+        <f>ROUND(MIN(TB!A$2:A$25), 2)</f>
+        <v>3.73</v>
+      </c>
+      <c r="C27" s="18">
+        <f>ROUND(MIN(TB!B$2:B$25), 2)</f>
+        <v>3.58</v>
+      </c>
+      <c r="D27" s="18">
+        <f>ROUND(MIN(TB!C$2:C$25), 2)</f>
+        <v>4.53</v>
+      </c>
+      <c r="E27" s="18">
+        <f>ROUND(MIN(TB!D$2:D$25), 2)</f>
+        <v>4.7</v>
+      </c>
+      <c r="F27" s="18">
+        <f>ROUND(MIN(TB!E$2:E$25), 2)</f>
+        <v>3.87</v>
+      </c>
+      <c r="G27" s="18">
+        <f>ROUND(MIN(TB!F$2:F$25), 2)</f>
+        <v>3.3</v>
+      </c>
+      <c r="H27" s="18">
+        <f>ROUND(MIN(TB!G$2:G$25), 2)</f>
+        <v>3.43</v>
+      </c>
+      <c r="I27" s="18">
+        <f>ROUND(MIN(TB!H$2:H$25), 2)</f>
+        <v>4.33</v>
+      </c>
+      <c r="J27" s="18">
+        <f>ROUND(MIN(TB!I$2:I$25), 2)</f>
+        <v>3.78</v>
+      </c>
+      <c r="K27" s="18">
+        <f>ROUND(MIN(TB!J$2:J$25), 2)</f>
+        <v>3.74</v>
+      </c>
+      <c r="L27" s="18">
+        <f>ROUND(MIN(TB!K$2:K$25), 2)</f>
+        <v>3.84</v>
+      </c>
+      <c r="M27" s="18">
+        <f>ROUND(MIN(TB!L$2:L$25), 2)</f>
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B28" s="18">
+        <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
+        <v>4.71</v>
+      </c>
+      <c r="C28" s="18">
+        <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="D28" s="18">
+        <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
+        <v>5.33</v>
+      </c>
+      <c r="E28" s="18">
+        <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
+        <v>5.72</v>
+      </c>
+      <c r="F28" s="18">
+        <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G28" s="18">
+        <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
+        <v>4.26</v>
+      </c>
+      <c r="H28" s="18">
+        <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I28" s="18">
+        <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
+        <v>5.13</v>
+      </c>
+      <c r="J28" s="18">
+        <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
+        <v>4.58</v>
+      </c>
+      <c r="K28" s="18">
+        <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L28" s="18">
+        <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="M28" s="18">
+        <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="18">
+        <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
+        <v>5.56</v>
+      </c>
+      <c r="C29" s="18">
+        <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
+        <v>4.95</v>
+      </c>
+      <c r="D29" s="18">
+        <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
+        <v>6.44</v>
+      </c>
+      <c r="E29" s="18">
+        <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
+        <v>7.2</v>
+      </c>
+      <c r="F29" s="18">
+        <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
+        <v>5.85</v>
+      </c>
+      <c r="G29" s="18">
+        <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H29" s="18">
+        <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="I29" s="18">
+        <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
+        <v>5.87</v>
+      </c>
+      <c r="J29" s="18">
+        <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
+        <v>5.34</v>
+      </c>
+      <c r="K29" s="18">
+        <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
+        <v>5.44</v>
+      </c>
+      <c r="L29" s="18">
+        <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
+        <v>5.58</v>
+      </c>
+      <c r="M29" s="18">
+        <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="18">
+        <f>ROUND(MEDIAN(TB!A$2:A$25), 2)</f>
+        <v>4.68</v>
+      </c>
+      <c r="C30" s="18">
+        <f>ROUND(MEDIAN(TB!B$2:B$25), 2)</f>
+        <v>4.3</v>
+      </c>
+      <c r="D30" s="18">
+        <f>ROUND(MEDIAN(TB!C$2:C$25), 2)</f>
+        <v>5.4</v>
+      </c>
+      <c r="E30" s="18">
+        <f>ROUND(MEDIAN(TB!D$2:D$25), 2)</f>
+        <v>5.57</v>
+      </c>
+      <c r="F30" s="18">
+        <f>ROUND(MEDIAN(TB!E$2:E$25), 2)</f>
+        <v>4.97</v>
+      </c>
+      <c r="G30" s="18">
+        <f>ROUND(MEDIAN(TB!F$2:F$25), 2)</f>
+        <v>4.37</v>
+      </c>
+      <c r="H30" s="18">
+        <f>ROUND(MEDIAN(TB!G$2:G$25), 2)</f>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I30" s="18">
+        <f>ROUND(MEDIAN(TB!H$2:H$25), 2)</f>
+        <v>5.18</v>
+      </c>
+      <c r="J30" s="18">
+        <f>ROUND(MEDIAN(TB!I$2:I$25), 2)</f>
+        <v>4.7</v>
+      </c>
+      <c r="K30" s="18">
+        <f>ROUND(MEDIAN(TB!J$2:J$25), 2)</f>
+        <v>4.55</v>
+      </c>
+      <c r="L30" s="18">
+        <f>ROUND(MEDIAN(TB!K$2:K$25), 2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="M30" s="18">
+        <f>ROUND(MEDIAN(TB!L$2:L$25), 2)</f>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="18" t="str">
+        <f t="shared" ref="B31:M31" si="10">B$2</f>
+        <v>G11</v>
+      </c>
+      <c r="C31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G12</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G13</v>
+      </c>
+      <c r="E31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G14</v>
+      </c>
+      <c r="F31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G15</v>
+      </c>
+      <c r="G31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G16</v>
+      </c>
+      <c r="H31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G17</v>
+      </c>
+      <c r="I31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G18</v>
+      </c>
+      <c r="J31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G19</v>
+      </c>
+      <c r="K31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G20</v>
+      </c>
+      <c r="L31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G32</v>
+      </c>
+      <c r="M31" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v>G33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18">
+        <f>ROUND(MIN(LB!A$2:A$25), 2)</f>
+        <v>4.58</v>
+      </c>
+      <c r="C32" s="18">
+        <f>ROUND(MIN(LB!B$2:B$25), 2)</f>
+        <v>2.98</v>
+      </c>
+      <c r="D32" s="18">
+        <f>ROUND(MIN(LB!C$2:C$25), 2)</f>
+        <v>5.64</v>
+      </c>
+      <c r="E32" s="18">
+        <f>ROUND(MIN(LB!D$2:D$25), 2)</f>
+        <v>5.92</v>
+      </c>
+      <c r="F32" s="18">
+        <f>ROUND(MIN(LB!E$2:E$25), 2)</f>
+        <v>3.78</v>
+      </c>
+      <c r="G32" s="18">
+        <f>ROUND(MIN(LB!F$2:F$25), 2)</f>
+        <v>5.31</v>
+      </c>
+      <c r="H32" s="18">
+        <f>ROUND(MIN(LB!G$2:G$25), 2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="I32" s="18">
+        <f>ROUND(MIN(LB!H$2:H$25), 2)</f>
+        <v>5.47</v>
+      </c>
+      <c r="J32" s="18">
+        <f>ROUND(MIN(LB!I$2:I$25), 2)</f>
+        <v>4.47</v>
+      </c>
+      <c r="K32" s="18">
+        <f>ROUND(MIN(LB!J$2:J$25), 2)</f>
+        <v>4.59</v>
+      </c>
+      <c r="L32" s="18">
+        <f>ROUND(MIN(LB!K$2:K$25), 2)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M32" s="18">
+        <f>ROUND(MIN(LB!L$2:L$25), 2)</f>
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18">
+        <f>ROUND(AVERAGE(LB!A$2:A$25), 2)</f>
+        <v>5.46</v>
+      </c>
+      <c r="C33" s="18">
+        <f>ROUND(AVERAGE(LB!B$2:B$25), 2)</f>
+        <v>4.32</v>
+      </c>
+      <c r="D33" s="18">
+        <f>ROUND(AVERAGE(LB!C$2:C$25), 2)</f>
+        <v>6.83</v>
+      </c>
+      <c r="E33" s="18">
+        <f>ROUND(AVERAGE(LB!D$2:D$25), 2)</f>
+        <v>6.88</v>
+      </c>
+      <c r="F33" s="18">
+        <f>ROUND(AVERAGE(LB!E$2:E$25), 2)</f>
+        <v>5.35</v>
+      </c>
+      <c r="G33" s="18">
+        <f>ROUND(AVERAGE(LB!F$2:F$25), 2)</f>
+        <v>6.75</v>
+      </c>
+      <c r="H33" s="18">
+        <f>ROUND(AVERAGE(LB!G$2:G$25), 2)</f>
+        <v>5.52</v>
+      </c>
+      <c r="I33" s="18">
+        <f>ROUND(AVERAGE(LB!H$2:H$25), 2)</f>
+        <v>6.3</v>
+      </c>
+      <c r="J33" s="18">
+        <f>ROUND(AVERAGE(LB!I$2:I$25), 2)</f>
+        <v>6.17</v>
+      </c>
+      <c r="K33" s="18">
+        <f>ROUND(AVERAGE(LB!J$2:J$25), 2)</f>
+        <v>5.46</v>
+      </c>
+      <c r="L33" s="18">
+        <f>ROUND(AVERAGE(LB!K$2:K$25), 2)</f>
+        <v>5.61</v>
+      </c>
+      <c r="M33" s="18">
+        <f>ROUND(AVERAGE(LB!L$2:L$25), 2)</f>
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18">
+        <f>ROUND(MAX(LB!A$2:A$25), 2)</f>
+        <v>6.22</v>
+      </c>
+      <c r="C34" s="18">
+        <f>ROUND(MAX(LB!B$2:B$25), 2)</f>
+        <v>5.37</v>
+      </c>
+      <c r="D34" s="18">
+        <f>ROUND(MAX(LB!C$2:C$25), 2)</f>
+        <v>7.97</v>
+      </c>
+      <c r="E34" s="18">
+        <f>ROUND(MAX(LB!D$2:D$25), 2)</f>
+        <v>7.71</v>
+      </c>
+      <c r="F34" s="18">
+        <f>ROUND(MAX(LB!E$2:E$25), 2)</f>
+        <v>6.96</v>
+      </c>
+      <c r="G34" s="18">
+        <f>ROUND(MAX(LB!F$2:F$25), 2)</f>
+        <v>8.33</v>
+      </c>
+      <c r="H34" s="18">
+        <f>ROUND(MAX(LB!G$2:G$25), 2)</f>
+        <v>6.34</v>
+      </c>
+      <c r="I34" s="18">
+        <f>ROUND(MAX(LB!H$2:H$25), 2)</f>
+        <v>7.18</v>
+      </c>
+      <c r="J34" s="18">
+        <f>ROUND(MAX(LB!I$2:I$25), 2)</f>
+        <v>7.36</v>
+      </c>
+      <c r="K34" s="18">
+        <f>ROUND(MAX(LB!J$2:J$25), 2)</f>
+        <v>6.3</v>
+      </c>
+      <c r="L34" s="18">
+        <f>ROUND(MAX(LB!K$2:K$25), 2)</f>
+        <v>6.9</v>
+      </c>
+      <c r="M34" s="18">
+        <f>ROUND(MAX(LB!L$2:L$25), 2)</f>
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18">
+        <f>ROUND(MEDIAN(LB!A$2:A$25), 2)</f>
+        <v>5.45</v>
+      </c>
+      <c r="C35" s="18">
+        <f>ROUND(MEDIAN(LB!B$2:B$25), 2)</f>
+        <v>4.28</v>
+      </c>
+      <c r="D35" s="18">
+        <f>ROUND(MEDIAN(LB!C$2:C$25), 2)</f>
+        <v>6.84</v>
+      </c>
+      <c r="E35" s="18">
+        <f>ROUND(MEDIAN(LB!D$2:D$25), 2)</f>
+        <v>6.87</v>
+      </c>
+      <c r="F35" s="18">
+        <f>ROUND(MEDIAN(LB!E$2:E$25), 2)</f>
+        <v>5.49</v>
+      </c>
+      <c r="G35" s="18">
+        <f>ROUND(MEDIAN(LB!F$2:F$25), 2)</f>
+        <v>6.56</v>
+      </c>
+      <c r="H35" s="18">
+        <f>ROUND(MEDIAN(LB!G$2:G$25), 2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="I35" s="18">
+        <f>ROUND(MEDIAN(LB!H$2:H$25), 2)</f>
+        <v>6.25</v>
+      </c>
+      <c r="J35" s="18">
+        <f>ROUND(MEDIAN(LB!I$2:I$25), 2)</f>
+        <v>6.1</v>
+      </c>
+      <c r="K35" s="18">
+        <f>ROUND(MEDIAN(LB!J$2:J$25), 2)</f>
+        <v>5.39</v>
+      </c>
+      <c r="L35" s="18">
+        <f>ROUND(MEDIAN(LB!K$2:K$25), 2)</f>
+        <v>5.57</v>
+      </c>
+      <c r="M35" s="18">
+        <f>ROUND(MEDIAN(LB!L$2:L$25), 2)</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="18" t="str">
+        <f t="shared" ref="B36:M36" si="11">B$2</f>
+        <v>G11</v>
+      </c>
+      <c r="C36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G12</v>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G13</v>
+      </c>
+      <c r="E36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G14</v>
+      </c>
+      <c r="F36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G15</v>
+      </c>
+      <c r="G36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G16</v>
+      </c>
+      <c r="H36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G17</v>
+      </c>
+      <c r="I36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G18</v>
+      </c>
+      <c r="J36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G19</v>
+      </c>
+      <c r="K36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G20</v>
+      </c>
+      <c r="L36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G32</v>
+      </c>
+      <c r="M36" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v>G33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="18">
         <f>ROUND(MIN(TB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C31" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="C37" s="18">
         <f>ROUND(MIN(TB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D31" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="D37" s="18">
         <f>ROUND(MIN(TB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E31" s="1">
+        <v>4.53</v>
+      </c>
+      <c r="E37" s="18">
         <f>ROUND(MIN(TB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F31" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F37" s="18">
         <f>ROUND(MIN(TB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G31" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="G37" s="18">
         <f>ROUND(MIN(TB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H31" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H37" s="18">
         <f>ROUND(MIN(TB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I31" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="I37" s="18">
         <f>ROUND(MIN(TB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J31" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="J37" s="18">
         <f>ROUND(MIN(TB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K31" s="1">
+        <v>3.78</v>
+      </c>
+      <c r="K37" s="18">
         <f>ROUND(MIN(TB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L31" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="L37" s="18">
         <f>ROUND(MIN(TB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M31" s="1">
+        <v>3.84</v>
+      </c>
+      <c r="M37" s="18">
         <f>ROUND(MIN(TB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="16" t="s">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="18">
+        <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
+        <v>4.71</v>
+      </c>
+      <c r="C38" s="18">
+        <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
+        <v>4.25</v>
+      </c>
+      <c r="D38" s="18">
+        <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
+        <v>5.33</v>
+      </c>
+      <c r="E38" s="18">
+        <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
+        <v>5.72</v>
+      </c>
+      <c r="F38" s="18">
+        <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G38" s="18">
+        <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
+        <v>4.26</v>
+      </c>
+      <c r="H38" s="18">
+        <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="I38" s="18">
+        <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
+        <v>5.13</v>
+      </c>
+      <c r="J38" s="18">
+        <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
+        <v>4.58</v>
+      </c>
+      <c r="K38" s="18">
+        <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L38" s="18">
+        <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="M38" s="18">
+        <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
-        <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C32" s="1">
-        <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D32" s="1">
-        <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E32" s="1">
-        <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F32" s="1">
-        <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G32" s="1">
-        <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H32" s="1">
-        <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I32" s="1">
-        <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J32" s="1">
-        <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K32" s="1">
-        <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L32" s="1">
-        <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M32" s="1">
-        <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="16" t="s">
+      <c r="B39" s="18">
+        <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
+        <v>5.56</v>
+      </c>
+      <c r="C39" s="18">
+        <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
+        <v>4.95</v>
+      </c>
+      <c r="D39" s="18">
+        <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
+        <v>6.44</v>
+      </c>
+      <c r="E39" s="18">
+        <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
+        <v>7.2</v>
+      </c>
+      <c r="F39" s="18">
+        <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
+        <v>5.85</v>
+      </c>
+      <c r="G39" s="18">
+        <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
+        <v>5</v>
+      </c>
+      <c r="H39" s="18">
+        <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="I39" s="18">
+        <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
+        <v>5.87</v>
+      </c>
+      <c r="J39" s="18">
+        <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
+        <v>5.34</v>
+      </c>
+      <c r="K39" s="18">
+        <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
+        <v>5.44</v>
+      </c>
+      <c r="L39" s="18">
+        <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
+        <v>5.58</v>
+      </c>
+      <c r="M39" s="18">
+        <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
-        <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C33" s="1">
-        <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D33" s="1">
-        <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E33" s="1">
-        <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F33" s="1">
-        <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G33" s="1">
-        <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H33" s="1">
-        <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I33" s="1">
-        <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J33" s="1">
-        <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K33" s="1">
-        <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L33" s="1">
-        <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M33" s="1">
-        <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1">
-        <f>B$2</f>
-      </c>
-      <c r="C35" s="1">
-        <f>C$2</f>
-      </c>
-      <c r="D35" s="1">
-        <f>D$2</f>
-      </c>
-      <c r="E35" s="1">
-        <f>E$2</f>
-      </c>
-      <c r="F35" s="1">
-        <f>F$2</f>
-      </c>
-      <c r="G35" s="1">
-        <f>G$2</f>
-      </c>
-      <c r="H35" s="1">
-        <f>H$2</f>
-      </c>
-      <c r="I35" s="1">
-        <f>I$2</f>
-      </c>
-      <c r="J35" s="1">
-        <f>J$2</f>
-      </c>
-      <c r="K35" s="1">
-        <f>K$2</f>
-      </c>
-      <c r="L35" s="1">
-        <f>L$2</f>
-      </c>
-      <c r="M35" s="1">
-        <f>M$2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="1">
-        <f>ROUND(MIN(LB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C36" s="1">
-        <f>ROUND(MIN(LB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D36" s="1">
-        <f>ROUND(MIN(LB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E36" s="1">
-        <f>ROUND(MIN(LB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F36" s="1">
-        <f>ROUND(MIN(LB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G36" s="1">
-        <f>ROUND(MIN(LB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H36" s="1">
-        <f>ROUND(MIN(LB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I36" s="1">
-        <f>ROUND(MIN(LB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J36" s="1">
-        <f>ROUND(MIN(LB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K36" s="1">
-        <f>ROUND(MIN(LB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L36" s="1">
-        <f>ROUND(MIN(LB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M36" s="1">
-        <f>ROUND(MIN(LB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1">
-        <f>ROUND(AVERAGE(LB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C37" s="1">
-        <f>ROUND(AVERAGE(LB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D37" s="1">
-        <f>ROUND(AVERAGE(LB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E37" s="1">
-        <f>ROUND(AVERAGE(LB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F37" s="1">
-        <f>ROUND(AVERAGE(LB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G37" s="1">
-        <f>ROUND(AVERAGE(LB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H37" s="1">
-        <f>ROUND(AVERAGE(LB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I37" s="1">
-        <f>ROUND(AVERAGE(LB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J37" s="1">
-        <f>ROUND(AVERAGE(LB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K37" s="1">
-        <f>ROUND(AVERAGE(LB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L37" s="1">
-        <f>ROUND(AVERAGE(LB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M37" s="1">
-        <f>ROUND(AVERAGE(LB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="1">
-        <f>ROUND(MAX(LB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C38" s="1">
-        <f>ROUND(MAX(LB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D38" s="1">
-        <f>ROUND(MAX(LB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E38" s="1">
-        <f>ROUND(MAX(LB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F38" s="1">
-        <f>ROUND(MAX(LB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G38" s="1">
-        <f>ROUND(MAX(LB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H38" s="1">
-        <f>ROUND(MAX(LB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I38" s="1">
-        <f>ROUND(MAX(LB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J38" s="1">
-        <f>ROUND(MAX(LB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K38" s="1">
-        <f>ROUND(MAX(LB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L38" s="1">
-        <f>ROUND(MAX(LB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M38" s="1">
-        <f>ROUND(MAX(LB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="1">
-        <f>B$2</f>
-      </c>
-      <c r="C40" s="1">
-        <f>C$2</f>
-      </c>
-      <c r="D40" s="1">
-        <f>D$2</f>
-      </c>
-      <c r="E40" s="1">
-        <f>E$2</f>
-      </c>
-      <c r="F40" s="1">
-        <f>F$2</f>
-      </c>
-      <c r="G40" s="1">
-        <f>G$2</f>
-      </c>
-      <c r="H40" s="1">
-        <f>H$2</f>
-      </c>
-      <c r="I40" s="1">
-        <f>I$2</f>
-      </c>
-      <c r="J40" s="1">
-        <f>J$2</f>
-      </c>
-      <c r="K40" s="1">
-        <f>K$2</f>
-      </c>
-      <c r="L40" s="1">
-        <f>L$2</f>
-      </c>
-      <c r="M40" s="1">
-        <f>M$2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="1">
-        <f>ROUND(MIN(TB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C41" s="1">
-        <f>ROUND(MIN(TB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D41" s="1">
-        <f>ROUND(MIN(TB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E41" s="1">
-        <f>ROUND(MIN(TB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F41" s="1">
-        <f>ROUND(MIN(TB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G41" s="1">
-        <f>ROUND(MIN(TB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H41" s="1">
-        <f>ROUND(MIN(TB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I41" s="1">
-        <f>ROUND(MIN(TB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J41" s="1">
-        <f>ROUND(MIN(TB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K41" s="1">
-        <f>ROUND(MIN(TB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L41" s="1">
-        <f>ROUND(MIN(TB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M41" s="1">
-        <f>ROUND(MIN(TB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="1">
-        <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C42" s="1">
-        <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D42" s="1">
-        <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E42" s="1">
-        <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F42" s="1">
-        <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G42" s="1">
-        <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H42" s="1">
-        <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I42" s="1">
-        <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J42" s="1">
-        <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K42" s="1">
-        <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L42" s="1">
-        <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M42" s="1">
-        <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="1">
-        <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
-      </c>
-      <c r="C43" s="1">
-        <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
-      </c>
-      <c r="D43" s="1">
-        <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
-      </c>
-      <c r="E43" s="1">
-        <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
-      </c>
-      <c r="F43" s="1">
-        <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
-      </c>
-      <c r="G43" s="1">
-        <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
-      </c>
-      <c r="H43" s="1">
-        <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
-      </c>
-      <c r="I43" s="1">
-        <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
-      </c>
-      <c r="J43" s="1">
-        <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
-      </c>
-      <c r="K43" s="1">
-        <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
-      </c>
-      <c r="L43" s="1">
-        <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
-      </c>
-      <c r="M43" s="1">
-        <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
+      <c r="B40" s="18">
+        <f>ROUND(MEDIAN(TB!A$2:A$25), 2)</f>
+        <v>4.68</v>
+      </c>
+      <c r="C40" s="18">
+        <f>ROUND(MEDIAN(TB!B$2:B$25), 2)</f>
+        <v>4.3</v>
+      </c>
+      <c r="D40" s="18">
+        <f>ROUND(MEDIAN(TB!C$2:C$25), 2)</f>
+        <v>5.4</v>
+      </c>
+      <c r="E40" s="18">
+        <f>ROUND(MEDIAN(TB!D$2:D$25), 2)</f>
+        <v>5.57</v>
+      </c>
+      <c r="F40" s="18">
+        <f>ROUND(MEDIAN(TB!E$2:E$25), 2)</f>
+        <v>4.97</v>
+      </c>
+      <c r="G40" s="18">
+        <f>ROUND(MEDIAN(TB!F$2:F$25), 2)</f>
+        <v>4.37</v>
+      </c>
+      <c r="H40" s="18">
+        <f>ROUND(MEDIAN(TB!G$2:G$25), 2)</f>
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I40" s="18">
+        <f>ROUND(MEDIAN(TB!H$2:H$25), 2)</f>
+        <v>5.18</v>
+      </c>
+      <c r="J40" s="18">
+        <f>ROUND(MEDIAN(TB!I$2:I$25), 2)</f>
+        <v>4.7</v>
+      </c>
+      <c r="K40" s="18">
+        <f>ROUND(MEDIAN(TB!J$2:J$25), 2)</f>
+        <v>4.55</v>
+      </c>
+      <c r="L40" s="18">
+        <f>ROUND(MEDIAN(TB!K$2:K$25), 2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="M40" s="18">
+        <f>ROUND(MEDIAN(TB!L$2:L$25), 2)</f>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="20" t="str">
+        <f>A3</f>
+        <v>Panjang Polong</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="20" t="str">
+        <f>A5</f>
+        <v>Tebal Polong</v>
+      </c>
+      <c r="E44" s="20" t="str">
+        <f>A6</f>
+        <v>Panjang Biji</v>
+      </c>
+      <c r="F44" s="20" t="str">
+        <f>A7</f>
+        <v>Lebar Biji</v>
+      </c>
+      <c r="G44" s="20" t="str">
+        <f>A8</f>
+        <v>Tebal Biji</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="20" t="str">
+        <f ca="1">OFFSET($B$3,0,$H46)</f>
+        <v>36,77−(40,49)−(40,27)−44,25</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f ca="1">OFFSET($B$4,0,$H46)</f>
+        <v>7,2−(8,54)−(8,6)−9,7</v>
+      </c>
+      <c r="D45" s="20" t="str">
+        <f ca="1">OFFSET($B$5,0,$H46)</f>
+        <v>5,33−(6,21)−(6,17)−7,7</v>
+      </c>
+      <c r="E45" s="20" t="str">
+        <f ca="1">OFFSET($B$6,0,$H46)</f>
+        <v>3,73−(4,71)−(4,68)−5,56</v>
+      </c>
+      <c r="F45" s="20" t="str">
+        <f ca="1">OFFSET($B$7,0,$H46)</f>
+        <v>4,58−(5,46)−(5,45)−6,22</v>
+      </c>
+      <c r="G45" s="20" t="str">
+        <f ca="1">OFFSET($B$8,0,$H46)</f>
+        <v>3,73−(4,71)−(4,68)−5,56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="20" t="str">
+        <f t="shared" ref="B46:B56" ca="1" si="12">OFFSET($B$3,0,$H47)</f>
+        <v>33,4−(36,55)−(37)−39,3</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f t="shared" ref="C46:C56" ca="1" si="13">OFFSET($B$4,0,$H47)</f>
+        <v>6−(7,28)−(7,25)−8,5</v>
+      </c>
+      <c r="D46" s="20" t="str">
+        <f t="shared" ref="D46:D56" ca="1" si="14">OFFSET($B$5,0,$H47)</f>
+        <v>3,52−(4,48)−(4,6)−5,17</v>
+      </c>
+      <c r="E46" s="20" t="str">
+        <f t="shared" ref="E46:E56" ca="1" si="15">OFFSET($B$6,0,$H47)</f>
+        <v>3,58−(4,25)−(4,3)−4,95</v>
+      </c>
+      <c r="F46" s="20" t="str">
+        <f t="shared" ref="F46:F56" ca="1" si="16">OFFSET($B$7,0,$H47)</f>
+        <v>2,98−(4,32)−(4,28)−5,37</v>
+      </c>
+      <c r="G46" s="20" t="str">
+        <f t="shared" ref="G46:G56" ca="1" si="17">OFFSET($B$8,0,$H47)</f>
+        <v>3,58−(4,25)−(4,3)−4,95</v>
+      </c>
+      <c r="H46" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>43,3−(45,54)−(45,55)−47,8</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>8,18−(10,11)−(10,15)−12,07</v>
+      </c>
+      <c r="D47" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>5,11−(5,95)−(5,88)−6,81</v>
+      </c>
+      <c r="E47" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>4,53−(5,33)−(5,4)−6,44</v>
+      </c>
+      <c r="F47" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>5,64−(6,83)−(6,84)−7,97</v>
+      </c>
+      <c r="G47" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>4,53−(5,33)−(5,4)−6,44</v>
+      </c>
+      <c r="H47" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>39,9−(44,49)−(44,09)−53</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>8,77−(9,73)−(9,68)−10,68</v>
+      </c>
+      <c r="D48" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>5,5−(7)−(6,98)−7,91</v>
+      </c>
+      <c r="E48" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>4,7−(5,72)−(5,57)−7,2</v>
+      </c>
+      <c r="F48" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>5,92−(6,88)−(6,87)−7,71</v>
+      </c>
+      <c r="G48" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>4,7−(5,72)−(5,57)−7,2</v>
+      </c>
+      <c r="H48" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>35,1−(38,03)−(38)−40,6</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>6,5−(7,98)−(8,24)−8,89</v>
+      </c>
+      <c r="D49" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>4,6−(5,31)−(5,35)−6,26</v>
+      </c>
+      <c r="E49" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3,87−(4,89)−(4,97)−5,85</v>
+      </c>
+      <c r="F49" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>3,78−(5,35)−(5,49)−6,96</v>
+      </c>
+      <c r="G49" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>3,87−(4,89)−(4,97)−5,85</v>
+      </c>
+      <c r="H49" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>49,8−(52,82)−(52,95)−56,2</v>
+      </c>
+      <c r="C50" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>7,5−(9,28)−(9,36)−11,05</v>
+      </c>
+      <c r="D50" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>5,2−(5,91)−(5,95)−6,55</v>
+      </c>
+      <c r="E50" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3,3−(4,26)−(4,37)−5</v>
+      </c>
+      <c r="F50" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>5,31−(6,75)−(6,56)−8,33</v>
+      </c>
+      <c r="G50" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>3,3−(4,26)−(4,37)−5</v>
+      </c>
+      <c r="H50" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>41,12−(42,73)−(42,74)−44,49</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>7,6−(8,7)−(8,63)−9,65</v>
+      </c>
+      <c r="D51" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>4,25−(5,16)−(5,11)−6,1</v>
+      </c>
+      <c r="E51" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3,43−(4,11)−(4,19)−4,8</v>
+      </c>
+      <c r="F51" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4,8−(5,52)−(5,5)−6,34</v>
+      </c>
+      <c r="G51" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>3,43−(4,11)−(4,19)−4,8</v>
+      </c>
+      <c r="H51" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>42,2−(46)−(46,35)−49,9</v>
+      </c>
+      <c r="C52" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>8,5−(9,66)−(9,63)−10,97</v>
+      </c>
+      <c r="D52" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>5,06−(5,92)−(5,86)−6,65</v>
+      </c>
+      <c r="E52" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>4,33−(5,13)−(5,18)−5,87</v>
+      </c>
+      <c r="F52" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>5,47−(6,3)−(6,25)−7,18</v>
+      </c>
+      <c r="G52" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>4,33−(5,13)−(5,18)−5,87</v>
+      </c>
+      <c r="H52" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>42,2−(44,19)−(44,1)−46,8</v>
+      </c>
+      <c r="C53" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>7,7−(9,68)−(9,74)−11,34</v>
+      </c>
+      <c r="D53" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>4,5−(5,13)−(5,05)−5,91</v>
+      </c>
+      <c r="E53" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3,78−(4,58)−(4,7)−5,34</v>
+      </c>
+      <c r="F53" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4,47−(6,17)−(6,1)−7,36</v>
+      </c>
+      <c r="G53" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>3,78−(4,58)−(4,7)−5,34</v>
+      </c>
+      <c r="H53" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>37,2−(39,86)−(39,55)−42,9</v>
+      </c>
+      <c r="C54" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>6,7−(8,41)−(8,56)−10,16</v>
+      </c>
+      <c r="D54" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>4,2−(5,19)−(5,2)−6,4</v>
+      </c>
+      <c r="E54" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3,74−(4,56)−(4,55)−5,44</v>
+      </c>
+      <c r="F54" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4,59−(5,46)−(5,39)−6,3</v>
+      </c>
+      <c r="G54" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>3,74−(4,56)−(4,55)−5,44</v>
+      </c>
+      <c r="H54" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>38,54−(40,15)−(40,09)−41,86</v>
+      </c>
+      <c r="C55" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>6,5−(7,76)−(7,74)−8,75</v>
+      </c>
+      <c r="D55" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>4,71−(5,48)−(5,42)−6,22</v>
+      </c>
+      <c r="E55" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>3,84−(4,81)−(4,8)−5,58</v>
+      </c>
+      <c r="F55" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4,6−(5,61)−(5,57)−6,9</v>
+      </c>
+      <c r="G55" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>3,84−(4,81)−(4,8)−5,58</v>
+      </c>
+      <c r="H55" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="20" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>50,6−(52,97)−(52,7)−56,3</v>
+      </c>
+      <c r="C56" s="20" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>9,07−(10,88)−(10,79)−12,41</v>
+      </c>
+      <c r="D56" s="20" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v>5,97−(6,75)−(6,72)−7,62</v>
+      </c>
+      <c r="E56" s="20" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>4,99−(5,91)−(5,91)−6,9</v>
+      </c>
+      <c r="F56" s="20" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>4,61−(6,38)−(6,3)−8,03</v>
+      </c>
+      <c r="G56" s="20" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>4,99−(5,91)−(5,91)−6,9</v>
+      </c>
+      <c r="H56" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="20">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -2058,34 +3027,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2136,12 +3086,12 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40.65</v>
       </c>
       <c r="B2" s="5">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C2" s="2">
         <v>43.8</v>
@@ -2168,7 +3118,7 @@
         <v>41.9</v>
       </c>
       <c r="K2" s="2">
-        <v>40.91</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="L2" s="2">
         <v>50.6</v>
@@ -2187,7 +3137,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44.25</v>
       </c>
@@ -2201,7 +3151,7 @@
         <v>46.7</v>
       </c>
       <c r="E3" s="2">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F3" s="2">
         <v>53.5</v>
@@ -2216,7 +3166,7 @@
         <v>43.3</v>
       </c>
       <c r="J3" s="2">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="K3" s="2">
         <v>38.82</v>
@@ -2238,7 +3188,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40.19</v>
       </c>
@@ -2267,10 +3217,10 @@
         <v>44.6</v>
       </c>
       <c r="J4" s="2">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="K4" s="2">
-        <v>40.02</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="L4" s="2">
         <v>56.3</v>
@@ -2289,7 +3239,7 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43.98</v>
       </c>
@@ -2321,7 +3271,7 @@
         <v>40.9</v>
       </c>
       <c r="K5" s="2">
-        <v>39.66</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="L5" s="2">
         <v>53.8</v>
@@ -2340,12 +3290,12 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>36.77</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="B6" s="5">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C6" s="2">
         <v>45.9</v>
@@ -2354,7 +3304,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="2">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="F6" s="2">
         <v>54.5</v>
@@ -2369,7 +3319,7 @@
         <v>45.2</v>
       </c>
       <c r="J6" s="2">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="K6" s="2">
         <v>41.57</v>
@@ -2391,12 +3341,12 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40.56</v>
       </c>
       <c r="B7" s="5">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C7" s="2">
         <v>44.7</v>
@@ -2423,7 +3373,7 @@
         <v>42.1</v>
       </c>
       <c r="K7" s="2">
-        <v>39.73</v>
+        <v>39.729999999999997</v>
       </c>
       <c r="L7" s="2">
         <v>52.5</v>
@@ -2442,7 +3392,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40.65</v>
       </c>
@@ -2456,7 +3406,7 @@
         <v>41.6</v>
       </c>
       <c r="E8" s="2">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F8" s="2">
         <v>56.2</v>
@@ -2471,7 +3421,7 @@
         <v>42.4</v>
       </c>
       <c r="J8" s="2">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="K8" s="2">
         <v>40.44</v>
@@ -2493,7 +3443,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>39.57</v>
       </c>
@@ -2544,7 +3494,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>36.94</v>
       </c>
@@ -2573,10 +3523,10 @@
         <v>43.9</v>
       </c>
       <c r="J10" s="2">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="K10" s="2">
-        <v>40.77</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="L10" s="2">
         <v>50.6</v>
@@ -2595,12 +3545,12 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="5">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="C11" s="2">
         <v>47.2</v>
@@ -2609,7 +3559,7 @@
         <v>42.9</v>
       </c>
       <c r="E11" s="2">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F11" s="2">
         <v>51.1</v>
@@ -2624,7 +3574,7 @@
         <v>43.5</v>
       </c>
       <c r="J11" s="2">
-        <v>38.7</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="K11" s="2">
         <v>40.97</v>
@@ -2646,12 +3596,12 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>39.03</v>
       </c>
       <c r="B12" s="5">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="C12" s="2">
         <v>44.7</v>
@@ -2697,9 +3647,9 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>40.02</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="B13" s="5">
         <v>38.1</v>
@@ -2729,7 +3679,7 @@
         <v>42.9</v>
       </c>
       <c r="K13" s="2">
-        <v>39.48</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="L13" s="2">
         <v>51.6</v>
@@ -2748,12 +3698,12 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40.26</v>
       </c>
       <c r="B14" s="5">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C14" s="2">
         <v>43.6</v>
@@ -2799,7 +3749,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>41.34</v>
       </c>
@@ -2850,7 +3800,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -2864,7 +3814,7 @@
         <v>42.62</v>
       </c>
       <c r="E16" s="2">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F16" s="2">
         <v>51.2</v>
@@ -2901,12 +3851,12 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>38.85</v>
       </c>
       <c r="B17" s="5">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="C17" s="2">
         <v>47.5</v>
@@ -2915,7 +3865,7 @@
         <v>45.14</v>
       </c>
       <c r="E17" s="2">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="F17" s="2">
         <v>52.8</v>
@@ -2930,7 +3880,7 @@
         <v>43.9</v>
       </c>
       <c r="J17" s="2">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="K17" s="2">
         <v>41.69</v>
@@ -2952,7 +3902,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>38.81</v>
       </c>
@@ -3003,7 +3953,7 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41.77</v>
       </c>
@@ -3054,7 +4004,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42.42</v>
       </c>
@@ -3105,12 +4055,12 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>40.27</v>
+        <v>40.270000000000003</v>
       </c>
       <c r="B21" s="5">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C21" s="2">
         <v>43.9</v>
@@ -3156,12 +4106,12 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>38.93</v>
       </c>
       <c r="B22" s="5">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="C22" s="2">
         <v>45.2</v>
@@ -3207,7 +4157,7 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42.59</v>
       </c>
@@ -3236,7 +4186,7 @@
         <v>44.1</v>
       </c>
       <c r="J23" s="2">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K23" s="2">
         <v>41.77</v>
@@ -3258,12 +4208,12 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42.52</v>
       </c>
       <c r="B24" s="5">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="C24" s="2">
         <v>47.8</v>
@@ -3272,7 +4222,7 @@
         <v>46.26</v>
       </c>
       <c r="E24" s="2">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="F24" s="2">
         <v>53.8</v>
@@ -3287,10 +4237,10 @@
         <v>44.1</v>
       </c>
       <c r="J24" s="2">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K24" s="2">
-        <v>39.63</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="L24" s="2">
         <v>55.8</v>
@@ -3309,7 +4259,7 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>20</v>
       </c>
@@ -3323,7 +4273,7 @@
         <v>44.83</v>
       </c>
       <c r="E25" s="2">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="F25" s="2">
         <v>52.5</v>
@@ -3366,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3376,34 +4326,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3454,7 +4383,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>8.9</v>
       </c>
@@ -3462,19 +4391,19 @@
         <v>7.2</v>
       </c>
       <c r="C2" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D2" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E2" s="2">
         <v>8.6</v>
       </c>
       <c r="F2" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G2" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H2" s="2">
         <v>9.9</v>
@@ -3505,7 +4434,7 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>9</v>
       </c>
@@ -3556,7 +4485,7 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>9.1</v>
       </c>
@@ -3573,7 +4502,7 @@
         <v>8.1</v>
       </c>
       <c r="F4" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G4" s="2">
         <v>7.6</v>
@@ -3585,7 +4514,7 @@
         <v>10.4</v>
       </c>
       <c r="J4" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="K4" s="2">
         <v>8.4</v>
@@ -3607,9 +4536,9 @@
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="B5" s="2">
         <v>7.9</v>
@@ -3624,19 +4553,19 @@
         <v>8.6</v>
       </c>
       <c r="F5" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G5" s="2">
         <v>8.5</v>
       </c>
       <c r="H5" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I5" s="2">
         <v>8.9</v>
       </c>
       <c r="J5" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K5" s="2">
         <v>8.15</v>
@@ -3658,9 +4587,9 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B6" s="2">
         <v>6.5</v>
@@ -3675,13 +4604,13 @@
         <v>8.1</v>
       </c>
       <c r="F6" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G6" s="2">
         <v>9.5</v>
       </c>
       <c r="H6" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I6" s="2">
         <v>7.7</v>
@@ -3709,9 +4638,9 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B7" s="2">
         <v>7.1</v>
@@ -3720,19 +4649,19 @@
         <v>10.8</v>
       </c>
       <c r="D7" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E7" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F7" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G7" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H7" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I7" s="2">
         <v>9.4</v>
@@ -3760,9 +4689,9 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B8" s="2">
         <v>7.8</v>
@@ -3771,28 +4700,28 @@
         <v>11.3</v>
       </c>
       <c r="D8" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E8" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F8" s="2">
         <v>9.5</v>
       </c>
       <c r="G8" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H8" s="2">
         <v>10.4</v>
       </c>
       <c r="I8" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J8" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K8" s="2">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="L8" s="2">
         <v>10.3</v>
@@ -3811,12 +4740,12 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9.1</v>
       </c>
       <c r="B9" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -3837,10 +4766,10 @@
         <v>8.5</v>
       </c>
       <c r="I9" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J9" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K9" s="2">
         <v>7.4</v>
@@ -3862,9 +4791,9 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="B10" s="2">
         <v>7.2</v>
@@ -3891,7 +4820,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K10" s="2">
         <v>7.4</v>
@@ -3913,21 +4842,21 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9.5</v>
       </c>
       <c r="B11" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E11" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
@@ -3936,7 +4865,7 @@
         <v>8.6</v>
       </c>
       <c r="H11" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I11" s="2">
         <v>9.6</v>
@@ -3964,7 +4893,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7.8</v>
       </c>
@@ -3972,34 +4901,44 @@
         <v>6.3</v>
       </c>
       <c r="C12" s="2">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" ref="C12:L12" si="0">AVERAGE(C2:C11)</f>
+        <v>10.11</v>
       </c>
       <c r="D12" s="2">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
+        <v>9.8169999999999984</v>
       </c>
       <c r="E12" s="2">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F12" s="2">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
+        <v>9.2799999999999994</v>
       </c>
       <c r="G12" s="2">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
+        <v>8.6499999999999986</v>
       </c>
       <c r="H12" s="2">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="0"/>
+        <v>9.4499999999999993</v>
       </c>
       <c r="I12" s="2">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="0"/>
+        <v>9.4199999999999982</v>
       </c>
       <c r="J12" s="2">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="0"/>
+        <v>8.4300000000000015</v>
       </c>
       <c r="K12" s="2">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="0"/>
+        <v>7.5760000000000005</v>
       </c>
       <c r="L12" s="2">
-        <f>AVERAGE(L2:L11)</f>
+        <f t="shared" si="0"/>
+        <v>10.77</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -4015,7 +4954,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7.7</v>
       </c>
@@ -4026,28 +4965,28 @@
         <v>11.046252548393666</v>
       </c>
       <c r="D13" s="2">
-        <v>9.077246942658054</v>
+        <v>9.0772469426580535</v>
       </c>
       <c r="E13" s="2">
-        <v>7.598497778318872</v>
+        <v>7.5984977783188716</v>
       </c>
       <c r="F13" s="2">
-        <v>9.854595836766197</v>
+        <v>9.8545958367661974</v>
       </c>
       <c r="G13" s="2">
-        <v>8.52448334863687</v>
+        <v>8.5244833486368705</v>
       </c>
       <c r="H13" s="2">
-        <v>9.669088270075065</v>
+        <v>9.6690882700750649</v>
       </c>
       <c r="I13" s="2">
         <v>10.896068590089035</v>
       </c>
       <c r="J13" s="2">
-        <v>6.743672139414569</v>
+        <v>6.7436721394145689</v>
       </c>
       <c r="K13" s="2">
-        <v>7.824211333703948</v>
+        <v>7.8242113337039481</v>
       </c>
       <c r="L13" s="2">
         <v>11.994668006195564</v>
@@ -4066,7 +5005,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7.8</v>
       </c>
@@ -4074,31 +5013,31 @@
         <v>7.3</v>
       </c>
       <c r="C14" s="2">
-        <v>8.846043666320654</v>
+        <v>8.8460436663206536</v>
       </c>
       <c r="D14" s="2">
         <v>10.256175827850639</v>
       </c>
       <c r="E14" s="2">
-        <v>6.63810173794389</v>
+        <v>6.6381017379438898</v>
       </c>
       <c r="F14" s="2">
-        <v>9.138826604224532</v>
+        <v>9.1388266042245316</v>
       </c>
       <c r="G14" s="2">
-        <v>8.017722090007258</v>
+        <v>8.0177220900072577</v>
       </c>
       <c r="H14" s="2">
-        <v>8.79</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="I14" s="2">
-        <v>8.899912724759064</v>
+        <v>8.8999127247590639</v>
       </c>
       <c r="J14" s="2">
-        <v>8.87</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="K14" s="2">
-        <v>8.750101788332334</v>
+        <v>8.7501017883323335</v>
       </c>
       <c r="L14" s="2">
         <v>9.764567482344324</v>
@@ -4117,7 +5056,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8.6</v>
       </c>
@@ -4125,31 +5064,31 @@
         <v>8.5</v>
       </c>
       <c r="C15" s="2">
-        <v>9.926549309437657</v>
+        <v>9.9265493094376573</v>
       </c>
       <c r="D15" s="2">
         <v>10.679776252828693</v>
       </c>
       <c r="E15" s="2">
-        <v>6.999017589023879</v>
+        <v>6.9990175890238788</v>
       </c>
       <c r="F15" s="2">
-        <v>8.746256324423936</v>
+        <v>8.7462563244239355</v>
       </c>
       <c r="G15" s="2">
-        <v>9.649032457789659</v>
+        <v>9.6490324577896587</v>
       </c>
       <c r="H15" s="2">
         <v>10.968079494868787</v>
       </c>
       <c r="I15" s="2">
-        <v>9.926978798274465</v>
+        <v>9.9269787982744653</v>
       </c>
       <c r="J15" s="2">
-        <v>6.697791193186445</v>
+        <v>6.6977911931864451</v>
       </c>
       <c r="K15" s="2">
-        <v>8.59388154515803</v>
+        <v>8.5938815451580304</v>
       </c>
       <c r="L15" s="2">
         <v>10.300979335038992</v>
@@ -4168,42 +5107,42 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
       <c r="B16" s="5">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C16" s="2">
         <v>11.796013650250869</v>
       </c>
       <c r="D16" s="2">
-        <v>9.344296396746405</v>
+        <v>9.3442963967464046</v>
       </c>
       <c r="E16" s="2">
-        <v>6.845278225355106</v>
+        <v>6.8452782253551057</v>
       </c>
       <c r="F16" s="2">
-        <v>9.276029026527032</v>
+        <v>9.2760290265270324</v>
       </c>
       <c r="G16" s="2">
-        <v>9.480588116268546</v>
+        <v>9.4805881162685459</v>
       </c>
       <c r="H16" s="2">
         <v>10.951226155878903</v>
       </c>
       <c r="I16" s="2">
-        <v>8.827042544184938</v>
+        <v>8.8270425441849376</v>
       </c>
       <c r="J16" s="2">
         <v>8.76</v>
       </c>
       <c r="K16" s="2">
-        <v>6.966041985444214</v>
+        <v>6.9660419854442139</v>
       </c>
       <c r="L16" s="2">
-        <v>10.87429673283986</v>
+        <v>10.874296732839859</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -4219,7 +5158,7 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8.5</v>
       </c>
@@ -4227,19 +5166,19 @@
         <v>7.5</v>
       </c>
       <c r="C17" s="2">
-        <v>9.36238490817259</v>
+        <v>9.3623849081725901</v>
       </c>
       <c r="D17" s="2">
-        <v>9.03045143854285</v>
+        <v>9.0304514385428494</v>
       </c>
       <c r="E17" s="2">
-        <v>6.498431965558241</v>
+        <v>6.4984319655582414</v>
       </c>
       <c r="F17" s="2">
         <v>8.613356954612815</v>
       </c>
       <c r="G17" s="2">
-        <v>8.790424461098523</v>
+        <v>8.7904244610985227</v>
       </c>
       <c r="H17" s="2">
         <v>10.951385397418433</v>
@@ -4248,10 +5187,10 @@
         <v>10.581110637486658</v>
       </c>
       <c r="J17" s="2">
-        <v>7.142060491902024</v>
+        <v>7.1420604919020239</v>
       </c>
       <c r="K17" s="2">
-        <v>8.319954947316496</v>
+        <v>8.3199549473164964</v>
       </c>
       <c r="L17" s="2">
         <v>10.842812559696645</v>
@@ -4270,42 +5209,42 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B18" s="5">
         <v>7.3</v>
       </c>
       <c r="C18" s="2">
-        <v>8.18084993124738</v>
+        <v>8.1808499312473799</v>
       </c>
       <c r="D18" s="2">
-        <v>9.306821978233073</v>
+        <v>9.3068219782330726</v>
       </c>
       <c r="E18" s="2">
-        <v>8.310908134021869</v>
+        <v>8.3109081340218687</v>
       </c>
       <c r="F18" s="2">
         <v>10.005472079223109</v>
       </c>
       <c r="G18" s="2">
-        <v>8.101386438553494</v>
+        <v>8.1013864385534937</v>
       </c>
       <c r="H18" s="2">
-        <v>9.360833941375256</v>
+        <v>9.3608339413752564</v>
       </c>
       <c r="I18" s="2">
-        <v>8.498388872028347</v>
+        <v>8.4983888720283467</v>
       </c>
       <c r="J18" s="2">
-        <v>9.259251348604982</v>
+        <v>9.2592513486049821</v>
       </c>
       <c r="K18" s="2">
-        <v>8.299535737392176</v>
+        <v>8.2995357373921763</v>
       </c>
       <c r="L18" s="2">
-        <v>9.67758530224669</v>
+        <v>9.6775853022466904</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -4321,7 +5260,7 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7.2</v>
       </c>
@@ -4329,28 +5268,28 @@
         <v>6.7</v>
       </c>
       <c r="C19" s="2">
-        <v>8.953228691951782</v>
+        <v>8.9532286919517823</v>
       </c>
       <c r="D19" s="2">
-        <v>9.46279263158228</v>
+        <v>9.4627926315822801</v>
       </c>
       <c r="E19" s="2">
-        <v>8.54</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="F19" s="2">
-        <v>8.040761762749025</v>
+        <v>8.0407617627490247</v>
       </c>
       <c r="G19" s="2">
-        <v>8.959677341721171</v>
+        <v>8.9596773417211715</v>
       </c>
       <c r="H19" s="2">
-        <v>9.220100468233253</v>
+        <v>9.2201004682332535</v>
       </c>
       <c r="I19" s="2">
-        <v>11.34051365908157</v>
+        <v>11.340513659081569</v>
       </c>
       <c r="J19" s="2">
-        <v>9.871899354675943</v>
+        <v>9.8718993546759428</v>
       </c>
       <c r="K19" s="2">
         <v>8.226229809051663</v>
@@ -4372,7 +5311,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>7.6</v>
       </c>
@@ -4380,25 +5319,25 @@
         <v>6</v>
       </c>
       <c r="C20" s="2">
-        <v>10.60434349876969</v>
+        <v>10.604343498769691</v>
       </c>
       <c r="D20" s="2">
-        <v>9.594228309217126</v>
+        <v>9.5942283092171259</v>
       </c>
       <c r="E20" s="2">
-        <v>8.61403110587706</v>
+        <v>8.6140311058770607</v>
       </c>
       <c r="F20" s="2">
         <v>11.049609399977193</v>
       </c>
       <c r="G20" s="2">
-        <v>9.176601720252348</v>
+        <v>9.1766017202523482</v>
       </c>
       <c r="H20" s="2">
-        <v>9.257785162611775</v>
+        <v>9.2577851626117749</v>
       </c>
       <c r="I20" s="2">
-        <v>10.2767325650703</v>
+        <v>10.276732565070301</v>
       </c>
       <c r="J20" s="2">
         <v>10.162293464658111</v>
@@ -4407,7 +5346,7 @@
         <v>7.305292218636886</v>
       </c>
       <c r="L20" s="2">
-        <v>9.070540443674073</v>
+        <v>9.0705404436740729</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -4423,9 +5362,9 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="B21" s="5">
         <v>7.4</v>
@@ -4437,25 +5376,25 @@
         <v>10.577558955763868</v>
       </c>
       <c r="E21" s="2">
-        <v>8.87</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="F21" s="2">
-        <v>9.314810101876335</v>
+        <v>9.3148101018763345</v>
       </c>
       <c r="G21" s="2">
-        <v>7.673925889486245</v>
+        <v>7.6739258894862452</v>
       </c>
       <c r="H21" s="2">
         <v>9.65</v>
       </c>
       <c r="I21" s="2">
-        <v>9.428105690166833</v>
+        <v>9.4281056901668325</v>
       </c>
       <c r="J21" s="2">
         <v>8.14</v>
       </c>
       <c r="K21" s="2">
-        <v>7.47205719546111</v>
+        <v>7.4720571954611099</v>
       </c>
       <c r="L21" s="2">
         <v>12.407709038802171</v>
@@ -4474,7 +5413,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>8.59</v>
       </c>
@@ -4488,25 +5427,25 @@
         <v>9.223279531474514</v>
       </c>
       <c r="E22" s="2">
-        <v>6.515379662506371</v>
+        <v>6.5153796625063709</v>
       </c>
       <c r="F22" s="2">
         <v>10.24066595760508</v>
       </c>
       <c r="G22" s="2">
-        <v>7.805929423854501</v>
+        <v>7.8059294238545007</v>
       </c>
       <c r="H22" s="2">
-        <v>9.73879677824666</v>
+        <v>9.7387967782466607</v>
       </c>
       <c r="I22" s="2">
         <v>10.061968962409333</v>
       </c>
       <c r="J22" s="2">
-        <v>9.519988873364372</v>
+        <v>9.5199888733643725</v>
       </c>
       <c r="K22" s="2">
-        <v>7.520491688508869</v>
+        <v>7.5204916885088693</v>
       </c>
       <c r="L22" s="2">
         <v>12.377961630805299</v>
@@ -4525,7 +5464,7 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>7.76</v>
       </c>
@@ -4533,34 +5472,44 @@
         <v>6.6</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C13:C22)</f>
+        <f t="shared" ref="C23:L23" si="1">AVERAGE(C13:C22)</f>
+        <v>10.278026487117641</v>
       </c>
       <c r="D23" s="2">
-        <f>AVERAGE(D13:D22)</f>
+        <f t="shared" si="1"/>
+        <v>9.65526282648975</v>
       </c>
       <c r="E23" s="2">
-        <f>AVERAGE(E13:E22)</f>
+        <f t="shared" si="1"/>
+        <v>7.5429646198605287</v>
       </c>
       <c r="F23" s="2">
-        <f>AVERAGE(F13:F22)</f>
+        <f t="shared" si="1"/>
+        <v>9.4280384047985244</v>
       </c>
       <c r="G23" s="2">
-        <f>AVERAGE(G13:G22)</f>
+        <f t="shared" si="1"/>
+        <v>8.6179771287668618</v>
       </c>
       <c r="H23" s="2">
-        <f>AVERAGE(H13:H22)</f>
+        <f t="shared" si="1"/>
+        <v>9.8557295668708154</v>
       </c>
       <c r="I23" s="2">
-        <f>AVERAGE(I13:I22)</f>
+        <f t="shared" si="1"/>
+        <v>9.8736823043550537</v>
       </c>
       <c r="J23" s="2">
-        <f>AVERAGE(J13:J22)</f>
+        <f t="shared" si="1"/>
+        <v>8.5166956865806434</v>
       </c>
       <c r="K23" s="2">
-        <f>AVERAGE(K13:K22)</f>
+        <f t="shared" si="1"/>
+        <v>7.9277798249005729</v>
       </c>
       <c r="L23" s="2">
-        <f>AVERAGE(L13:L22)</f>
+        <f t="shared" si="1"/>
+        <v>10.802654631134674</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -4576,7 +5525,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7.71</v>
       </c>
@@ -4584,22 +5533,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>8.27944868956989</v>
+        <v>8.2794486895698896</v>
       </c>
       <c r="D24" s="2">
-        <v>8.987487170976308</v>
+        <v>8.9874871709763084</v>
       </c>
       <c r="E24" s="2">
-        <v>8.610779418521435</v>
+        <v>8.6107794185214352</v>
       </c>
       <c r="F24" s="2">
-        <v>7.557087811949477</v>
+        <v>7.5570878119494767</v>
       </c>
       <c r="G24" s="2">
-        <v>9.602501286890417</v>
+        <v>9.6025012868904174</v>
       </c>
       <c r="H24" s="2">
-        <v>9.247754975459081</v>
+        <v>9.2477549754590811</v>
       </c>
       <c r="I24" s="2">
         <v>11.290198385942144</v>
@@ -4608,7 +5557,7 @@
         <v>8.65</v>
       </c>
       <c r="K24" s="2">
-        <v>7.662054261446563</v>
+        <v>7.6620542614465634</v>
       </c>
       <c r="L24" s="2">
         <v>11.744758533296181</v>
@@ -4627,7 +5576,7 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>8.09</v>
       </c>
@@ -4644,25 +5593,25 @@
         <v>8.89</v>
       </c>
       <c r="F25" s="2">
-        <v>9.462481083091877</v>
+        <v>9.4624810830918769</v>
       </c>
       <c r="G25" s="2">
-        <v>9.29011251756196</v>
+        <v>9.2901125175619601</v>
       </c>
       <c r="H25" s="2">
         <v>10.25283787172512</v>
       </c>
       <c r="I25" s="2">
-        <v>8.844763826665625</v>
+        <v>8.8447638266656252</v>
       </c>
       <c r="J25" s="2">
         <v>6.8223709557101895</v>
       </c>
       <c r="K25" s="2">
-        <v>8.003856732816386</v>
+        <v>8.0038567328163861</v>
       </c>
       <c r="L25" s="2">
-        <v>11.96856117889032</v>
+        <v>11.968561178890321</v>
       </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -4684,7 +5633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -4694,21 +5643,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4746,12 +5684,12 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6.5</v>
       </c>
       <c r="B2" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C2" s="2">
         <v>5.3</v>
@@ -4760,7 +5698,7 @@
         <v>7.3</v>
       </c>
       <c r="E2" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F2" s="2">
         <v>6.47</v>
@@ -4772,7 +5710,7 @@
         <v>6.5</v>
       </c>
       <c r="I2" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J2" s="2">
         <v>4.2</v>
@@ -4784,7 +5722,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6.6</v>
       </c>
@@ -4798,7 +5736,7 @@
         <v>6.4</v>
       </c>
       <c r="E3" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F3" s="2">
         <v>5.4</v>
@@ -4822,7 +5760,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5.4</v>
       </c>
@@ -4860,7 +5798,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6.6</v>
       </c>
@@ -4874,7 +5812,7 @@
         <v>7.1</v>
       </c>
       <c r="E5" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F5" s="2">
         <v>5.42</v>
@@ -4892,13 +5830,13 @@
         <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L5" s="2">
         <v>6.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6.6</v>
       </c>
@@ -4924,24 +5862,24 @@
         <v>5.9</v>
       </c>
       <c r="I6" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J6" s="2">
         <v>6.4</v>
       </c>
       <c r="K6" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L6" s="2">
         <v>6.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5.5</v>
       </c>
       <c r="B7" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C7" s="2">
         <v>5.8</v>
@@ -4962,7 +5900,7 @@
         <v>6.5</v>
       </c>
       <c r="I7" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J7" s="2">
         <v>5.8</v>
@@ -4974,7 +5912,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5.7</v>
       </c>
@@ -4994,7 +5932,7 @@
         <v>5.98</v>
       </c>
       <c r="G8" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H8" s="2">
         <v>5.7</v>
@@ -5012,7 +5950,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6.8</v>
       </c>
@@ -5032,16 +5970,16 @@
         <v>5.6</v>
       </c>
       <c r="G9" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H9" s="2">
         <v>5.4</v>
       </c>
       <c r="I9" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J9" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K9" s="2">
         <v>5.6</v>
@@ -5050,12 +5988,12 @@
         <v>6.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5.8</v>
       </c>
       <c r="B10" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C10" s="2">
         <v>6.4</v>
@@ -5064,7 +6002,7 @@
         <v>7.7</v>
       </c>
       <c r="E10" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F10" s="2">
         <v>5.3</v>
@@ -5076,7 +6014,7 @@
         <v>5.8</v>
       </c>
       <c r="I10" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J10" s="2">
         <v>5.8</v>
@@ -5088,12 +6026,12 @@
         <v>6.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7.7</v>
       </c>
       <c r="B11" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C11" s="2">
         <v>6.5</v>
@@ -5111,13 +6049,13 @@
         <v>4.7</v>
       </c>
       <c r="H11" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I11" s="2">
         <v>5.3</v>
       </c>
       <c r="J11" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K11" s="2">
         <v>5.3</v>
@@ -5126,56 +6064,68 @@
         <v>7.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f>AVERAGE(A2:A11)</f>
+        <f t="shared" ref="A12:L12" si="0">AVERAGE(A2:A11)</f>
+        <v>6.32</v>
       </c>
       <c r="B12" s="2">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" si="0"/>
+        <v>4.45</v>
       </c>
       <c r="C12" s="2">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
+        <v>6.08</v>
       </c>
       <c r="D12" s="2">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
+        <v>6.9700000000000006</v>
       </c>
       <c r="E12" s="2">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
+        <v>5.32</v>
       </c>
       <c r="F12" s="2">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
+        <v>5.7409999999999997</v>
       </c>
       <c r="G12" s="2">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
+        <v>5.23</v>
       </c>
       <c r="H12" s="2">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="0"/>
+        <v>5.91</v>
       </c>
       <c r="I12" s="2">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="0"/>
+        <v>4.9639999999999995</v>
       </c>
       <c r="J12" s="2">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="0"/>
+        <v>5.24</v>
       </c>
       <c r="K12" s="2">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="0"/>
+        <v>5.33</v>
       </c>
       <c r="L12" s="2">
-        <f>AVERAGE(L2:L11)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>6.7300000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6.998266968818502</v>
       </c>
       <c r="B13" s="2">
-        <v>5.166809701690799</v>
+        <v>5.1668097016907986</v>
       </c>
       <c r="C13" s="2">
-        <v>6.810016720895685</v>
+        <v>6.8100167208956854</v>
       </c>
       <c r="D13" s="2">
-        <v>6.419430103839693</v>
+        <v>6.4194301038396926</v>
       </c>
       <c r="E13" s="2">
         <v>4.8130381570611975</v>
@@ -5187,36 +6137,36 @@
         <v>4.447931538602413</v>
       </c>
       <c r="H13" s="2">
-        <v>6.066640407127493</v>
+        <v>6.0666404071274931</v>
       </c>
       <c r="I13" s="2">
-        <v>5.910788098407077</v>
+        <v>5.9107880984070773</v>
       </c>
       <c r="J13" s="2">
-        <v>5.423858339820857</v>
+        <v>5.4238583398208569</v>
       </c>
       <c r="K13" s="2">
-        <v>5.433356688517437</v>
+        <v>5.4333566885174367</v>
       </c>
       <c r="L13" s="2">
-        <v>7.349901585913568</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>7.3499015859135683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6.8</v>
       </c>
       <c r="B14" s="2">
-        <v>4.720863631198737</v>
+        <v>4.7208636311987373</v>
       </c>
       <c r="C14" s="2">
-        <v>5.25707616018557</v>
+        <v>5.2570761601855702</v>
       </c>
       <c r="D14" s="2">
-        <v>6.26396882474474</v>
+        <v>6.2639688247447403</v>
       </c>
       <c r="E14" s="2">
-        <v>4.929584565743811</v>
+        <v>4.9295845657438111</v>
       </c>
       <c r="F14" s="2">
         <v>6.55</v>
@@ -5225,188 +6175,188 @@
         <v>5.8702777109623145</v>
       </c>
       <c r="H14" s="2">
-        <v>6.445174933407324</v>
+        <v>6.4451749334073236</v>
       </c>
       <c r="I14" s="2">
-        <v>5.82727177672798</v>
+        <v>5.8272717767279802</v>
       </c>
       <c r="J14" s="2">
-        <v>4.899910908215977</v>
+        <v>4.8999109082159773</v>
       </c>
       <c r="K14" s="2">
-        <v>5.630534718048661</v>
+        <v>5.6305347180486613</v>
       </c>
       <c r="L14" s="2">
-        <v>6.459635487948535</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>6.4596354879485354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>5.988413125578151</v>
       </c>
       <c r="B15" s="2">
-        <v>5.121183216575594</v>
+        <v>5.1211832165755942</v>
       </c>
       <c r="C15" s="2">
-        <v>6.339774260737762</v>
+        <v>6.3397742607377623</v>
       </c>
       <c r="D15" s="2">
-        <v>7.889270720721509</v>
+        <v>7.8892707207215089</v>
       </c>
       <c r="E15" s="2">
-        <v>6.088617603428652</v>
+        <v>6.0886176034286521</v>
       </c>
       <c r="F15" s="2">
-        <v>5.961919489906116</v>
+        <v>5.9619194899061156</v>
       </c>
       <c r="G15" s="2">
-        <v>5.689540283898293</v>
+        <v>5.6895402838982934</v>
       </c>
       <c r="H15" s="2">
-        <v>5.837872402764541</v>
+        <v>5.8378724027645408</v>
       </c>
       <c r="I15" s="2">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="J15" s="2">
-        <v>5.530311956643292</v>
+        <v>5.5303119566432919</v>
       </c>
       <c r="K15" s="2">
-        <v>5.802408458191065</v>
+        <v>5.8024084581910653</v>
       </c>
       <c r="L15" s="2">
         <v>5.9726859506447365</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5.6023178379609515</v>
       </c>
       <c r="B16" s="2">
-        <v>4.136588066236821</v>
+        <v>4.1365880662368211</v>
       </c>
       <c r="C16" s="2">
-        <v>5.1231786422471</v>
+        <v>5.1231786422471002</v>
       </c>
       <c r="D16" s="2">
-        <v>6.487936712815563</v>
+        <v>6.4879367128155634</v>
       </c>
       <c r="E16" s="2">
-        <v>5.387602830049207</v>
+        <v>5.3876028300492074</v>
       </c>
       <c r="F16" s="2">
         <v>6.031248190761306</v>
       </c>
       <c r="G16" s="2">
-        <v>4.743405730221095</v>
+        <v>4.7434057302210952</v>
       </c>
       <c r="H16" s="2">
-        <v>5.774065504070311</v>
+        <v>5.7740655040703111</v>
       </c>
       <c r="I16" s="2">
-        <v>5.219696641294283</v>
+        <v>5.2196966412942833</v>
       </c>
       <c r="J16" s="2">
-        <v>4.635438180898596</v>
+        <v>4.6354381808985963</v>
       </c>
       <c r="K16" s="2">
-        <v>4.96385685694609</v>
+        <v>4.9638568569460899</v>
       </c>
       <c r="L16" s="2">
-        <v>6.456253382286356</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>6.4562533822863557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>5.333499034002628</v>
       </c>
       <c r="B17" s="2">
-        <v>4.961003982486801</v>
+        <v>4.9610039824868011</v>
       </c>
       <c r="C17" s="2">
-        <v>5.114597844694847</v>
+        <v>5.1145978446948472</v>
       </c>
       <c r="D17" s="2">
-        <v>7.539470583494605</v>
+        <v>7.5394705834946052</v>
       </c>
       <c r="E17" s="2">
-        <v>5.007201063094572</v>
+        <v>5.0072010630945716</v>
       </c>
       <c r="F17" s="2">
         <v>5.908213860755529</v>
       </c>
       <c r="G17" s="2">
-        <v>5.011867072539157</v>
+        <v>5.0118670725391574</v>
       </c>
       <c r="H17" s="2">
-        <v>5.064659768602175</v>
+        <v>5.0646597686021746</v>
       </c>
       <c r="I17" s="2">
         <v>4.67</v>
       </c>
       <c r="J17" s="2">
-        <v>4.933343710126478</v>
+        <v>4.9333437101264783</v>
       </c>
       <c r="K17" s="2">
-        <v>5.783334481539301</v>
+        <v>5.7833344815393009</v>
       </c>
       <c r="L17" s="2">
-        <v>6.271133722795168</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>6.2711337227951676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5.4673409341120776</v>
       </c>
       <c r="B18" s="2">
-        <v>4.857413460043967</v>
+        <v>4.8574134600439667</v>
       </c>
       <c r="C18" s="2">
         <v>5.901217073761857</v>
       </c>
       <c r="D18" s="2">
-        <v>7.911625463884626</v>
+        <v>7.9116254638846257</v>
       </c>
       <c r="E18" s="2">
-        <v>5.773074147272988</v>
+        <v>5.7730741472729878</v>
       </c>
       <c r="F18" s="2">
         <v>5.9</v>
       </c>
       <c r="G18" s="2">
-        <v>4.915566078459683</v>
+        <v>4.9155660784596833</v>
       </c>
       <c r="H18" s="2">
-        <v>5.587328358687486</v>
+        <v>5.5873283586874862</v>
       </c>
       <c r="I18" s="2">
-        <v>5.404398783500797</v>
+        <v>5.4043987835007972</v>
       </c>
       <c r="J18" s="2">
-        <v>4.367313962536444</v>
+        <v>4.3673139625364437</v>
       </c>
       <c r="K18" s="2">
-        <v>5.046898295426059</v>
+        <v>5.0468982954260593</v>
       </c>
       <c r="L18" s="2">
         <v>6.783648363131709</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>5.742645652652865</v>
+        <v>5.7426456526528646</v>
       </c>
       <c r="B19" s="2">
-        <v>4.025210121189427</v>
+        <v>4.0252101211894269</v>
       </c>
       <c r="C19" s="2">
-        <v>5.538793475425376</v>
+        <v>5.5387934754253756</v>
       </c>
       <c r="D19" s="2">
-        <v>6.970297082046485</v>
+        <v>6.9702970820464847</v>
       </c>
       <c r="E19" s="2">
-        <v>5.671293312143926</v>
+        <v>5.6712933121439262</v>
       </c>
       <c r="F19" s="2">
         <v>5.72</v>
@@ -5418,171 +6368,183 @@
         <v>5.9102485554086215</v>
       </c>
       <c r="I19" s="2">
-        <v>4.980849317205445</v>
+        <v>4.9808493172054451</v>
       </c>
       <c r="J19" s="2">
-        <v>6.155209135835825</v>
+        <v>6.1552091358358254</v>
       </c>
       <c r="K19" s="2">
-        <v>6.065485784847917</v>
+        <v>6.0654857848479171</v>
       </c>
       <c r="L19" s="2">
-        <v>7.250882552226315</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>7.2508825522263152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>5.940346069676997</v>
+        <v>5.9403460696769974</v>
       </c>
       <c r="B20" s="2">
         <v>3.5195033413754198</v>
       </c>
       <c r="C20" s="2">
-        <v>5.603620978844842</v>
+        <v>5.6036209788448419</v>
       </c>
       <c r="D20" s="2">
-        <v>6.222942021300549</v>
+        <v>6.2229420213005486</v>
       </c>
       <c r="E20" s="2">
-        <v>5.18923300034237</v>
+        <v>5.1892330003423703</v>
       </c>
       <c r="F20" s="2">
         <v>5.8667799562798795</v>
       </c>
       <c r="G20" s="2">
-        <v>5.120239288401083</v>
+        <v>5.1202392884010832</v>
       </c>
       <c r="H20" s="2">
-        <v>5.646770205383443</v>
+        <v>5.6467702053834428</v>
       </c>
       <c r="I20" s="2">
-        <v>5.247048166040065</v>
+        <v>5.2470481660400647</v>
       </c>
       <c r="J20" s="2">
-        <v>5.712077164353255</v>
+        <v>5.7120771643532553</v>
       </c>
       <c r="K20" s="2">
-        <v>4.710513086513653</v>
+        <v>4.7105130865136529</v>
       </c>
       <c r="L20" s="2">
-        <v>7.619851726407956</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>7.6198517264079557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>6.499980638645974</v>
+        <v>6.4999806386459742</v>
       </c>
       <c r="B21" s="2">
-        <v>5.075969795417178</v>
+        <v>5.0759697954171781</v>
       </c>
       <c r="C21" s="2">
-        <v>6.327006870918664</v>
+        <v>6.3270068709186642</v>
       </c>
       <c r="D21" s="2">
         <v>7.788414637379498</v>
       </c>
       <c r="E21" s="2">
-        <v>6.263798939292834</v>
+        <v>6.2637989392928342</v>
       </c>
       <c r="F21" s="2">
-        <v>5.94506558271506</v>
+        <v>5.9450655827150598</v>
       </c>
       <c r="G21" s="2">
-        <v>5.533837111391017</v>
+        <v>5.5338371113910174</v>
       </c>
       <c r="H21" s="2">
-        <v>5.853919964362746</v>
+        <v>5.8539199643627464</v>
       </c>
       <c r="I21" s="2">
-        <v>5.781903870160924</v>
+        <v>5.7819038701609244</v>
       </c>
       <c r="J21" s="2">
-        <v>5.272751348263055</v>
+        <v>5.2727513482630552</v>
       </c>
       <c r="K21" s="2">
-        <v>5.82474165704391</v>
+        <v>5.8247416570439103</v>
       </c>
       <c r="L21" s="2">
-        <v>7.139271742088191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>7.1392717420881908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>5.875188137538556</v>
+        <v>5.8751881375385562</v>
       </c>
       <c r="B22" s="2">
-        <v>4.845819284158646</v>
+        <v>4.8458192841586456</v>
       </c>
       <c r="C22" s="2">
-        <v>6.665751892902214</v>
+        <v>6.6657518929022137</v>
       </c>
       <c r="D22" s="2">
-        <v>6.423555903550345</v>
+        <v>6.4235559035503451</v>
       </c>
       <c r="E22" s="2">
-        <v>4.767338270398582</v>
+        <v>4.7673382703985823</v>
       </c>
       <c r="F22" s="2">
-        <v>6.123752954242303</v>
+        <v>6.1237529542423026</v>
       </c>
       <c r="G22" s="2">
-        <v>4.249424001856154</v>
+        <v>4.2494240018561538</v>
       </c>
       <c r="H22" s="2">
-        <v>5.867855751303926</v>
+        <v>5.8678557513039262</v>
       </c>
       <c r="I22" s="2">
         <v>5.6142564066159615</v>
       </c>
       <c r="J22" s="2">
-        <v>4.659075693320702</v>
+        <v>4.6590756933207018</v>
       </c>
       <c r="K22" s="2">
-        <v>6.216660240057294</v>
+        <v>6.2166602400572941</v>
       </c>
       <c r="L22" s="2">
-        <v>7.109221751096301</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>7.1092217510963014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f>AVERAGE(A13:A22)</f>
+        <f t="shared" ref="A23:L23" si="1">AVERAGE(A13:A22)</f>
+        <v>6.0247998398986713</v>
       </c>
       <c r="B23" s="2">
-        <f>AVERAGE(B13:B22)</f>
+        <f t="shared" si="1"/>
+        <v>4.6430364600373384</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C13:C22)</f>
+        <f t="shared" si="1"/>
+        <v>5.8681033920613919</v>
       </c>
       <c r="D23" s="2">
-        <f>AVERAGE(D13:D22)</f>
+        <f t="shared" si="1"/>
+        <v>6.9916912053777605</v>
       </c>
       <c r="E23" s="2">
-        <f>AVERAGE(E13:E22)</f>
+        <f t="shared" si="1"/>
+        <v>5.3890781888828139</v>
       </c>
       <c r="F23" s="2">
-        <f>AVERAGE(F13:F22)</f>
+        <f t="shared" si="1"/>
+        <v>6.0286980034660189</v>
       </c>
       <c r="G23" s="2">
-        <f>AVERAGE(G13:G22)</f>
+        <f t="shared" si="1"/>
+        <v>5.163208375492605</v>
       </c>
       <c r="H23" s="2">
-        <f>AVERAGE(H13:H22)</f>
+        <f t="shared" si="1"/>
+        <v>5.8054535851118061</v>
       </c>
       <c r="I23" s="2">
-        <f>AVERAGE(I13:I22)</f>
+        <f t="shared" si="1"/>
+        <v>5.3426213059952534</v>
       </c>
       <c r="J23" s="2">
-        <f>AVERAGE(J13:J22)</f>
+        <f t="shared" si="1"/>
+        <v>5.158929040001448</v>
       </c>
       <c r="K23" s="2">
-        <f>AVERAGE(K13:K22)</f>
+        <f t="shared" si="1"/>
+        <v>5.5477790267131386</v>
       </c>
       <c r="L23" s="2">
-        <f>AVERAGE(L13:L22)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>6.8412486264538845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7.0451362032434535</v>
       </c>
@@ -5590,7 +6552,7 @@
         <v>3.7511300266849825</v>
       </c>
       <c r="C24" s="2">
-        <v>5.674452334054033</v>
+        <v>5.6744523340540329</v>
       </c>
       <c r="D24" s="2">
         <v>6.7984898518898715</v>
@@ -5599,39 +6561,39 @@
         <v>4.6879344951434385</v>
       </c>
       <c r="F24" s="2">
-        <v>6.219450286553014</v>
+        <v>6.2194502865530144</v>
       </c>
       <c r="G24" s="2">
-        <v>5.258022186080273</v>
+        <v>5.2580221860802734</v>
       </c>
       <c r="H24" s="2">
-        <v>6.589939569795128</v>
+        <v>6.5899395697951277</v>
       </c>
       <c r="I24" s="2">
-        <v>4.495691825109052</v>
+        <v>4.4956918251090521</v>
       </c>
       <c r="J24" s="2">
-        <v>5.646061250943143</v>
+        <v>5.6460612509431432</v>
       </c>
       <c r="K24" s="2">
-        <v>5.99436786596055</v>
+        <v>5.9943678659605499</v>
       </c>
       <c r="L24" s="2">
-        <v>6.455067730852566</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>6.4550677308525657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>6.30653721470866</v>
+        <v>6.3065372147086602</v>
       </c>
       <c r="B25" s="2">
         <v>3.8220695830109603</v>
       </c>
       <c r="C25" s="2">
-        <v>5.70746029421513</v>
+        <v>5.7074602942151298</v>
       </c>
       <c r="D25" s="2">
-        <v>7.514150187888072</v>
+        <v>7.5141501878880721</v>
       </c>
       <c r="E25" s="2">
         <v>4.8376645336168504</v>
@@ -5646,16 +6608,16 @@
         <v>6.6525486203233655</v>
       </c>
       <c r="I25" s="2">
-        <v>5.313781151685682</v>
+        <v>5.3137811516856823</v>
       </c>
       <c r="J25" s="2">
-        <v>4.552902212201103</v>
+        <v>4.5529022122011034</v>
       </c>
       <c r="K25" s="2">
-        <v>5.780142544929634</v>
+        <v>5.7801425449296344</v>
       </c>
       <c r="L25" s="2">
-        <v>6.211640213071035</v>
+        <v>6.2116402130710346</v>
       </c>
     </row>
   </sheetData>
@@ -5664,7 +6626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5674,21 +6636,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5726,7 +6677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7.6</v>
       </c>
@@ -5761,10 +6712,10 @@
         <v>6.4</v>
       </c>
       <c r="L2" s="2">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7.6</v>
       </c>
@@ -5775,7 +6726,7 @@
         <v>7.9</v>
       </c>
       <c r="D3" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E3" s="2">
         <v>6.88</v>
@@ -5802,7 +6753,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6.6</v>
       </c>
@@ -5840,7 +6791,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -5875,10 +6826,10 @@
         <v>6.2</v>
       </c>
       <c r="L5" s="2">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7.4</v>
       </c>
@@ -5886,7 +6837,7 @@
         <v>6.6</v>
       </c>
       <c r="C6" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D6" s="2">
         <v>7.5</v>
@@ -5916,7 +6867,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7.1</v>
       </c>
@@ -5951,10 +6902,10 @@
         <v>5.8</v>
       </c>
       <c r="L7" s="2">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7.2</v>
       </c>
@@ -5965,7 +6916,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E8" s="2">
         <v>6.45</v>
@@ -5992,7 +6943,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7.2</v>
       </c>
@@ -6000,10 +6951,10 @@
         <v>6.2</v>
       </c>
       <c r="C9" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E9" s="2">
         <v>6.91</v>
@@ -6027,10 +6978,10 @@
         <v>5.9</v>
       </c>
       <c r="L9" s="2">
-        <v>9.3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7.5</v>
       </c>
@@ -6038,7 +6989,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D10" s="2">
         <v>7.3</v>
@@ -6065,10 +7016,10 @@
         <v>6.2</v>
       </c>
       <c r="L10" s="2">
-        <v>9.7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -6106,9 +7057,9 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>7.220000000000001</v>
+        <v>7.2200000000000006</v>
       </c>
       <c r="B12" s="2">
         <v>6.19</v>
@@ -6117,10 +7068,10 @@
         <v>8.17</v>
       </c>
       <c r="D12" s="2">
-        <v>8.03</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E12" s="2">
-        <v>6.840000000000001</v>
+        <v>6.8400000000000007</v>
       </c>
       <c r="F12" s="2">
         <v>7.1</v>
@@ -6138,51 +7089,51 @@
         <v>7.01</v>
       </c>
       <c r="K12" s="2">
-        <v>6.279999999999999</v>
+        <v>6.2799999999999994</v>
       </c>
       <c r="L12" s="2">
-        <v>9.190000000000001</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>9.1900000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>7.877702172582611</v>
+        <v>7.8777021725826106</v>
       </c>
       <c r="B13" s="2">
         <v>6.1</v>
       </c>
       <c r="C13" s="2">
-        <v>7.828749888348694</v>
+        <v>7.8287498883486943</v>
       </c>
       <c r="D13" s="2">
-        <v>9.599622659304822</v>
+        <v>9.5996226593048224</v>
       </c>
       <c r="E13" s="2">
         <v>6.78</v>
       </c>
       <c r="F13" s="2">
-        <v>5.511156837281124</v>
+        <v>5.5111568372811242</v>
       </c>
       <c r="G13" s="2">
-        <v>6.718523060407909</v>
+        <v>6.7185230604079091</v>
       </c>
       <c r="H13" s="2">
-        <v>7.906377217630187</v>
+        <v>7.9063772176301867</v>
       </c>
       <c r="I13" s="2">
-        <v>7.962041710004714</v>
+        <v>7.9620417100047138</v>
       </c>
       <c r="J13" s="2">
-        <v>6.445901990323281</v>
+        <v>6.4459019903232813</v>
       </c>
       <c r="K13" s="2">
-        <v>7.278327121662137</v>
+        <v>7.2783271216621372</v>
       </c>
       <c r="L13" s="2">
-        <v>7.695469300421721</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>7.6954693004217214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6.938307263475199</v>
       </c>
@@ -6190,10 +7141,10 @@
         <v>6.4</v>
       </c>
       <c r="C14" s="2">
-        <v>7.87352458891509</v>
+        <v>7.8735245889150898</v>
       </c>
       <c r="D14" s="2">
-        <v>8.807371737412154</v>
+        <v>8.8073717374121543</v>
       </c>
       <c r="E14" s="2">
         <v>6.55</v>
@@ -6205,30 +7156,30 @@
         <v>6.77</v>
       </c>
       <c r="H14" s="2">
-        <v>7.648264004393271</v>
+        <v>7.6482640043932708</v>
       </c>
       <c r="I14" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J14" s="2">
-        <v>8.888444952142608</v>
+        <v>8.8884449521426081</v>
       </c>
       <c r="K14" s="2">
         <v>5.024437150578736</v>
       </c>
       <c r="L14" s="2">
-        <v>9.933377816294453</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>9.9333778162944526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>7.306499657479227</v>
+        <v>7.3064996574792271</v>
       </c>
       <c r="B15" s="2">
         <v>6.7</v>
       </c>
       <c r="C15" s="2">
-        <v>7.979506805494408</v>
+        <v>7.9795068054944078</v>
       </c>
       <c r="D15" s="2">
         <v>9.927341757729085</v>
@@ -6237,45 +7188,45 @@
         <v>6.34</v>
       </c>
       <c r="F15" s="2">
-        <v>8.258419931294153</v>
+        <v>8.2584199312941529</v>
       </c>
       <c r="G15" s="2">
         <v>6.3</v>
       </c>
       <c r="H15" s="2">
-        <v>6.447171852087907</v>
+        <v>6.4471718520879069</v>
       </c>
       <c r="I15" s="2">
         <v>7.9</v>
       </c>
       <c r="J15" s="2">
-        <v>5.251876491915669</v>
+        <v>5.2518764919156693</v>
       </c>
       <c r="K15" s="2">
         <v>6.7</v>
       </c>
       <c r="L15" s="2">
-        <v>8.46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>6.528714144453999</v>
+        <v>6.5287141444539989</v>
       </c>
       <c r="B16" s="2">
         <v>6.4</v>
       </c>
       <c r="C16" s="2">
-        <v>6.934494790957458</v>
+        <v>6.9344947909574577</v>
       </c>
       <c r="D16" s="2">
-        <v>6.277491720984646</v>
+        <v>6.2774917209846457</v>
       </c>
       <c r="E16" s="2">
         <v>7.7</v>
       </c>
       <c r="F16" s="2">
-        <v>8.03665665099084</v>
+        <v>8.0366566509908406</v>
       </c>
       <c r="G16" s="2">
         <v>6.912062051376429</v>
@@ -6287,54 +7238,54 @@
         <v>6.31</v>
       </c>
       <c r="J16" s="2">
-        <v>5.907292141018392</v>
+        <v>5.9072921410183916</v>
       </c>
       <c r="K16" s="2">
-        <v>6.90266726494974</v>
+        <v>6.9026672649497396</v>
       </c>
       <c r="L16" s="2">
         <v>10.657516413863927</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>7.991032249489161</v>
+        <v>7.9910322494891606</v>
       </c>
       <c r="B17" s="2">
         <v>6.9</v>
       </c>
       <c r="C17" s="2">
-        <v>9.55257349978388</v>
+        <v>9.5525734997838807</v>
       </c>
       <c r="D17" s="2">
-        <v>6.91725346931001</v>
+        <v>6.9172534693100101</v>
       </c>
       <c r="E17" s="2">
         <v>7.4</v>
       </c>
       <c r="F17" s="2">
-        <v>7.949426766583991</v>
+        <v>7.9494267665839908</v>
       </c>
       <c r="G17" s="2">
-        <v>7.650869533657106</v>
+        <v>7.6508695336571062</v>
       </c>
       <c r="H17" s="2">
-        <v>8.28195916156918</v>
+        <v>8.2819591615691799</v>
       </c>
       <c r="I17" s="2">
-        <v>7.023190400045365</v>
+        <v>7.0231904000453653</v>
       </c>
       <c r="J17" s="2">
-        <v>6.332584257359995</v>
+        <v>6.3325842573599953</v>
       </c>
       <c r="K17" s="2">
         <v>7.4</v>
       </c>
       <c r="L17" s="2">
-        <v>7.280785903878314</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>7.2807859038783143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7.111244544779078</v>
       </c>
@@ -6342,10 +7293,10 @@
         <v>6.5</v>
       </c>
       <c r="C18" s="2">
-        <v>6.559715610992978</v>
+        <v>6.5597156109929777</v>
       </c>
       <c r="D18" s="2">
-        <v>6.958914644520004</v>
+        <v>6.9589146445200036</v>
       </c>
       <c r="E18" s="2">
         <v>7.07</v>
@@ -6357,33 +7308,33 @@
         <v>6.7735250447196975</v>
       </c>
       <c r="H18" s="2">
-        <v>6.26240987337909</v>
+        <v>6.2624098733790898</v>
       </c>
       <c r="I18" s="2">
-        <v>8.040548491502465</v>
+        <v>8.0405484915024648</v>
       </c>
       <c r="J18" s="2">
-        <v>8.220590513755788</v>
+        <v>8.2205905137557878</v>
       </c>
       <c r="K18" s="2">
-        <v>8.143968787079396</v>
+        <v>8.1439687870793964</v>
       </c>
       <c r="L18" s="2">
-        <v>8.643016338136</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>8.6430163381360003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>7.781539200984035</v>
+        <v>7.7815392009840352</v>
       </c>
       <c r="B19" s="2">
         <v>6.1</v>
       </c>
       <c r="C19" s="2">
-        <v>8.533674102486973</v>
+        <v>8.5336741024869731</v>
       </c>
       <c r="D19" s="2">
-        <v>8.382590329695121</v>
+        <v>8.3825903296951214</v>
       </c>
       <c r="E19" s="2">
         <v>6.44</v>
@@ -6395,45 +7346,45 @@
         <v>6.17</v>
       </c>
       <c r="H19" s="2">
-        <v>5.880518468419753</v>
+        <v>5.8805184684197531</v>
       </c>
       <c r="I19" s="2">
         <v>7.2</v>
       </c>
       <c r="J19" s="2">
-        <v>5.33714382579004</v>
+        <v>5.3371438257900401</v>
       </c>
       <c r="K19" s="2">
-        <v>6.279950970851823</v>
+        <v>6.2799509708518233</v>
       </c>
       <c r="L19" s="2">
         <v>10.666149044916803</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>6.403839291646738</v>
+        <v>6.4038392916467384</v>
       </c>
       <c r="B20" s="2">
         <v>6.5</v>
       </c>
       <c r="C20" s="2">
-        <v>8.305520768710403</v>
+        <v>8.3055207687104033</v>
       </c>
       <c r="D20" s="2">
-        <v>8.123505929142897</v>
+        <v>8.1235059291428975</v>
       </c>
       <c r="E20" s="2">
         <v>7.9</v>
       </c>
       <c r="F20" s="2">
-        <v>5.902951852290964</v>
+        <v>5.9029518522909639</v>
       </c>
       <c r="G20" s="2">
-        <v>6.624223594039673</v>
+        <v>6.6242235940396732</v>
       </c>
       <c r="H20" s="2">
-        <v>6.084237616271252</v>
+        <v>6.0842376162712517</v>
       </c>
       <c r="I20" s="2">
         <v>6.22</v>
@@ -6442,91 +7393,91 @@
         <v>7.7147679877770425</v>
       </c>
       <c r="K20" s="2">
-        <v>6.004307065116652</v>
+        <v>6.0043070651166524</v>
       </c>
       <c r="L20" s="2">
-        <v>9.58379502842702</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>9.5837950284270192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>7.947869704714305</v>
+        <v>7.9478697047143054</v>
       </c>
       <c r="B21" s="2">
         <v>6.6</v>
       </c>
       <c r="C21" s="2">
-        <v>8.947567365568187</v>
+        <v>8.9475673655681867</v>
       </c>
       <c r="D21" s="2">
-        <v>9.92661973913269</v>
+        <v>9.9266197391326898</v>
       </c>
       <c r="E21" s="2">
         <v>7.67</v>
       </c>
       <c r="F21" s="2">
-        <v>6.624036970021956</v>
+        <v>6.6240369700219563</v>
       </c>
       <c r="G21" s="2">
         <v>6.61</v>
       </c>
       <c r="H21" s="2">
-        <v>6.872700391052763</v>
+        <v>6.8727003910527626</v>
       </c>
       <c r="I21" s="2">
         <v>6.77</v>
       </c>
       <c r="J21" s="2">
-        <v>7.496277095614884</v>
+        <v>7.4962770956148841</v>
       </c>
       <c r="K21" s="2">
-        <v>7.807872527589998</v>
+        <v>7.8078725275899981</v>
       </c>
       <c r="L21" s="2">
         <v>9.76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>7.28498473730604</v>
+        <v>7.2849847373060399</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>6.69901697606701</v>
+        <v>6.6990169760670097</v>
       </c>
       <c r="D22" s="2">
-        <v>7.41460323408497</v>
+        <v>7.4146032340849697</v>
       </c>
       <c r="E22" s="2">
         <v>7.3</v>
       </c>
       <c r="F22" s="2">
-        <v>8.009390186841523</v>
+        <v>8.0093901868415234</v>
       </c>
       <c r="G22" s="2">
-        <v>7.020347436342417</v>
+        <v>7.0203474363424174</v>
       </c>
       <c r="H22" s="2">
         <v>8</v>
       </c>
       <c r="I22" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J22" s="2">
-        <v>8.354302544823392</v>
+        <v>8.3543025448233923</v>
       </c>
       <c r="K22" s="2">
         <v>7.241643626349898</v>
       </c>
       <c r="L22" s="2">
-        <v>9.736440123454473</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>9.7364401234544733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>7.317173296691038</v>
+        <v>7.3171732966910383</v>
       </c>
       <c r="B23" s="2">
         <v>6.42</v>
@@ -6535,45 +7486,45 @@
         <v>8.32143443973251</v>
       </c>
       <c r="D23" s="2">
-        <v>8.233531522131639</v>
+        <v>8.2335315221316385</v>
       </c>
       <c r="E23" s="2">
         <v>7.13</v>
       </c>
       <c r="F23" s="2">
-        <v>7.085055347987526</v>
+        <v>7.0850553479875256</v>
       </c>
       <c r="G23" s="2">
-        <v>6.596098099754914</v>
+        <v>6.5960980997549141</v>
       </c>
       <c r="H23" s="2">
-        <v>7.473305405972518</v>
+        <v>7.4733054059725177</v>
       </c>
       <c r="I23" s="2">
-        <v>7.427231024592794</v>
+        <v>7.4272310245927944</v>
       </c>
       <c r="J23" s="2">
-        <v>7.05491818005211</v>
+        <v>7.0549181800521099</v>
       </c>
       <c r="K23" s="2">
-        <v>6.878317451417837</v>
+        <v>6.8783174514178373</v>
       </c>
       <c r="L23" s="2">
-        <v>8.541415638639723</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <v>8.5414156386397231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>5.839970573742137</v>
+        <v>5.8399705737421366</v>
       </c>
       <c r="B24" s="2">
         <v>7</v>
       </c>
       <c r="C24" s="2">
-        <v>6.847470870151319</v>
+        <v>6.8474708701513194</v>
       </c>
       <c r="D24" s="2">
-        <v>9.602688458288425</v>
+        <v>9.6026884582884247</v>
       </c>
       <c r="E24" s="2">
         <v>7.2</v>
@@ -6582,13 +7533,13 @@
         <v>6.9</v>
       </c>
       <c r="G24" s="2">
-        <v>7.804571553674258</v>
+        <v>7.8045715536742577</v>
       </c>
       <c r="H24" s="2">
-        <v>7.157506063187061</v>
+        <v>7.1575060631870606</v>
       </c>
       <c r="I24" s="2">
-        <v>6.897734593946369</v>
+        <v>6.8977345939463692</v>
       </c>
       <c r="J24" s="2">
         <v>6.2453964022497255</v>
@@ -6597,42 +7548,42 @@
         <v>5.9</v>
       </c>
       <c r="L24" s="2">
-        <v>9.909345592664618</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>9.9093455926646179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>8.3143730153881</v>
+        <v>8.3143730153880995</v>
       </c>
       <c r="B25" s="2">
         <v>6.3</v>
       </c>
       <c r="C25" s="2">
-        <v>8.927970664232102</v>
+        <v>8.9279706642321024</v>
       </c>
       <c r="D25" s="2">
-        <v>9.12220023879359</v>
+        <v>9.1222002387935905</v>
       </c>
       <c r="E25" s="2">
         <v>6.88</v>
       </c>
       <c r="F25" s="2">
-        <v>5.924232682732652</v>
+        <v>5.9242326827326517</v>
       </c>
       <c r="G25" s="2">
         <v>6.704717056439474</v>
       </c>
       <c r="H25" s="2">
-        <v>7.784830799438552</v>
+        <v>7.7848307994385522</v>
       </c>
       <c r="I25" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J25" s="2">
-        <v>7.077585461363255</v>
+        <v>7.0775854613632552</v>
       </c>
       <c r="K25" s="2">
-        <v>7.467613601664505</v>
+        <v>7.4676136016645049</v>
       </c>
       <c r="L25" s="2">
         <v>8.23</v>
@@ -6644,7 +7595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -6654,21 +7605,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6706,7 +7646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5.6</v>
       </c>
@@ -6744,12 +7684,12 @@
         <v>6.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>5.4</v>
       </c>
       <c r="B3" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C3" s="2">
         <v>6.7</v>
@@ -6782,7 +7722,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5.2</v>
       </c>
@@ -6796,7 +7736,7 @@
         <v>6.5</v>
       </c>
       <c r="E4" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F4" s="2">
         <v>6.8</v>
@@ -6814,13 +7754,13 @@
         <v>5.3</v>
       </c>
       <c r="K4" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L4" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5.7</v>
       </c>
@@ -6852,18 +7792,18 @@
         <v>5.5</v>
       </c>
       <c r="K5" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L5" s="2">
         <v>6.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5.6</v>
       </c>
       <c r="B6" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C6" s="2">
         <v>6.5</v>
@@ -6887,7 +7827,7 @@
         <v>6.2</v>
       </c>
       <c r="J6" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K6" s="2">
         <v>5.6</v>
@@ -6896,7 +7836,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5.3</v>
       </c>
@@ -6934,7 +7874,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -6972,12 +7912,12 @@
         <v>6.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5.2</v>
       </c>
       <c r="B9" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C9" s="2">
         <v>6.6</v>
@@ -7010,7 +7950,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5.3</v>
       </c>
@@ -7042,18 +7982,18 @@
         <v>5.5</v>
       </c>
       <c r="K10" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L10" s="2">
         <v>5.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5.9</v>
       </c>
       <c r="B11" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C11" s="2">
         <v>6.7</v>
@@ -7086,45 +8026,45 @@
         <v>7.1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5.52</v>
       </c>
       <c r="B12" s="2">
-        <v>4.790000000000001</v>
+        <v>4.7900000000000009</v>
       </c>
       <c r="C12" s="2">
-        <v>6.709999999999999</v>
+        <v>6.7099999999999991</v>
       </c>
       <c r="D12" s="2">
-        <v>6.890000000000001</v>
+        <v>6.8900000000000006</v>
       </c>
       <c r="E12" s="2">
-        <v>5.470000000000001</v>
+        <v>5.4700000000000006</v>
       </c>
       <c r="F12" s="2">
-        <v>6.470000000000001</v>
+        <v>6.4700000000000006</v>
       </c>
       <c r="G12" s="2">
-        <v>5.430000000000001</v>
+        <v>5.4300000000000006</v>
       </c>
       <c r="H12" s="2">
-        <v>6.119999999999999</v>
+        <v>6.1199999999999992</v>
       </c>
       <c r="I12" s="2">
         <v>5.91</v>
       </c>
       <c r="J12" s="2">
-        <v>5.609999999999999</v>
+        <v>5.6099999999999994</v>
       </c>
       <c r="K12" s="2">
-        <v>5.529999999999999</v>
+        <v>5.5299999999999994</v>
       </c>
       <c r="L12" s="2">
-        <v>6.390000000000001</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>6.3900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5.3774288016480645</v>
       </c>
@@ -7135,112 +8075,112 @@
         <v>5.64</v>
       </c>
       <c r="D13" s="2">
-        <v>7.162645346016722</v>
+        <v>7.1626453460167223</v>
       </c>
       <c r="E13" s="2">
-        <v>4.616525422617952</v>
+        <v>4.6165254226179524</v>
       </c>
       <c r="F13" s="2">
-        <v>6.309547084214204</v>
+        <v>6.3095470842142038</v>
       </c>
       <c r="G13" s="2">
-        <v>5.14376082681342</v>
+        <v>5.1437608268134198</v>
       </c>
       <c r="H13" s="2">
         <v>6.5030362671710975</v>
       </c>
       <c r="I13" s="2">
-        <v>4.630597338410783</v>
+        <v>4.6305973384107828</v>
       </c>
       <c r="J13" s="2">
-        <v>5.375230182427922</v>
+        <v>5.3752301824279218</v>
       </c>
       <c r="K13" s="2">
         <v>6.1716586415429395</v>
       </c>
       <c r="L13" s="2">
-        <v>7.231859555495246</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>7.2318595554952463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>5.560567634145587</v>
+        <v>5.5605676341455874</v>
       </c>
       <c r="B14" s="2">
-        <v>3.659465895239965</v>
+        <v>3.6594658952399648</v>
       </c>
       <c r="C14" s="2">
         <v>7.44</v>
       </c>
       <c r="D14" s="2">
-        <v>6.016228082635305</v>
+        <v>6.0162280826353047</v>
       </c>
       <c r="E14" s="2">
-        <v>4.116010101074134</v>
+        <v>4.1160101010741341</v>
       </c>
       <c r="F14" s="2">
-        <v>7.527731397927155</v>
+        <v>7.5277313979271554</v>
       </c>
       <c r="G14" s="2">
-        <v>5.059247365206989</v>
+        <v>5.0592473652069891</v>
       </c>
       <c r="H14" s="2">
-        <v>6.103980739710433</v>
+        <v>6.1039807397104333</v>
       </c>
       <c r="I14" s="2">
-        <v>7.306750174983759</v>
+        <v>7.3067501749837591</v>
       </c>
       <c r="J14" s="2">
-        <v>5.624374838168295</v>
+        <v>5.6243748381682952</v>
       </c>
       <c r="K14" s="2">
-        <v>6.332710480382374</v>
+        <v>6.3327104803823744</v>
       </c>
       <c r="L14" s="2">
-        <v>8.03126283035563</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>8.0312628303556295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>6.138852577930679</v>
+        <v>6.1388525779306793</v>
       </c>
       <c r="B15" s="2">
-        <v>5.37103884345521</v>
+        <v>5.3710388434552101</v>
       </c>
       <c r="C15" s="2">
         <v>5.76</v>
       </c>
       <c r="D15" s="2">
-        <v>7.706570470293208</v>
+        <v>7.7065704702932081</v>
       </c>
       <c r="E15" s="2">
-        <v>4.287955683215489</v>
+        <v>4.2879556832154888</v>
       </c>
       <c r="F15" s="2">
-        <v>6.322624987370721</v>
+        <v>6.3226249873707214</v>
       </c>
       <c r="G15" s="2">
-        <v>5.94430512361283</v>
+        <v>5.9443051236128301</v>
       </c>
       <c r="H15" s="2">
-        <v>6.874297482949087</v>
+        <v>6.8742974829490873</v>
       </c>
       <c r="I15" s="2">
-        <v>7.102473677894812</v>
+        <v>7.1024736778948121</v>
       </c>
       <c r="J15" s="2">
-        <v>5.87778424961023</v>
+        <v>5.8777842496102304</v>
       </c>
       <c r="K15" s="2">
         <v>4.7927091995551985</v>
       </c>
       <c r="L15" s="2">
-        <v>5.208880893846525</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>5.2088808938465254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>4.994687373285935</v>
+        <v>4.9946873732859354</v>
       </c>
       <c r="B16" s="2">
         <v>3.2980367710836336</v>
@@ -7249,10 +8189,10 @@
         <v>7.79</v>
       </c>
       <c r="D16" s="2">
-        <v>6.197670361252222</v>
+        <v>6.1976703612522224</v>
       </c>
       <c r="E16" s="2">
-        <v>6.148324216682205</v>
+        <v>6.1483242166822052</v>
       </c>
       <c r="F16" s="2">
         <v>7.824000027180948</v>
@@ -7261,86 +8201,86 @@
         <v>5.8726673814319135</v>
       </c>
       <c r="H16" s="2">
-        <v>6.548606978505581</v>
+        <v>6.5486069785055809</v>
       </c>
       <c r="I16" s="2">
-        <v>6.590535873593174</v>
+        <v>6.5905358735931738</v>
       </c>
       <c r="J16" s="2">
         <v>5.046042559119881</v>
       </c>
       <c r="K16" s="2">
-        <v>4.967029554096603</v>
+        <v>4.9670295540966034</v>
       </c>
       <c r="L16" s="2">
-        <v>5.373321696305931</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>5.3733216963059309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>4.645583589079133</v>
+        <v>4.6455835890791333</v>
       </c>
       <c r="B17" s="2">
-        <v>4.060424168509613</v>
+        <v>4.0604241685096127</v>
       </c>
       <c r="C17" s="2">
-        <v>7.100039014610002</v>
+        <v>7.1000390146100019</v>
       </c>
       <c r="D17" s="2">
-        <v>6.853111983752575</v>
+        <v>6.8531119837525747</v>
       </c>
       <c r="E17" s="2">
-        <v>3.775240307191065</v>
+        <v>3.7752403071910652</v>
       </c>
       <c r="F17" s="2">
-        <v>8.332383652476919</v>
+        <v>8.3323836524769188</v>
       </c>
       <c r="G17" s="2">
-        <v>6.188160258850426</v>
+        <v>6.1881602588504263</v>
       </c>
       <c r="H17" s="2">
         <v>7.18</v>
       </c>
       <c r="I17" s="2">
-        <v>7.358931178751492</v>
+        <v>7.3589311787514919</v>
       </c>
       <c r="J17" s="2">
-        <v>5.278170846982637</v>
+        <v>5.2781708469826372</v>
       </c>
       <c r="K17" s="2">
-        <v>6.019344324471217</v>
+        <v>6.0193443244712173</v>
       </c>
       <c r="L17" s="2">
-        <v>4.611905441440637</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>4.6119054414406371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6.2248476811719105</v>
       </c>
       <c r="B18" s="2">
-        <v>4.250033881847351</v>
+        <v>4.2500338818473509</v>
       </c>
       <c r="C18" s="2">
         <v>5.83</v>
       </c>
       <c r="D18" s="2">
-        <v>7.401954403635077</v>
+        <v>7.4019544036350773</v>
       </c>
       <c r="E18" s="2">
         <v>6.95</v>
       </c>
       <c r="F18" s="2">
-        <v>8.043911156645473</v>
+        <v>8.0439111566454731</v>
       </c>
       <c r="G18" s="2">
-        <v>6.344333103181292</v>
+        <v>6.3443331031812917</v>
       </c>
       <c r="H18" s="2">
         <v>6.1765083026071235</v>
       </c>
       <c r="I18" s="2">
-        <v>6.273501461102041</v>
+        <v>6.2735014611020414</v>
       </c>
       <c r="J18" s="2">
         <v>4.592280461018424</v>
@@ -7349,12 +8289,12 @@
         <v>5.86579405668836</v>
       </c>
       <c r="L18" s="2">
-        <v>6.267227616348494</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>6.2672276163484941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>5.375993277989558</v>
+        <v>5.3759932779895578</v>
       </c>
       <c r="B19" s="2">
         <v>3.9079815259252166</v>
@@ -7369,7 +8309,7 @@
         <v>4.7113539937387765</v>
       </c>
       <c r="F19" s="2">
-        <v>5.314206124073012</v>
+        <v>5.3142061240730118</v>
       </c>
       <c r="G19" s="2">
         <v>5.9269425158126054</v>
@@ -7378,19 +8318,19 @@
         <v>5.4811894197683015</v>
       </c>
       <c r="I19" s="2">
-        <v>5.605385057326984</v>
+        <v>5.6053850573269841</v>
       </c>
       <c r="J19" s="2">
-        <v>4.798385877975789</v>
+        <v>4.7983858779757886</v>
       </c>
       <c r="K19" s="2">
-        <v>5.992084698961704</v>
+        <v>5.9920846989617038</v>
       </c>
       <c r="L19" s="2">
-        <v>7.505504134928156</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>7.5055041349281559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4.577008529851776</v>
       </c>
@@ -7398,39 +8338,39 @@
         <v>2.9765123303912953</v>
       </c>
       <c r="C20" s="2">
-        <v>7.265370395353134</v>
+        <v>7.2653703953531341</v>
       </c>
       <c r="D20" s="2">
-        <v>6.425152426356935</v>
+        <v>6.4251524263569353</v>
       </c>
       <c r="E20" s="2">
-        <v>5.482302623864714</v>
+        <v>5.4823026238647143</v>
       </c>
       <c r="F20" s="2">
-        <v>5.742968699370305</v>
+        <v>5.7429686993703051</v>
       </c>
       <c r="G20" s="2">
-        <v>5.499640128993797</v>
+        <v>5.4996401289937973</v>
       </c>
       <c r="H20" s="2">
-        <v>6.565384560188054</v>
+        <v>6.5653845601880541</v>
       </c>
       <c r="I20" s="2">
-        <v>4.474036303490072</v>
+        <v>4.4740363034900721</v>
       </c>
       <c r="J20" s="2">
         <v>5.0382312527646596</v>
       </c>
       <c r="K20" s="2">
-        <v>5.259233109149937</v>
+        <v>5.2592331091499371</v>
       </c>
       <c r="L20" s="2">
-        <v>7.456787369978434</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>7.4567873699784339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>6.057257871237359</v>
+        <v>6.0572578712373586</v>
       </c>
       <c r="B21" s="2">
         <v>3.948617134344985</v>
@@ -7439,72 +8379,72 @@
         <v>7.97</v>
       </c>
       <c r="D21" s="2">
-        <v>7.10456166004229</v>
+        <v>7.1045616600422896</v>
       </c>
       <c r="E21" s="2">
         <v>6.96</v>
       </c>
       <c r="F21" s="2">
-        <v>7.812539270739903</v>
+        <v>7.8125392707399026</v>
       </c>
       <c r="G21" s="2">
-        <v>5.887638520859897</v>
+        <v>5.8876385208598974</v>
       </c>
       <c r="H21" s="2">
         <v>6.98</v>
       </c>
       <c r="I21" s="2">
-        <v>5.571728323844184</v>
+        <v>5.5717283238441837</v>
       </c>
       <c r="J21" s="2">
-        <v>4.855018069021192</v>
+        <v>4.8550180690211917</v>
       </c>
       <c r="K21" s="2">
-        <v>5.83142882451371</v>
+        <v>5.8314288245137096</v>
       </c>
       <c r="L21" s="2">
-        <v>5.955022538841728</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>5.9550225388417282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>6.082686342291013</v>
+        <v>6.0826863422910131</v>
       </c>
       <c r="B22" s="2">
         <v>3.5126535396358167</v>
       </c>
       <c r="C22" s="2">
-        <v>7.920544227135794</v>
+        <v>7.9205442271357942</v>
       </c>
       <c r="D22" s="2">
-        <v>5.923820960165378</v>
+        <v>5.9238209601653784</v>
       </c>
       <c r="E22" s="2">
         <v>6.71</v>
       </c>
       <c r="F22" s="2">
-        <v>7.541218176664707</v>
+        <v>7.5412181766647066</v>
       </c>
       <c r="G22" s="2">
-        <v>4.958915359461168</v>
+        <v>4.9589153594611677</v>
       </c>
       <c r="H22" s="2">
         <v>5.47</v>
       </c>
       <c r="I22" s="2">
-        <v>7.347194391540178</v>
+        <v>7.3471943915401781</v>
       </c>
       <c r="J22" s="2">
-        <v>6.235603049578185</v>
+        <v>6.2356030495781853</v>
       </c>
       <c r="K22" s="2">
-        <v>5.958899373976839</v>
+        <v>5.9588993739768394</v>
       </c>
       <c r="L22" s="2">
-        <v>4.824461647598058</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <v>4.8244616475980582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5.5</v>
       </c>
@@ -7524,7 +8464,7 @@
         <v>7.8</v>
       </c>
       <c r="G23" s="2">
-        <v>5.682561058422434</v>
+        <v>5.6825610584224338</v>
       </c>
       <c r="H23" s="2">
         <v>6.41</v>
@@ -7542,7 +8482,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4.733873652226416</v>
       </c>
@@ -7553,39 +8493,39 @@
         <v>5.78</v>
       </c>
       <c r="D24" s="2">
-        <v>6.555294665791365</v>
+        <v>6.5552946657913651</v>
       </c>
       <c r="E24" s="2">
-        <v>5.174566822038111</v>
+        <v>5.1745668220381109</v>
       </c>
       <c r="F24" s="2">
-        <v>5.655966235815601</v>
+        <v>5.6559662358156011</v>
       </c>
       <c r="G24" s="2">
         <v>4.9256731145477275</v>
       </c>
       <c r="H24" s="2">
-        <v>6.529848377884271</v>
+        <v>6.5298483778842709</v>
       </c>
       <c r="I24" s="2">
-        <v>7.174511931736857</v>
+        <v>7.1745119317368573</v>
       </c>
       <c r="J24" s="2">
-        <v>6.181113397403163</v>
+        <v>6.1811133974031627</v>
       </c>
       <c r="K24" s="2">
-        <v>5.539488736150949</v>
+        <v>5.5394887361509486</v>
       </c>
       <c r="L24" s="2">
-        <v>6.954620159248022</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>6.9546201592480221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>5.037912241141281</v>
+        <v>5.0379122411412807</v>
       </c>
       <c r="B25" s="2">
-        <v>5.119324197682639</v>
+        <v>5.1193241976826389</v>
       </c>
       <c r="C25" s="2">
         <v>7.54</v>
@@ -7594,28 +8534,28 @@
         <v>7.603840930926129</v>
       </c>
       <c r="E25" s="2">
-        <v>3.88047407499454</v>
+        <v>3.8804740749945399</v>
       </c>
       <c r="F25" s="2">
-        <v>6.514844084493875</v>
+        <v>6.5148440844938751</v>
       </c>
       <c r="G25" s="2">
-        <v>5.239035173771401</v>
+        <v>5.2390351737714012</v>
       </c>
       <c r="H25" s="2">
-        <v>7.04563149065519</v>
+        <v>7.0456314906551896</v>
       </c>
       <c r="I25" s="2">
         <v>6.858558040491106</v>
       </c>
       <c r="J25" s="2">
-        <v>5.34720246206906</v>
+        <v>5.3472024620690597</v>
       </c>
       <c r="K25" s="2">
-        <v>5.363163650806124</v>
+        <v>5.3631636508061238</v>
       </c>
       <c r="L25" s="2">
-        <v>7.072515573837589</v>
+        <v>7.0725155738375891</v>
       </c>
     </row>
   </sheetData>
@@ -7624,7 +8564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -7634,21 +8574,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7686,9 +8615,9 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B2" s="2">
         <v>4.3</v>
@@ -7715,16 +8644,16 @@
         <v>5.2</v>
       </c>
       <c r="J2" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K2" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L2" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4.2</v>
       </c>
@@ -7744,13 +8673,13 @@
         <v>3.9</v>
       </c>
       <c r="G3" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H3" s="2">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="I3" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J3" s="2">
         <v>5</v>
@@ -7762,12 +8691,12 @@
         <v>6.2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4.5</v>
       </c>
       <c r="B4" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C4" s="2">
         <v>5.9</v>
@@ -7782,13 +8711,13 @@
         <v>3.7</v>
       </c>
       <c r="G4" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H4" s="2">
         <v>5.37</v>
       </c>
       <c r="I4" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J4" s="2">
         <v>4.3</v>
@@ -7800,12 +8729,12 @@
         <v>5.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B5" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C5" s="2">
         <v>5.3</v>
@@ -7829,7 +8758,7 @@
         <v>4.8</v>
       </c>
       <c r="J5" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K5" s="2">
         <v>4.8</v>
@@ -7838,7 +8767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4.7</v>
       </c>
@@ -7849,7 +8778,7 @@
         <v>5.5</v>
       </c>
       <c r="D6" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E6" s="2">
         <v>4.5</v>
@@ -7858,7 +8787,7 @@
         <v>3.4</v>
       </c>
       <c r="G6" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H6" s="2">
         <v>5.17</v>
@@ -7867,18 +8796,18 @@
         <v>4.7</v>
       </c>
       <c r="J6" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K6" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L6" s="2">
         <v>5.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B7" s="2">
         <v>4.5</v>
@@ -7887,7 +8816,7 @@
         <v>5.7</v>
       </c>
       <c r="D7" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>
@@ -7905,7 +8834,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K7" s="2">
         <v>4.7</v>
@@ -7914,7 +8843,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -7937,7 +8866,7 @@
         <v>4.3</v>
       </c>
       <c r="H8" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I8" s="2">
         <v>4.7</v>
@@ -7952,12 +8881,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5.2</v>
       </c>
       <c r="B9" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C9" s="2">
         <v>5.5</v>
@@ -7966,7 +8895,7 @@
         <v>6.1</v>
       </c>
       <c r="E9" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -7981,7 +8910,7 @@
         <v>4.7</v>
       </c>
       <c r="J9" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K9" s="2">
         <v>5.3</v>
@@ -7990,9 +8919,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B10" s="2">
         <v>3.9</v>
@@ -8013,13 +8942,13 @@
         <v>4.2</v>
       </c>
       <c r="H10" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I10" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J10" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K10" s="2">
         <v>4.8</v>
@@ -8028,36 +8957,36 @@
         <v>5.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B11" s="2">
         <v>4.3</v>
       </c>
       <c r="C11" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D11" s="2">
         <v>7.2</v>
       </c>
       <c r="E11" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F11" s="2">
         <v>4.7</v>
       </c>
       <c r="G11" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H11" s="2">
         <v>4.78</v>
       </c>
       <c r="I11" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J11" s="2">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K11" s="2">
         <v>4.8</v>
@@ -8066,21 +8995,21 @@
         <v>5.6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>4.630000000000001</v>
+        <v>4.6300000000000008</v>
       </c>
       <c r="B12" s="2">
-        <v>4.369999999999999</v>
+        <v>4.3699999999999992</v>
       </c>
       <c r="C12" s="2">
-        <v>5.470000000000001</v>
+        <v>5.4700000000000006</v>
       </c>
       <c r="D12" s="2">
-        <v>5.770000000000001</v>
+        <v>5.7700000000000014</v>
       </c>
       <c r="E12" s="2">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F12" s="2">
         <v>4.12</v>
@@ -8095,7 +9024,7 @@
         <v>4.76</v>
       </c>
       <c r="J12" s="2">
-        <v>4.619999999999999</v>
+        <v>4.6199999999999992</v>
       </c>
       <c r="K12" s="2">
         <v>4.8199999999999985</v>
@@ -8104,132 +9033,132 @@
         <v>5.92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>4.632027664655275</v>
+        <v>4.6320276646552747</v>
       </c>
       <c r="B13" s="2">
         <v>4.447785774222397</v>
       </c>
       <c r="C13" s="2">
-        <v>5.454091201721779</v>
+        <v>5.4540912017217789</v>
       </c>
       <c r="D13" s="2">
-        <v>6.325284214935808</v>
+        <v>6.3252842149358077</v>
       </c>
       <c r="E13" s="2">
-        <v>4.191118453620859</v>
+        <v>4.1911184536208594</v>
       </c>
       <c r="F13" s="2">
-        <v>3.707286902018409</v>
+        <v>3.7072869020184092</v>
       </c>
       <c r="G13" s="2">
-        <v>3.425559785529921</v>
+        <v>3.4255597855299209</v>
       </c>
       <c r="H13" s="2">
-        <v>5.792124880315114</v>
+        <v>5.7921248803151144</v>
       </c>
       <c r="I13" s="2">
-        <v>4.379707500111423</v>
+        <v>4.3797075001114232</v>
       </c>
       <c r="J13" s="2">
-        <v>3.857067265036383</v>
+        <v>3.8570672650363829</v>
       </c>
       <c r="K13" s="2">
-        <v>4.967028291364204</v>
+        <v>4.9670282913642039</v>
       </c>
       <c r="L13" s="2">
-        <v>5.159869663590648</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>5.1598696635906478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>5.499590929878129</v>
+        <v>5.4995909298781287</v>
       </c>
       <c r="B14" s="2">
         <v>3.6</v>
       </c>
       <c r="C14" s="2">
-        <v>6.443437328093504</v>
+        <v>6.4434373280935038</v>
       </c>
       <c r="D14" s="2">
-        <v>5.359967739870757</v>
+        <v>5.3599677398707568</v>
       </c>
       <c r="E14" s="2">
-        <v>4.084586065806284</v>
+        <v>4.0845860658062838</v>
       </c>
       <c r="F14" s="2">
         <v>4.6711338836395155</v>
       </c>
       <c r="G14" s="2">
-        <v>4.174939010275033</v>
+        <v>4.1749390102750326</v>
       </c>
       <c r="H14" s="2">
-        <v>4.591415630319911</v>
+        <v>4.5914156303199114</v>
       </c>
       <c r="I14" s="2">
-        <v>5.341586498587837</v>
+        <v>5.3415864985878372</v>
       </c>
       <c r="J14" s="2">
-        <v>5.184650798728503</v>
+        <v>5.1846507987285033</v>
       </c>
       <c r="K14" s="2">
-        <v>4.008592947596055</v>
+        <v>4.0085929475960551</v>
       </c>
       <c r="L14" s="2">
-        <v>6.895211436504665</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>6.8952114365046651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>5.000982443944365</v>
+        <v>5.0009824439443653</v>
       </c>
       <c r="B15" s="2">
-        <v>4.233273724665574</v>
+        <v>4.2332737246655743</v>
       </c>
       <c r="C15" s="2">
-        <v>4.670737511467019</v>
+        <v>4.6707375114670189</v>
       </c>
       <c r="D15" s="2">
-        <v>5.952069864996537</v>
+        <v>5.9520698649965373</v>
       </c>
       <c r="E15" s="2">
         <v>3.8731041895140796</v>
       </c>
       <c r="F15" s="2">
-        <v>4.030427833025282</v>
+        <v>4.0304278330252821</v>
       </c>
       <c r="G15" s="2">
-        <v>4.205803338118182</v>
+        <v>4.2058033381181819</v>
       </c>
       <c r="H15" s="2">
         <v>5.4371625045106144</v>
       </c>
       <c r="I15" s="2">
-        <v>4.07969467589817</v>
+        <v>4.0796946758981703</v>
       </c>
       <c r="J15" s="2">
-        <v>4.754909715365695</v>
+        <v>4.7549097153656952</v>
       </c>
       <c r="K15" s="2">
-        <v>5.388471028724578</v>
+        <v>5.3884710287245783</v>
       </c>
       <c r="L15" s="2">
-        <v>6.839561088470369</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>6.8395610884703686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>4.6506744836276175</v>
       </c>
       <c r="B16" s="2">
-        <v>4.756251408789568</v>
+        <v>4.7562514087895682</v>
       </c>
       <c r="C16" s="2">
-        <v>4.60255932262045</v>
+        <v>4.6025593226204498</v>
       </c>
       <c r="D16" s="2">
-        <v>5.871914014756559</v>
+        <v>5.8719140147565589</v>
       </c>
       <c r="E16" s="2">
         <v>5.7889486526185046</v>
@@ -8238,267 +9167,267 @@
         <v>4.873353125030996</v>
       </c>
       <c r="G16" s="2">
-        <v>4.002927488839831</v>
+        <v>4.0029274888398314</v>
       </c>
       <c r="H16" s="2">
-        <v>4.329298748009734</v>
+        <v>4.3292987480097338</v>
       </c>
       <c r="I16" s="2">
-        <v>3.784518979657144</v>
+        <v>3.7845189796571441</v>
       </c>
       <c r="J16" s="2">
-        <v>3.741524634109515</v>
+        <v>3.7415246341095152</v>
       </c>
       <c r="K16" s="2">
-        <v>5.036282884281874</v>
+        <v>5.0362828842818743</v>
       </c>
       <c r="L16" s="2">
-        <v>5.379824557505501</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>5.3798245575055006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>4.955197613616079</v>
+        <v>4.9551976136160789</v>
       </c>
       <c r="B17" s="2">
-        <v>3.676495788186224</v>
+        <v>3.6764957881862239</v>
       </c>
       <c r="C17" s="2">
-        <v>4.693579367119749</v>
+        <v>4.6935793671197494</v>
       </c>
       <c r="D17" s="2">
-        <v>5.175256632887846</v>
+        <v>5.1752566328878462</v>
       </c>
       <c r="E17" s="2">
-        <v>5.638479361853551</v>
+        <v>5.6384793618535509</v>
       </c>
       <c r="F17" s="2">
-        <v>4.507505220138534</v>
+        <v>4.5075052201385342</v>
       </c>
       <c r="G17" s="2">
         <v>3.8800780710663894</v>
       </c>
       <c r="H17" s="2">
-        <v>5.873405084717442</v>
+        <v>5.8734050847174419</v>
       </c>
       <c r="I17" s="2">
         <v>3.7792990291884276</v>
       </c>
       <c r="J17" s="2">
-        <v>4.045536567150884</v>
+        <v>4.0455365671508838</v>
       </c>
       <c r="K17" s="2">
         <v>4.4004034955363185</v>
       </c>
       <c r="L17" s="2">
-        <v>6.688679348957774</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>6.6886793489577743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>3.726665692723545</v>
+        <v>3.7266656927235449</v>
       </c>
       <c r="B18" s="2">
-        <v>4.469622278149164</v>
+        <v>4.4696222781491644</v>
       </c>
       <c r="C18" s="2">
-        <v>5.630731062640621</v>
+        <v>5.6307310626406206</v>
       </c>
       <c r="D18" s="2">
         <v>5.5206724781643715</v>
       </c>
       <c r="E18" s="2">
-        <v>5.223139736290266</v>
+        <v>5.2231397362902658</v>
       </c>
       <c r="F18" s="2">
         <v>3.8771510735993555</v>
       </c>
       <c r="G18" s="2">
-        <v>3.454692298188929</v>
+        <v>3.4546922981889292</v>
       </c>
       <c r="H18" s="2">
-        <v>4.355575600900927</v>
+        <v>4.3555756009009272</v>
       </c>
       <c r="I18" s="2">
-        <v>4.533839624469009</v>
+        <v>4.5338396244690093</v>
       </c>
       <c r="J18" s="2">
-        <v>5.169062079880875</v>
+        <v>5.1690620798808746</v>
       </c>
       <c r="K18" s="2">
-        <v>5.582294082150225</v>
+        <v>5.5822940821502254</v>
       </c>
       <c r="L18" s="2">
-        <v>5.012379810238686</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>5.0123798102386861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>5.181423116259525</v>
+        <v>5.1814231162595252</v>
       </c>
       <c r="B19" s="2">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="C19" s="2">
-        <v>4.742128356464624</v>
+        <v>4.7421283564646242</v>
       </c>
       <c r="D19" s="2">
-        <v>5.453086228535662</v>
+        <v>5.4530862285356623</v>
       </c>
       <c r="E19" s="2">
-        <v>5.845492785123302</v>
+        <v>5.8454927851233016</v>
       </c>
       <c r="F19" s="2">
-        <v>4.499272339743091</v>
+        <v>4.4992723397430909</v>
       </c>
       <c r="G19" s="2">
-        <v>4.232663454059743</v>
+        <v>4.2326634540597432</v>
       </c>
       <c r="H19" s="2">
-        <v>4.38708292075901</v>
+        <v>4.3870829207590099</v>
       </c>
       <c r="I19" s="2">
         <v>4.704137728301137</v>
       </c>
       <c r="J19" s="2">
-        <v>4.016501282582431</v>
+        <v>4.0165012825824311</v>
       </c>
       <c r="K19" s="2">
         <v>5.4966893503249965</v>
       </c>
       <c r="L19" s="2">
-        <v>6.468609563163565</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>6.4686095631635654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>5.015196657477552</v>
+        <v>5.0151966574775519</v>
       </c>
       <c r="B20" s="2">
         <v>3.9135940886870815</v>
       </c>
       <c r="C20" s="2">
-        <v>4.732355058353011</v>
+        <v>4.7323550583530114</v>
       </c>
       <c r="D20" s="2">
-        <v>5.127050957355842</v>
+        <v>5.1270509573558423</v>
       </c>
       <c r="E20" s="2">
-        <v>4.998426554508235</v>
+        <v>4.9984265545082351</v>
       </c>
       <c r="F20" s="2">
-        <v>3.879675079135363</v>
+        <v>3.8796750791353629</v>
       </c>
       <c r="G20" s="2">
-        <v>4.724073632881841</v>
+        <v>4.7240736328818409</v>
       </c>
       <c r="H20" s="2">
-        <v>5.796288227471609</v>
+        <v>5.7962882274716092</v>
       </c>
       <c r="I20" s="2">
-        <v>4.550607604418786</v>
+        <v>4.5506076044187864</v>
       </c>
       <c r="J20" s="2">
-        <v>4.54763673291974</v>
+        <v>4.5476367329197398</v>
       </c>
       <c r="K20" s="2">
-        <v>5.009455118161805</v>
+        <v>5.0094551181618048</v>
       </c>
       <c r="L20" s="2">
-        <v>6.274021703746648</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <v>6.2740217037466479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>3.949901458571441</v>
+        <v>3.9499014585714409</v>
       </c>
       <c r="B21" s="2">
         <v>3.5776055502804214</v>
       </c>
       <c r="C21" s="2">
-        <v>5.873198159722911</v>
+        <v>5.8731981597229108</v>
       </c>
       <c r="D21" s="2">
-        <v>6.559629752708849</v>
+        <v>6.5596297527088492</v>
       </c>
       <c r="E21" s="2">
-        <v>5.833412032524667</v>
+        <v>5.8334120325246666</v>
       </c>
       <c r="F21" s="2">
-        <v>4.83118703249397</v>
+        <v>4.8311870324939701</v>
       </c>
       <c r="G21" s="2">
-        <v>3.674129205291708</v>
+        <v>3.6741292052917078</v>
       </c>
       <c r="H21" s="2">
         <v>5.3619087455286305</v>
       </c>
       <c r="I21" s="2">
-        <v>4.838347784709962</v>
+        <v>4.8383477847099616</v>
       </c>
       <c r="J21" s="2">
-        <v>4.848688784493341</v>
+        <v>4.8486887844933406</v>
       </c>
       <c r="K21" s="2">
-        <v>3.83673463274428</v>
+        <v>3.8367346327442799</v>
       </c>
       <c r="L21" s="2">
-        <v>6.15425042848722</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <v>6.1542504284872201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>5.559593939173585</v>
+        <v>5.5595939391735847</v>
       </c>
       <c r="B22" s="2">
-        <v>4.953150494007904</v>
+        <v>4.9531504940079039</v>
       </c>
       <c r="C22" s="2">
-        <v>5.833606047566631</v>
+        <v>5.8336060475666311</v>
       </c>
       <c r="D22" s="2">
-        <v>4.929378544218493</v>
+        <v>4.9293785442184932</v>
       </c>
       <c r="E22" s="2">
-        <v>4.022351309790209</v>
+        <v>4.0223513097902091</v>
       </c>
       <c r="F22" s="2">
-        <v>4.47921048709413</v>
+        <v>4.4792104870941296</v>
       </c>
       <c r="G22" s="2">
         <v>3.7841082576883966</v>
       </c>
       <c r="H22" s="2">
-        <v>4.858027920031219</v>
+        <v>4.8580279200312191</v>
       </c>
       <c r="I22" s="2">
         <v>3.9703521530266777</v>
       </c>
       <c r="J22" s="2">
-        <v>5.436882617061708</v>
+        <v>5.4368826170617082</v>
       </c>
       <c r="K22" s="2">
-        <v>4.338461785545714</v>
+        <v>4.3384617855457144</v>
       </c>
       <c r="L22" s="2">
         <v>5.6587391647139595</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>4.817125399992712</v>
+        <v>4.8171253999927117</v>
       </c>
       <c r="B23" s="2">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="C23" s="2">
         <v>5.26</v>
       </c>
       <c r="D23" s="2">
-        <v>5.627431042843073</v>
+        <v>5.6274310428430727</v>
       </c>
       <c r="E23" s="2">
-        <v>4.94</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F23" s="2">
         <v>4.33</v>
@@ -8510,36 +9439,36 @@
         <v>5.07</v>
       </c>
       <c r="I23" s="2">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="J23" s="2">
-        <v>4.56</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="K23" s="2">
-        <v>4.806441361643006</v>
+        <v>4.8064413616430057</v>
       </c>
       <c r="L23" s="2">
         <v>6.15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>4.946701458848691</v>
+        <v>4.9467014588486906</v>
       </c>
       <c r="B24" s="2">
         <v>3.9148850611260064</v>
       </c>
       <c r="C24" s="2">
-        <v>5.230570819144394</v>
+        <v>5.2305708191443943</v>
       </c>
       <c r="D24" s="2">
-        <v>5.14002685031329</v>
+        <v>5.1400268503132898</v>
       </c>
       <c r="E24" s="2">
         <v>5.283062531606614</v>
       </c>
       <c r="F24" s="2">
-        <v>4.412283032508285</v>
+        <v>4.4122830325082854</v>
       </c>
       <c r="G24" s="2">
         <v>3.9319973549097034</v>
@@ -8551,18 +9480,18 @@
         <v>5.29</v>
       </c>
       <c r="J24" s="2">
-        <v>4.101960373365718</v>
+        <v>4.1019603733657179</v>
       </c>
       <c r="K24" s="2">
-        <v>4.337232785128318</v>
+        <v>4.3372327851283181</v>
       </c>
       <c r="L24" s="2">
-        <v>4.987702433375735</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <v>4.9877024333757349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>4.112645965072207</v>
+        <v>4.1126459650722067</v>
       </c>
       <c r="B25" s="2">
         <v>4.78</v>
@@ -8571,10 +9500,10 @@
         <v>4.5324655250782175</v>
       </c>
       <c r="D25" s="2">
-        <v>6.677630383570433</v>
+        <v>6.6776303835704329</v>
       </c>
       <c r="E25" s="2">
-        <v>4.338350272519831</v>
+        <v>4.3383502725198309</v>
       </c>
       <c r="F25" s="2">
         <v>4.7503814547246614</v>
@@ -8589,10 +9518,10 @@
         <v>3.8762131590928783</v>
       </c>
       <c r="J25" s="2">
-        <v>4.446458595879793</v>
+        <v>4.4464585958797933</v>
       </c>
       <c r="K25" s="2">
-        <v>5.211385792867996</v>
+        <v>5.2113857928679961</v>
       </c>
       <c r="L25" s="2">
         <v>5.053462643390338</v>

--- a/R/assets/Data Boxplot.xlsx
+++ b/R/assets/Data Boxplot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Blog\Learn\R\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Learn\R\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8920C93A-3EA9-4D5B-AD36-F620FD75FC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9944F0B-ACC1-4E3B-B736-7F758534C755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -227,7 +227,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -237,17 +237,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -268,6 +262,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -583,1994 +583,1994 @@
   </sheetPr>
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="26.7109375" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="26.7109375" style="18" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="18" t="str">
+      <c r="B3" s="16" t="str">
         <f>CONCATENATE(B12,"−(",B13,")−","(",B15,")−",B14)</f>
         <v>36,77−(40,49)−(40,27)−44,25</v>
       </c>
-      <c r="C3" s="18" t="str">
+      <c r="C3" s="16" t="str">
         <f t="shared" ref="C3:M3" si="0">CONCATENATE(C12,"−(",C13,")−","(",C15,")−",C14)</f>
         <v>33,4−(36,55)−(37)−39,3</v>
       </c>
-      <c r="D3" s="18" t="str">
+      <c r="D3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>43,3−(45,54)−(45,55)−47,8</v>
       </c>
-      <c r="E3" s="18" t="str">
+      <c r="E3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>39,9−(44,49)−(44,09)−53</v>
       </c>
-      <c r="F3" s="18" t="str">
+      <c r="F3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>35,1−(38,03)−(38)−40,6</v>
       </c>
-      <c r="G3" s="18" t="str">
+      <c r="G3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>49,8−(52,82)−(52,95)−56,2</v>
       </c>
-      <c r="H3" s="18" t="str">
+      <c r="H3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>41,12−(42,73)−(42,74)−44,49</v>
       </c>
-      <c r="I3" s="18" t="str">
+      <c r="I3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>42,2−(46)−(46,35)−49,9</v>
       </c>
-      <c r="J3" s="18" t="str">
+      <c r="J3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>42,2−(44,19)−(44,1)−46,8</v>
       </c>
-      <c r="K3" s="18" t="str">
+      <c r="K3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>37,2−(39,86)−(39,55)−42,9</v>
       </c>
-      <c r="L3" s="18" t="str">
+      <c r="L3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>38,54−(40,15)−(40,09)−41,86</v>
       </c>
-      <c r="M3" s="18" t="str">
+      <c r="M3" s="16" t="str">
         <f t="shared" si="0"/>
         <v>50,6−(52,97)−(52,7)−56,3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="18" t="str">
+      <c r="B4" s="16" t="str">
         <f>CONCATENATE(B17,"−(",B18,")−","(",B20,")−",B19)</f>
         <v>7,2−(8,54)−(8,6)−9,7</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C4" s="16" t="str">
         <f t="shared" ref="C4:M4" si="1">CONCATENATE(C17,"−(",C18,")−","(",C20,")−",C19)</f>
         <v>6−(7,28)−(7,25)−8,5</v>
       </c>
-      <c r="D4" s="18" t="str">
+      <c r="D4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>8,18−(10,11)−(10,15)−12,07</v>
       </c>
-      <c r="E4" s="18" t="str">
+      <c r="E4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>8,77−(9,73)−(9,68)−10,68</v>
       </c>
-      <c r="F4" s="18" t="str">
+      <c r="F4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>6,5−(7,98)−(8,24)−8,89</v>
       </c>
-      <c r="G4" s="18" t="str">
+      <c r="G4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>7,5−(9,28)−(9,36)−11,05</v>
       </c>
-      <c r="H4" s="18" t="str">
+      <c r="H4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>7,6−(8,7)−(8,63)−9,65</v>
       </c>
-      <c r="I4" s="18" t="str">
+      <c r="I4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>8,5−(9,66)−(9,63)−10,97</v>
       </c>
-      <c r="J4" s="18" t="str">
+      <c r="J4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>7,7−(9,68)−(9,74)−11,34</v>
       </c>
-      <c r="K4" s="18" t="str">
+      <c r="K4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>6,7−(8,41)−(8,56)−10,16</v>
       </c>
-      <c r="L4" s="18" t="str">
+      <c r="L4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>6,5−(7,76)−(7,74)−8,75</v>
       </c>
-      <c r="M4" s="18" t="str">
+      <c r="M4" s="16" t="str">
         <f t="shared" si="1"/>
         <v>9,07−(10,88)−(10,79)−12,41</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="16" t="str">
         <f>CONCATENATE(B22,"−(",B23,")−","(",B25,")−",B24)</f>
         <v>5,33−(6,21)−(6,17)−7,7</v>
       </c>
-      <c r="C5" s="18" t="str">
+      <c r="C5" s="16" t="str">
         <f t="shared" ref="C5:M5" si="2">CONCATENATE(C22,"−(",C23,")−","(",C25,")−",C24)</f>
         <v>3,52−(4,48)−(4,6)−5,17</v>
       </c>
-      <c r="D5" s="18" t="str">
+      <c r="D5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>5,11−(5,95)−(5,88)−6,81</v>
       </c>
-      <c r="E5" s="18" t="str">
+      <c r="E5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>5,5−(7)−(6,98)−7,91</v>
       </c>
-      <c r="F5" s="18" t="str">
+      <c r="F5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>4,6−(5,31)−(5,35)−6,26</v>
       </c>
-      <c r="G5" s="18" t="str">
+      <c r="G5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>5,2−(5,91)−(5,95)−6,55</v>
       </c>
-      <c r="H5" s="18" t="str">
+      <c r="H5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>4,25−(5,16)−(5,11)−6,1</v>
       </c>
-      <c r="I5" s="18" t="str">
+      <c r="I5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>5,06−(5,92)−(5,86)−6,65</v>
       </c>
-      <c r="J5" s="18" t="str">
+      <c r="J5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>4,5−(5,13)−(5,05)−5,91</v>
       </c>
-      <c r="K5" s="18" t="str">
+      <c r="K5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>4,2−(5,19)−(5,2)−6,4</v>
       </c>
-      <c r="L5" s="18" t="str">
+      <c r="L5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>4,71−(5,48)−(5,42)−6,22</v>
       </c>
-      <c r="M5" s="18" t="str">
+      <c r="M5" s="16" t="str">
         <f t="shared" si="2"/>
         <v>5,97−(6,75)−(6,72)−7,62</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="str">
+      <c r="B6" s="16" t="str">
         <f>CONCATENATE(B27,"−(",B28,")−","(",B30,")−",B29)</f>
         <v>3,73−(4,71)−(4,68)−5,56</v>
       </c>
-      <c r="C6" s="18" t="str">
+      <c r="C6" s="16" t="str">
         <f t="shared" ref="C6:M6" si="3">CONCATENATE(C27,"−(",C28,")−","(",C30,")−",C29)</f>
         <v>3,58−(4,25)−(4,3)−4,95</v>
       </c>
-      <c r="D6" s="18" t="str">
+      <c r="D6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,53−(5,33)−(5,4)−6,44</v>
       </c>
-      <c r="E6" s="18" t="str">
+      <c r="E6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,7−(5,72)−(5,57)−7,2</v>
       </c>
-      <c r="F6" s="18" t="str">
+      <c r="F6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,87−(4,89)−(4,97)−5,85</v>
       </c>
-      <c r="G6" s="18" t="str">
+      <c r="G6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,3−(4,26)−(4,37)−5</v>
       </c>
-      <c r="H6" s="18" t="str">
+      <c r="H6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,43−(4,11)−(4,19)−4,8</v>
       </c>
-      <c r="I6" s="18" t="str">
+      <c r="I6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,33−(5,13)−(5,18)−5,87</v>
       </c>
-      <c r="J6" s="18" t="str">
+      <c r="J6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,78−(4,58)−(4,7)−5,34</v>
       </c>
-      <c r="K6" s="18" t="str">
+      <c r="K6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,74−(4,56)−(4,55)−5,44</v>
       </c>
-      <c r="L6" s="18" t="str">
+      <c r="L6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>3,84−(4,81)−(4,8)−5,58</v>
       </c>
-      <c r="M6" s="18" t="str">
+      <c r="M6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>4,99−(5,91)−(5,91)−6,9</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="18" t="str">
+      <c r="B7" s="16" t="str">
         <f>CONCATENATE(B32,"−(",B33,")−","(",B35,")−",B34)</f>
         <v>4,58−(5,46)−(5,45)−6,22</v>
       </c>
-      <c r="C7" s="18" t="str">
+      <c r="C7" s="16" t="str">
         <f t="shared" ref="C7:M7" si="4">CONCATENATE(C32,"−(",C33,")−","(",C35,")−",C34)</f>
         <v>2,98−(4,32)−(4,28)−5,37</v>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>5,64−(6,83)−(6,84)−7,97</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>5,92−(6,88)−(6,87)−7,71</v>
       </c>
-      <c r="F7" s="18" t="str">
+      <c r="F7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>3,78−(5,35)−(5,49)−6,96</v>
       </c>
-      <c r="G7" s="18" t="str">
+      <c r="G7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>5,31−(6,75)−(6,56)−8,33</v>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>4,8−(5,52)−(5,5)−6,34</v>
       </c>
-      <c r="I7" s="18" t="str">
+      <c r="I7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>5,47−(6,3)−(6,25)−7,18</v>
       </c>
-      <c r="J7" s="18" t="str">
+      <c r="J7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>4,47−(6,17)−(6,1)−7,36</v>
       </c>
-      <c r="K7" s="18" t="str">
+      <c r="K7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>4,59−(5,46)−(5,39)−6,3</v>
       </c>
-      <c r="L7" s="18" t="str">
+      <c r="L7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>4,6−(5,61)−(5,57)−6,9</v>
       </c>
-      <c r="M7" s="18" t="str">
+      <c r="M7" s="16" t="str">
         <f t="shared" si="4"/>
         <v>4,61−(6,38)−(6,3)−8,03</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="str">
+      <c r="B8" s="16" t="str">
         <f>CONCATENATE(B37,"−(",B38,")−","(",B40,")−",B39)</f>
         <v>3,73−(4,71)−(4,68)−5,56</v>
       </c>
-      <c r="C8" s="18" t="str">
+      <c r="C8" s="16" t="str">
         <f t="shared" ref="C8:M8" si="5">CONCATENATE(C37,"−(",C38,")−","(",C40,")−",C39)</f>
         <v>3,58−(4,25)−(4,3)−4,95</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>4,53−(5,33)−(5,4)−6,44</v>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>4,7−(5,72)−(5,57)−7,2</v>
       </c>
-      <c r="F8" s="18" t="str">
+      <c r="F8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>3,87−(4,89)−(4,97)−5,85</v>
       </c>
-      <c r="G8" s="18" t="str">
+      <c r="G8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>3,3−(4,26)−(4,37)−5</v>
       </c>
-      <c r="H8" s="18" t="str">
+      <c r="H8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>3,43−(4,11)−(4,19)−4,8</v>
       </c>
-      <c r="I8" s="18" t="str">
+      <c r="I8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>4,33−(5,13)−(5,18)−5,87</v>
       </c>
-      <c r="J8" s="18" t="str">
+      <c r="J8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>3,78−(4,58)−(4,7)−5,34</v>
       </c>
-      <c r="K8" s="18" t="str">
+      <c r="K8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>3,74−(4,56)−(4,55)−5,44</v>
       </c>
-      <c r="L8" s="18" t="str">
+      <c r="L8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>3,84−(4,81)−(4,8)−5,58</v>
       </c>
-      <c r="M8" s="18" t="str">
+      <c r="M8" s="16" t="str">
         <f t="shared" si="5"/>
         <v>4,99−(5,91)−(5,91)−6,9</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="18" t="str">
+      <c r="B11" s="16" t="str">
         <f t="shared" ref="B11:M11" si="6">B$2</f>
         <v>G11</v>
       </c>
-      <c r="C11" s="18" t="str">
+      <c r="C11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G12</v>
       </c>
-      <c r="D11" s="18" t="str">
+      <c r="D11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G13</v>
       </c>
-      <c r="E11" s="18" t="str">
+      <c r="E11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G14</v>
       </c>
-      <c r="F11" s="18" t="str">
+      <c r="F11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G15</v>
       </c>
-      <c r="G11" s="18" t="str">
+      <c r="G11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G16</v>
       </c>
-      <c r="H11" s="18" t="str">
+      <c r="H11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G17</v>
       </c>
-      <c r="I11" s="18" t="str">
+      <c r="I11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G18</v>
       </c>
-      <c r="J11" s="18" t="str">
+      <c r="J11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G19</v>
       </c>
-      <c r="K11" s="18" t="str">
+      <c r="K11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G20</v>
       </c>
-      <c r="L11" s="18" t="str">
+      <c r="L11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G32</v>
       </c>
-      <c r="M11" s="18" t="str">
+      <c r="M11" s="16" t="str">
         <f t="shared" si="6"/>
         <v>G33</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <f>ROUND(MIN(PP!A$2:A$25), 2)</f>
         <v>36.770000000000003</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="16">
         <f>ROUND(MIN(PP!B$2:B$25), 2)</f>
         <v>33.4</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <f>ROUND(MIN(PP!C$2:C$25), 2)</f>
         <v>43.3</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <f>ROUND(MIN(PP!D$2:D$25), 2)</f>
         <v>39.9</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <f>ROUND(MIN(PP!E$2:E$25), 2)</f>
         <v>35.1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <f>ROUND(MIN(PP!F$2:F$25), 2)</f>
         <v>49.8</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <f>ROUND(MIN(PP!G$2:G$25), 2)</f>
         <v>41.12</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <f>ROUND(MIN(PP!H$2:H$25), 2)</f>
         <v>42.2</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="16">
         <f>ROUND(MIN(PP!I$2:I$25), 2)</f>
         <v>42.2</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="16">
         <f>ROUND(MIN(PP!J$2:J$25), 2)</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="16">
         <f>ROUND(MIN(PP!K$2:K$25), 2)</f>
         <v>38.54</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="16">
         <f>ROUND(MIN(PP!L$2:L$25), 2)</f>
         <v>50.6</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="16">
         <f>ROUND(AVERAGE(PP!A$2:A$25), 2)</f>
         <v>40.49</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="16">
         <f>ROUND(AVERAGE(PP!B$2:B$25), 2)</f>
         <v>36.549999999999997</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <f>ROUND(AVERAGE(PP!C$2:C$25), 2)</f>
         <v>45.54</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <f>ROUND(AVERAGE(PP!D$2:D$25), 2)</f>
         <v>44.49</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <f>ROUND(AVERAGE(PP!E$2:E$25), 2)</f>
         <v>38.03</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <f>ROUND(AVERAGE(PP!F$2:F$25), 2)</f>
         <v>52.82</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <f>ROUND(AVERAGE(PP!G$2:G$25), 2)</f>
         <v>42.73</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <f>ROUND(AVERAGE(PP!H$2:H$25), 2)</f>
         <v>46</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <f>ROUND(AVERAGE(PP!I$2:I$25), 2)</f>
         <v>44.19</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="16">
         <f>ROUND(AVERAGE(PP!J$2:J$25), 2)</f>
         <v>39.86</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
         <f>ROUND(AVERAGE(PP!K$2:K$25), 2)</f>
         <v>40.15</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="16">
         <f>ROUND(AVERAGE(PP!L$2:L$25), 2)</f>
         <v>52.97</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="16">
         <f>ROUND(MAX(PP!A$2:A$25), 2)</f>
         <v>44.25</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="16">
         <f>ROUND(MAX(PP!B$2:B$25), 2)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <f>ROUND(MAX(PP!C$2:C$25), 2)</f>
         <v>47.8</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <f>ROUND(MAX(PP!D$2:D$25), 2)</f>
         <v>53</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <f>ROUND(MAX(PP!E$2:E$25), 2)</f>
         <v>40.6</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <f>ROUND(MAX(PP!F$2:F$25), 2)</f>
         <v>56.2</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="16">
         <f>ROUND(MAX(PP!G$2:G$25), 2)</f>
         <v>44.49</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="16">
         <f>ROUND(MAX(PP!H$2:H$25), 2)</f>
         <v>49.9</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="16">
         <f>ROUND(MAX(PP!I$2:I$25), 2)</f>
         <v>46.8</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="16">
         <f>ROUND(MAX(PP!J$2:J$25), 2)</f>
         <v>42.9</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="16">
         <f>ROUND(MAX(PP!K$2:K$25), 2)</f>
         <v>41.86</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="16">
         <f>ROUND(MAX(PP!L$2:L$25), 2)</f>
         <v>56.3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <f>ROUND(MEDIAN(PP!A$2:A$25), 2)</f>
         <v>40.270000000000003</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="16">
         <f>ROUND(MEDIAN(PP!B$2:B$25), 2)</f>
         <v>37</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <f>ROUND(MEDIAN(PP!C$2:C$25), 2)</f>
         <v>45.55</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <f>ROUND(MEDIAN(PP!D$2:D$25), 2)</f>
         <v>44.09</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <f>ROUND(MEDIAN(PP!E$2:E$25), 2)</f>
         <v>38</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <f>ROUND(MEDIAN(PP!F$2:F$25), 2)</f>
         <v>52.95</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <f>ROUND(MEDIAN(PP!G$2:G$25), 2)</f>
         <v>42.74</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <f>ROUND(MEDIAN(PP!H$2:H$25), 2)</f>
         <v>46.35</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <f>ROUND(MEDIAN(PP!I$2:I$25), 2)</f>
         <v>44.1</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="16">
         <f>ROUND(MEDIAN(PP!J$2:J$25), 2)</f>
         <v>39.549999999999997</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="16">
         <f>ROUND(MEDIAN(PP!K$2:K$25), 2)</f>
         <v>40.090000000000003</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="16">
         <f>ROUND(MEDIAN(PP!L$2:L$25), 2)</f>
         <v>52.7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="18" t="str">
+      <c r="B16" s="16" t="str">
         <f t="shared" ref="B16:M16" si="7">B$2</f>
         <v>G11</v>
       </c>
-      <c r="C16" s="18" t="str">
+      <c r="C16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G12</v>
       </c>
-      <c r="D16" s="18" t="str">
+      <c r="D16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G13</v>
       </c>
-      <c r="E16" s="18" t="str">
+      <c r="E16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G14</v>
       </c>
-      <c r="F16" s="18" t="str">
+      <c r="F16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G15</v>
       </c>
-      <c r="G16" s="18" t="str">
+      <c r="G16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G16</v>
       </c>
-      <c r="H16" s="18" t="str">
+      <c r="H16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G17</v>
       </c>
-      <c r="I16" s="18" t="str">
+      <c r="I16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G18</v>
       </c>
-      <c r="J16" s="18" t="str">
+      <c r="J16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G19</v>
       </c>
-      <c r="K16" s="18" t="str">
+      <c r="K16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G20</v>
       </c>
-      <c r="L16" s="18" t="str">
+      <c r="L16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G32</v>
       </c>
-      <c r="M16" s="18" t="str">
+      <c r="M16" s="16" t="str">
         <f t="shared" si="7"/>
         <v>G33</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="16">
         <f>ROUND(MIN(LP!A$2:A$25), 2)</f>
         <v>7.2</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="16">
         <f>ROUND(MIN(LP!B$2:B$25), 2)</f>
         <v>6</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <f>ROUND(MIN(LP!C$2:C$25), 2)</f>
         <v>8.18</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <f>ROUND(MIN(LP!D$2:D$25), 2)</f>
         <v>8.77</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <f>ROUND(MIN(LP!E$2:E$25), 2)</f>
         <v>6.5</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="16">
         <f>ROUND(MIN(LP!F$2:F$25), 2)</f>
         <v>7.5</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="16">
         <f>ROUND(MIN(LP!G$2:G$25), 2)</f>
         <v>7.6</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="16">
         <f>ROUND(MIN(LP!H$2:H$25), 2)</f>
         <v>8.5</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="16">
         <f>ROUND(MIN(LP!I$2:I$25), 2)</f>
         <v>7.7</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="16">
         <f>ROUND(MIN(LP!J$2:J$25), 2)</f>
         <v>6.7</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="16">
         <f>ROUND(MIN(LP!K$2:K$25), 2)</f>
         <v>6.5</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="16">
         <f>ROUND(MIN(LP!L$2:L$25), 2)</f>
         <v>9.07</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="16">
         <f>ROUND(AVERAGE(LP!A$2:A$25), 2)</f>
         <v>8.5399999999999991</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <f>ROUND(AVERAGE(LP!B$2:B$25), 2)</f>
         <v>7.28</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <f>ROUND(AVERAGE(LP!C$2:C$25), 2)</f>
         <v>10.11</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <f>ROUND(AVERAGE(LP!D$2:D$25), 2)</f>
         <v>9.73</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <f>ROUND(AVERAGE(LP!E$2:E$25), 2)</f>
         <v>7.98</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <f>ROUND(AVERAGE(LP!F$2:F$25), 2)</f>
         <v>9.2799999999999994</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="16">
         <f>ROUND(AVERAGE(LP!G$2:G$25), 2)</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="16">
         <f>ROUND(AVERAGE(LP!H$2:H$25), 2)</f>
         <v>9.66</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <f>ROUND(AVERAGE(LP!I$2:I$25), 2)</f>
         <v>9.68</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="16">
         <f>ROUND(AVERAGE(LP!J$2:J$25), 2)</f>
         <v>8.41</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="16">
         <f>ROUND(AVERAGE(LP!K$2:K$25), 2)</f>
         <v>7.76</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="16">
         <f>ROUND(AVERAGE(LP!L$2:L$25), 2)</f>
         <v>10.88</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <f>ROUND(MAX(LP!A$2:A$25), 2)</f>
         <v>9.6999999999999993</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <f>ROUND(MAX(LP!B$2:B$25), 2)</f>
         <v>8.5</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <f>ROUND(MAX(LP!C$2:C$25), 2)</f>
         <v>12.07</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <f>ROUND(MAX(LP!D$2:D$25), 2)</f>
         <v>10.68</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <f>ROUND(MAX(LP!E$2:E$25), 2)</f>
         <v>8.89</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="16">
         <f>ROUND(MAX(LP!F$2:F$25), 2)</f>
         <v>11.05</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="16">
         <f>ROUND(MAX(LP!G$2:G$25), 2)</f>
         <v>9.65</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="16">
         <f>ROUND(MAX(LP!H$2:H$25), 2)</f>
         <v>10.97</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="16">
         <f>ROUND(MAX(LP!I$2:I$25), 2)</f>
         <v>11.34</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="16">
         <f>ROUND(MAX(LP!J$2:J$25), 2)</f>
         <v>10.16</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="16">
         <f>ROUND(MAX(LP!K$2:K$25), 2)</f>
         <v>8.75</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="16">
         <f>ROUND(MAX(LP!L$2:L$25), 2)</f>
         <v>12.41</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="16">
         <f>ROUND(MEDIAN(LP!A$2:A$25), 2)</f>
         <v>8.6</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <f>ROUND(MEDIAN(LP!B$2:B$25), 2)</f>
         <v>7.25</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <f>ROUND(MEDIAN(LP!C$2:C$25), 2)</f>
         <v>10.15</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <f>ROUND(MEDIAN(LP!D$2:D$25), 2)</f>
         <v>9.68</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <f>ROUND(MEDIAN(LP!E$2:E$25), 2)</f>
         <v>8.24</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="16">
         <f>ROUND(MEDIAN(LP!F$2:F$25), 2)</f>
         <v>9.36</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="16">
         <f>ROUND(MEDIAN(LP!G$2:G$25), 2)</f>
         <v>8.6300000000000008</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="16">
         <f>ROUND(MEDIAN(LP!H$2:H$25), 2)</f>
         <v>9.6300000000000008</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="16">
         <f>ROUND(MEDIAN(LP!I$2:I$25), 2)</f>
         <v>9.74</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="16">
         <f>ROUND(MEDIAN(LP!J$2:J$25), 2)</f>
         <v>8.56</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="16">
         <f>ROUND(MEDIAN(LP!K$2:K$25), 2)</f>
         <v>7.74</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="16">
         <f>ROUND(MEDIAN(LP!L$2:L$25), 2)</f>
         <v>10.79</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="18" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" ref="B21:M21" si="8">B$2</f>
         <v>G11</v>
       </c>
-      <c r="C21" s="18" t="str">
+      <c r="C21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G12</v>
       </c>
-      <c r="D21" s="18" t="str">
+      <c r="D21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G13</v>
       </c>
-      <c r="E21" s="18" t="str">
+      <c r="E21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G14</v>
       </c>
-      <c r="F21" s="18" t="str">
+      <c r="F21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G15</v>
       </c>
-      <c r="G21" s="18" t="str">
+      <c r="G21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G16</v>
       </c>
-      <c r="H21" s="18" t="str">
+      <c r="H21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G17</v>
       </c>
-      <c r="I21" s="18" t="str">
+      <c r="I21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G18</v>
       </c>
-      <c r="J21" s="18" t="str">
+      <c r="J21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G19</v>
       </c>
-      <c r="K21" s="18" t="str">
+      <c r="K21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G20</v>
       </c>
-      <c r="L21" s="18" t="str">
+      <c r="L21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G32</v>
       </c>
-      <c r="M21" s="18" t="str">
+      <c r="M21" s="16" t="str">
         <f t="shared" si="8"/>
         <v>G33</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="16">
         <f>ROUND(MIN(TP!A$2:A$25), 2)</f>
         <v>5.33</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="16">
         <f>ROUND(MIN(TP!B$2:B$25), 2)</f>
         <v>3.52</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <f>ROUND(MIN(TP!C$2:C$25), 2)</f>
         <v>5.1100000000000003</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <f>ROUND(MIN(TP!D$2:D$25), 2)</f>
         <v>5.5</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <f>ROUND(MIN(TP!E$2:E$25), 2)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <f>ROUND(MIN(TP!F$2:F$25), 2)</f>
         <v>5.2</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="16">
         <f>ROUND(MIN(TP!G$2:G$25), 2)</f>
         <v>4.25</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <f>ROUND(MIN(TP!H$2:H$25), 2)</f>
         <v>5.0599999999999996</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <f>ROUND(MIN(TP!I$2:I$25), 2)</f>
         <v>4.5</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="16">
         <f>ROUND(MIN(TP!J$2:J$25), 2)</f>
         <v>4.2</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="16">
         <f>ROUND(MIN(TP!K$2:K$25), 2)</f>
         <v>4.71</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="16">
         <f>ROUND(MIN(TP!L$2:L$25), 2)</f>
         <v>5.97</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="16">
         <f>ROUND(AVERAGE(TP!A$2:A$25), 2)</f>
         <v>6.21</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="16">
         <f>ROUND(AVERAGE(TP!B$2:B$25), 2)</f>
         <v>4.4800000000000004</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="16">
         <f>ROUND(AVERAGE(TP!C$2:C$25), 2)</f>
         <v>5.95</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <f>ROUND(AVERAGE(TP!D$2:D$25), 2)</f>
         <v>7</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <f>ROUND(AVERAGE(TP!E$2:E$25), 2)</f>
         <v>5.31</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <f>ROUND(AVERAGE(TP!F$2:F$25), 2)</f>
         <v>5.91</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="16">
         <f>ROUND(AVERAGE(TP!G$2:G$25), 2)</f>
         <v>5.16</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="16">
         <f>ROUND(AVERAGE(TP!H$2:H$25), 2)</f>
         <v>5.92</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="16">
         <f>ROUND(AVERAGE(TP!I$2:I$25), 2)</f>
         <v>5.13</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="16">
         <f>ROUND(AVERAGE(TP!J$2:J$25), 2)</f>
         <v>5.19</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="16">
         <f>ROUND(AVERAGE(TP!K$2:K$25), 2)</f>
         <v>5.48</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="16">
         <f>ROUND(AVERAGE(TP!L$2:L$25), 2)</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="16">
         <f>ROUND(MAX(TP!A$2:A$25), 2)</f>
         <v>7.7</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="16">
         <f>ROUND(MAX(TP!B$2:B$25), 2)</f>
         <v>5.17</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="16">
         <f>ROUND(MAX(TP!C$2:C$25), 2)</f>
         <v>6.81</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <f>ROUND(MAX(TP!D$2:D$25), 2)</f>
         <v>7.91</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <f>ROUND(MAX(TP!E$2:E$25), 2)</f>
         <v>6.26</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <f>ROUND(MAX(TP!F$2:F$25), 2)</f>
         <v>6.55</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <f>ROUND(MAX(TP!G$2:G$25), 2)</f>
         <v>6.1</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <f>ROUND(MAX(TP!H$2:H$25), 2)</f>
         <v>6.65</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="16">
         <f>ROUND(MAX(TP!I$2:I$25), 2)</f>
         <v>5.91</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="16">
         <f>ROUND(MAX(TP!J$2:J$25), 2)</f>
         <v>6.4</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="16">
         <f>ROUND(MAX(TP!K$2:K$25), 2)</f>
         <v>6.22</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="16">
         <f>ROUND(MAX(TP!L$2:L$25), 2)</f>
         <v>7.62</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="16">
         <f>ROUND(MEDIAN(TP!A$2:A$25), 2)</f>
         <v>6.17</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="16">
         <f>ROUND(MEDIAN(TP!B$2:B$25), 2)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="16">
         <f>ROUND(MEDIAN(TP!C$2:C$25), 2)</f>
         <v>5.88</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="16">
         <f>ROUND(MEDIAN(TP!D$2:D$25), 2)</f>
         <v>6.98</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <f>ROUND(MEDIAN(TP!E$2:E$25), 2)</f>
         <v>5.35</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <f>ROUND(MEDIAN(TP!F$2:F$25), 2)</f>
         <v>5.95</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <f>ROUND(MEDIAN(TP!G$2:G$25), 2)</f>
         <v>5.1100000000000003</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="16">
         <f>ROUND(MEDIAN(TP!H$2:H$25), 2)</f>
         <v>5.86</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="16">
         <f>ROUND(MEDIAN(TP!I$2:I$25), 2)</f>
         <v>5.05</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="16">
         <f>ROUND(MEDIAN(TP!J$2:J$25), 2)</f>
         <v>5.2</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="16">
         <f>ROUND(MEDIAN(TP!K$2:K$25), 2)</f>
         <v>5.42</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="16">
         <f>ROUND(MEDIAN(TP!L$2:L$25), 2)</f>
         <v>6.72</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="18" t="str">
+      <c r="B26" s="16" t="str">
         <f t="shared" ref="B26:M26" si="9">B$2</f>
         <v>G11</v>
       </c>
-      <c r="C26" s="18" t="str">
+      <c r="C26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G12</v>
       </c>
-      <c r="D26" s="18" t="str">
+      <c r="D26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G13</v>
       </c>
-      <c r="E26" s="18" t="str">
+      <c r="E26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G14</v>
       </c>
-      <c r="F26" s="18" t="str">
+      <c r="F26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G15</v>
       </c>
-      <c r="G26" s="18" t="str">
+      <c r="G26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G16</v>
       </c>
-      <c r="H26" s="18" t="str">
+      <c r="H26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G17</v>
       </c>
-      <c r="I26" s="18" t="str">
+      <c r="I26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G18</v>
       </c>
-      <c r="J26" s="18" t="str">
+      <c r="J26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G19</v>
       </c>
-      <c r="K26" s="18" t="str">
+      <c r="K26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G20</v>
       </c>
-      <c r="L26" s="18" t="str">
+      <c r="L26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G32</v>
       </c>
-      <c r="M26" s="18" t="str">
+      <c r="M26" s="16" t="str">
         <f t="shared" si="9"/>
         <v>G33</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="16">
         <f>ROUND(MIN(TB!A$2:A$25), 2)</f>
         <v>3.73</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="16">
         <f>ROUND(MIN(TB!B$2:B$25), 2)</f>
         <v>3.58</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="16">
         <f>ROUND(MIN(TB!C$2:C$25), 2)</f>
         <v>4.53</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <f>ROUND(MIN(TB!D$2:D$25), 2)</f>
         <v>4.7</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <f>ROUND(MIN(TB!E$2:E$25), 2)</f>
         <v>3.87</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <f>ROUND(MIN(TB!F$2:F$25), 2)</f>
         <v>3.3</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <f>ROUND(MIN(TB!G$2:G$25), 2)</f>
         <v>3.43</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="16">
         <f>ROUND(MIN(TB!H$2:H$25), 2)</f>
         <v>4.33</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="16">
         <f>ROUND(MIN(TB!I$2:I$25), 2)</f>
         <v>3.78</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="16">
         <f>ROUND(MIN(TB!J$2:J$25), 2)</f>
         <v>3.74</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="16">
         <f>ROUND(MIN(TB!K$2:K$25), 2)</f>
         <v>3.84</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="16">
         <f>ROUND(MIN(TB!L$2:L$25), 2)</f>
         <v>4.99</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="16">
         <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
         <v>4.71</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="16">
         <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
         <v>4.25</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
         <v>5.33</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
         <v>5.72</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
         <v>4.8899999999999997</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
         <v>4.26</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
         <v>4.1100000000000003</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="16">
         <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
         <v>5.13</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="16">
         <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
         <v>4.58</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="16">
         <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
         <v>4.5599999999999996</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="16">
         <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
         <v>4.8099999999999996</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="16">
         <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
         <v>5.91</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="16">
         <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
         <v>5.56</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="16">
         <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
         <v>4.95</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="16">
         <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
         <v>6.44</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="16">
         <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
         <v>7.2</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
         <v>5.85</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
         <v>5</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
         <v>4.8</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="16">
         <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
         <v>5.87</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="16">
         <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
         <v>5.34</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="16">
         <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
         <v>5.44</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="16">
         <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
         <v>5.58</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="16">
         <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="16">
         <f>ROUND(MEDIAN(TB!A$2:A$25), 2)</f>
         <v>4.68</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="16">
         <f>ROUND(MEDIAN(TB!B$2:B$25), 2)</f>
         <v>4.3</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <f>ROUND(MEDIAN(TB!C$2:C$25), 2)</f>
         <v>5.4</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <f>ROUND(MEDIAN(TB!D$2:D$25), 2)</f>
         <v>5.57</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <f>ROUND(MEDIAN(TB!E$2:E$25), 2)</f>
         <v>4.97</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="16">
         <f>ROUND(MEDIAN(TB!F$2:F$25), 2)</f>
         <v>4.37</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="16">
         <f>ROUND(MEDIAN(TB!G$2:G$25), 2)</f>
         <v>4.1900000000000004</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="16">
         <f>ROUND(MEDIAN(TB!H$2:H$25), 2)</f>
         <v>5.18</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="16">
         <f>ROUND(MEDIAN(TB!I$2:I$25), 2)</f>
         <v>4.7</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="16">
         <f>ROUND(MEDIAN(TB!J$2:J$25), 2)</f>
         <v>4.55</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="16">
         <f>ROUND(MEDIAN(TB!K$2:K$25), 2)</f>
         <v>4.8</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="16">
         <f>ROUND(MEDIAN(TB!L$2:L$25), 2)</f>
         <v>5.91</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="18" t="str">
+      <c r="B31" s="16" t="str">
         <f t="shared" ref="B31:M31" si="10">B$2</f>
         <v>G11</v>
       </c>
-      <c r="C31" s="18" t="str">
+      <c r="C31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G12</v>
       </c>
-      <c r="D31" s="18" t="str">
+      <c r="D31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G13</v>
       </c>
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G14</v>
       </c>
-      <c r="F31" s="18" t="str">
+      <c r="F31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G15</v>
       </c>
-      <c r="G31" s="18" t="str">
+      <c r="G31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G16</v>
       </c>
-      <c r="H31" s="18" t="str">
+      <c r="H31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G17</v>
       </c>
-      <c r="I31" s="18" t="str">
+      <c r="I31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G18</v>
       </c>
-      <c r="J31" s="18" t="str">
+      <c r="J31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G19</v>
       </c>
-      <c r="K31" s="18" t="str">
+      <c r="K31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G20</v>
       </c>
-      <c r="L31" s="18" t="str">
+      <c r="L31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G32</v>
       </c>
-      <c r="M31" s="18" t="str">
+      <c r="M31" s="16" t="str">
         <f t="shared" si="10"/>
         <v>G33</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="16">
         <f>ROUND(MIN(LB!A$2:A$25), 2)</f>
         <v>4.58</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="16">
         <f>ROUND(MIN(LB!B$2:B$25), 2)</f>
         <v>2.98</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="16">
         <f>ROUND(MIN(LB!C$2:C$25), 2)</f>
         <v>5.64</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <f>ROUND(MIN(LB!D$2:D$25), 2)</f>
         <v>5.92</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <f>ROUND(MIN(LB!E$2:E$25), 2)</f>
         <v>3.78</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <f>ROUND(MIN(LB!F$2:F$25), 2)</f>
         <v>5.31</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <f>ROUND(MIN(LB!G$2:G$25), 2)</f>
         <v>4.8</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="16">
         <f>ROUND(MIN(LB!H$2:H$25), 2)</f>
         <v>5.47</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="16">
         <f>ROUND(MIN(LB!I$2:I$25), 2)</f>
         <v>4.47</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="16">
         <f>ROUND(MIN(LB!J$2:J$25), 2)</f>
         <v>4.59</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="16">
         <f>ROUND(MIN(LB!K$2:K$25), 2)</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="16">
         <f>ROUND(MIN(LB!L$2:L$25), 2)</f>
         <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="16">
         <f>ROUND(AVERAGE(LB!A$2:A$25), 2)</f>
         <v>5.46</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="16">
         <f>ROUND(AVERAGE(LB!B$2:B$25), 2)</f>
         <v>4.32</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="16">
         <f>ROUND(AVERAGE(LB!C$2:C$25), 2)</f>
         <v>6.83</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <f>ROUND(AVERAGE(LB!D$2:D$25), 2)</f>
         <v>6.88</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <f>ROUND(AVERAGE(LB!E$2:E$25), 2)</f>
         <v>5.35</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <f>ROUND(AVERAGE(LB!F$2:F$25), 2)</f>
         <v>6.75</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <f>ROUND(AVERAGE(LB!G$2:G$25), 2)</f>
         <v>5.52</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="16">
         <f>ROUND(AVERAGE(LB!H$2:H$25), 2)</f>
         <v>6.3</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="16">
         <f>ROUND(AVERAGE(LB!I$2:I$25), 2)</f>
         <v>6.17</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="16">
         <f>ROUND(AVERAGE(LB!J$2:J$25), 2)</f>
         <v>5.46</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="16">
         <f>ROUND(AVERAGE(LB!K$2:K$25), 2)</f>
         <v>5.61</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="16">
         <f>ROUND(AVERAGE(LB!L$2:L$25), 2)</f>
         <v>6.38</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="16">
         <f>ROUND(MAX(LB!A$2:A$25), 2)</f>
         <v>6.22</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="16">
         <f>ROUND(MAX(LB!B$2:B$25), 2)</f>
         <v>5.37</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="16">
         <f>ROUND(MAX(LB!C$2:C$25), 2)</f>
         <v>7.97</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <f>ROUND(MAX(LB!D$2:D$25), 2)</f>
         <v>7.71</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <f>ROUND(MAX(LB!E$2:E$25), 2)</f>
         <v>6.96</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="16">
         <f>ROUND(MAX(LB!F$2:F$25), 2)</f>
         <v>8.33</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="16">
         <f>ROUND(MAX(LB!G$2:G$25), 2)</f>
         <v>6.34</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="16">
         <f>ROUND(MAX(LB!H$2:H$25), 2)</f>
         <v>7.18</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="16">
         <f>ROUND(MAX(LB!I$2:I$25), 2)</f>
         <v>7.36</v>
       </c>
-      <c r="K34" s="18">
+      <c r="K34" s="16">
         <f>ROUND(MAX(LB!J$2:J$25), 2)</f>
         <v>6.3</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="16">
         <f>ROUND(MAX(LB!K$2:K$25), 2)</f>
         <v>6.9</v>
       </c>
-      <c r="M34" s="18">
+      <c r="M34" s="16">
         <f>ROUND(MAX(LB!L$2:L$25), 2)</f>
         <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="16">
         <f>ROUND(MEDIAN(LB!A$2:A$25), 2)</f>
         <v>5.45</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="16">
         <f>ROUND(MEDIAN(LB!B$2:B$25), 2)</f>
         <v>4.28</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="16">
         <f>ROUND(MEDIAN(LB!C$2:C$25), 2)</f>
         <v>6.84</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <f>ROUND(MEDIAN(LB!D$2:D$25), 2)</f>
         <v>6.87</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <f>ROUND(MEDIAN(LB!E$2:E$25), 2)</f>
         <v>5.49</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <f>ROUND(MEDIAN(LB!F$2:F$25), 2)</f>
         <v>6.56</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <f>ROUND(MEDIAN(LB!G$2:G$25), 2)</f>
         <v>5.5</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="16">
         <f>ROUND(MEDIAN(LB!H$2:H$25), 2)</f>
         <v>6.25</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="16">
         <f>ROUND(MEDIAN(LB!I$2:I$25), 2)</f>
         <v>6.1</v>
       </c>
-      <c r="K35" s="18">
+      <c r="K35" s="16">
         <f>ROUND(MEDIAN(LB!J$2:J$25), 2)</f>
         <v>5.39</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="16">
         <f>ROUND(MEDIAN(LB!K$2:K$25), 2)</f>
         <v>5.57</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="16">
         <f>ROUND(MEDIAN(LB!L$2:L$25), 2)</f>
         <v>6.3</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="18" t="str">
+      <c r="B36" s="16" t="str">
         <f t="shared" ref="B36:M36" si="11">B$2</f>
         <v>G11</v>
       </c>
-      <c r="C36" s="18" t="str">
+      <c r="C36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G12</v>
       </c>
-      <c r="D36" s="18" t="str">
+      <c r="D36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G13</v>
       </c>
-      <c r="E36" s="18" t="str">
+      <c r="E36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G14</v>
       </c>
-      <c r="F36" s="18" t="str">
+      <c r="F36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G15</v>
       </c>
-      <c r="G36" s="18" t="str">
+      <c r="G36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G16</v>
       </c>
-      <c r="H36" s="18" t="str">
+      <c r="H36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G17</v>
       </c>
-      <c r="I36" s="18" t="str">
+      <c r="I36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G18</v>
       </c>
-      <c r="J36" s="18" t="str">
+      <c r="J36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G19</v>
       </c>
-      <c r="K36" s="18" t="str">
+      <c r="K36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G20</v>
       </c>
-      <c r="L36" s="18" t="str">
+      <c r="L36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G32</v>
       </c>
-      <c r="M36" s="18" t="str">
+      <c r="M36" s="16" t="str">
         <f t="shared" si="11"/>
         <v>G33</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="16">
         <f>ROUND(MIN(TB!A$2:A$25), 2)</f>
         <v>3.73</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="16">
         <f>ROUND(MIN(TB!B$2:B$25), 2)</f>
         <v>3.58</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <f>ROUND(MIN(TB!C$2:C$25), 2)</f>
         <v>4.53</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="16">
         <f>ROUND(MIN(TB!D$2:D$25), 2)</f>
         <v>4.7</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <f>ROUND(MIN(TB!E$2:E$25), 2)</f>
         <v>3.87</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <f>ROUND(MIN(TB!F$2:F$25), 2)</f>
         <v>3.3</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="16">
         <f>ROUND(MIN(TB!G$2:G$25), 2)</f>
         <v>3.43</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="16">
         <f>ROUND(MIN(TB!H$2:H$25), 2)</f>
         <v>4.33</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J37" s="16">
         <f>ROUND(MIN(TB!I$2:I$25), 2)</f>
         <v>3.78</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="16">
         <f>ROUND(MIN(TB!J$2:J$25), 2)</f>
         <v>3.74</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="16">
         <f>ROUND(MIN(TB!K$2:K$25), 2)</f>
         <v>3.84</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="16">
         <f>ROUND(MIN(TB!L$2:L$25), 2)</f>
         <v>4.99</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="16">
         <f>ROUND(AVERAGE(TB!A$2:A$25), 2)</f>
         <v>4.71</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="16">
         <f>ROUND(AVERAGE(TB!B$2:B$25), 2)</f>
         <v>4.25</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="16">
         <f>ROUND(AVERAGE(TB!C$2:C$25), 2)</f>
         <v>5.33</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <f>ROUND(AVERAGE(TB!D$2:D$25), 2)</f>
         <v>5.72</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <f>ROUND(AVERAGE(TB!E$2:E$25), 2)</f>
         <v>4.8899999999999997</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="16">
         <f>ROUND(AVERAGE(TB!F$2:F$25), 2)</f>
         <v>4.26</v>
       </c>
-      <c r="H38" s="18">
+      <c r="H38" s="16">
         <f>ROUND(AVERAGE(TB!G$2:G$25), 2)</f>
         <v>4.1100000000000003</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="16">
         <f>ROUND(AVERAGE(TB!H$2:H$25), 2)</f>
         <v>5.13</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J38" s="16">
         <f>ROUND(AVERAGE(TB!I$2:I$25), 2)</f>
         <v>4.58</v>
       </c>
-      <c r="K38" s="18">
+      <c r="K38" s="16">
         <f>ROUND(AVERAGE(TB!J$2:J$25), 2)</f>
         <v>4.5599999999999996</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="16">
         <f>ROUND(AVERAGE(TB!K$2:K$25), 2)</f>
         <v>4.8099999999999996</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="16">
         <f>ROUND(AVERAGE(TB!L$2:L$25), 2)</f>
         <v>5.91</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="16">
         <f>ROUND(MAX(TB!A$2:A$25), 2)</f>
         <v>5.56</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="16">
         <f>ROUND(MAX(TB!B$2:B$25), 2)</f>
         <v>4.95</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="16">
         <f>ROUND(MAX(TB!C$2:C$25), 2)</f>
         <v>6.44</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="16">
         <f>ROUND(MAX(TB!D$2:D$25), 2)</f>
         <v>7.2</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="16">
         <f>ROUND(MAX(TB!E$2:E$25), 2)</f>
         <v>5.85</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="16">
         <f>ROUND(MAX(TB!F$2:F$25), 2)</f>
         <v>5</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="16">
         <f>ROUND(MAX(TB!G$2:G$25), 2)</f>
         <v>4.8</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="16">
         <f>ROUND(MAX(TB!H$2:H$25), 2)</f>
         <v>5.87</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="16">
         <f>ROUND(MAX(TB!I$2:I$25), 2)</f>
         <v>5.34</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="16">
         <f>ROUND(MAX(TB!J$2:J$25), 2)</f>
         <v>5.44</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="16">
         <f>ROUND(MAX(TB!K$2:K$25), 2)</f>
         <v>5.58</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="16">
         <f>ROUND(MAX(TB!L$2:L$25), 2)</f>
         <v>6.9</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="16">
         <f>ROUND(MEDIAN(TB!A$2:A$25), 2)</f>
         <v>4.68</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="16">
         <f>ROUND(MEDIAN(TB!B$2:B$25), 2)</f>
         <v>4.3</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="16">
         <f>ROUND(MEDIAN(TB!C$2:C$25), 2)</f>
         <v>5.4</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="16">
         <f>ROUND(MEDIAN(TB!D$2:D$25), 2)</f>
         <v>5.57</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <f>ROUND(MEDIAN(TB!E$2:E$25), 2)</f>
         <v>4.97</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="16">
         <f>ROUND(MEDIAN(TB!F$2:F$25), 2)</f>
         <v>4.37</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="16">
         <f>ROUND(MEDIAN(TB!G$2:G$25), 2)</f>
         <v>4.1900000000000004</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="16">
         <f>ROUND(MEDIAN(TB!H$2:H$25), 2)</f>
         <v>5.18</v>
       </c>
-      <c r="J40" s="18">
+      <c r="J40" s="16">
         <f>ROUND(MEDIAN(TB!I$2:I$25), 2)</f>
         <v>4.7</v>
       </c>
-      <c r="K40" s="18">
+      <c r="K40" s="16">
         <f>ROUND(MEDIAN(TB!J$2:J$25), 2)</f>
         <v>4.55</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="16">
         <f>ROUND(MEDIAN(TB!K$2:K$25), 2)</f>
         <v>4.8</v>
       </c>
-      <c r="M40" s="18">
+      <c r="M40" s="16">
         <f>ROUND(MEDIAN(TB!L$2:L$25), 2)</f>
         <v>5.91</v>
       </c>
@@ -2590,418 +2590,418 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
-      <c r="B44" s="20" t="str">
+      <c r="B44" s="18" t="str">
         <f>A3</f>
         <v>Panjang Polong</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="20" t="str">
+      <c r="D44" s="18" t="str">
         <f>A5</f>
         <v>Tebal Polong</v>
       </c>
-      <c r="E44" s="20" t="str">
+      <c r="E44" s="18" t="str">
         <f>A6</f>
         <v>Panjang Biji</v>
       </c>
-      <c r="F44" s="20" t="str">
+      <c r="F44" s="18" t="str">
         <f>A7</f>
         <v>Lebar Biji</v>
       </c>
-      <c r="G44" s="20" t="str">
+      <c r="G44" s="18" t="str">
         <f>A8</f>
         <v>Tebal Biji</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="20" t="str">
+      <c r="B45" s="18" t="str">
         <f ca="1">OFFSET($B$3,0,$H46)</f>
         <v>36,77−(40,49)−(40,27)−44,25</v>
       </c>
-      <c r="C45" s="20" t="str">
+      <c r="C45" s="18" t="str">
         <f ca="1">OFFSET($B$4,0,$H46)</f>
         <v>7,2−(8,54)−(8,6)−9,7</v>
       </c>
-      <c r="D45" s="20" t="str">
+      <c r="D45" s="18" t="str">
         <f ca="1">OFFSET($B$5,0,$H46)</f>
         <v>5,33−(6,21)−(6,17)−7,7</v>
       </c>
-      <c r="E45" s="20" t="str">
+      <c r="E45" s="18" t="str">
         <f ca="1">OFFSET($B$6,0,$H46)</f>
         <v>3,73−(4,71)−(4,68)−5,56</v>
       </c>
-      <c r="F45" s="20" t="str">
+      <c r="F45" s="18" t="str">
         <f ca="1">OFFSET($B$7,0,$H46)</f>
         <v>4,58−(5,46)−(5,45)−6,22</v>
       </c>
-      <c r="G45" s="20" t="str">
+      <c r="G45" s="18" t="str">
         <f ca="1">OFFSET($B$8,0,$H46)</f>
         <v>3,73−(4,71)−(4,68)−5,56</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="20" t="str">
+      <c r="B46" s="18" t="str">
         <f t="shared" ref="B46:B56" ca="1" si="12">OFFSET($B$3,0,$H47)</f>
         <v>33,4−(36,55)−(37)−39,3</v>
       </c>
-      <c r="C46" s="20" t="str">
+      <c r="C46" s="18" t="str">
         <f t="shared" ref="C46:C56" ca="1" si="13">OFFSET($B$4,0,$H47)</f>
         <v>6−(7,28)−(7,25)−8,5</v>
       </c>
-      <c r="D46" s="20" t="str">
+      <c r="D46" s="18" t="str">
         <f t="shared" ref="D46:D56" ca="1" si="14">OFFSET($B$5,0,$H47)</f>
         <v>3,52−(4,48)−(4,6)−5,17</v>
       </c>
-      <c r="E46" s="20" t="str">
+      <c r="E46" s="18" t="str">
         <f t="shared" ref="E46:E56" ca="1" si="15">OFFSET($B$6,0,$H47)</f>
         <v>3,58−(4,25)−(4,3)−4,95</v>
       </c>
-      <c r="F46" s="20" t="str">
+      <c r="F46" s="18" t="str">
         <f t="shared" ref="F46:F56" ca="1" si="16">OFFSET($B$7,0,$H47)</f>
         <v>2,98−(4,32)−(4,28)−5,37</v>
       </c>
-      <c r="G46" s="20" t="str">
+      <c r="G46" s="18" t="str">
         <f t="shared" ref="G46:G56" ca="1" si="17">OFFSET($B$8,0,$H47)</f>
         <v>3,58−(4,25)−(4,3)−4,95</v>
       </c>
-      <c r="H46" s="20">
+      <c r="H46" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="20" t="str">
+      <c r="B47" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>43,3−(45,54)−(45,55)−47,8</v>
       </c>
-      <c r="C47" s="20" t="str">
+      <c r="C47" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>8,18−(10,11)−(10,15)−12,07</v>
       </c>
-      <c r="D47" s="20" t="str">
+      <c r="D47" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>5,11−(5,95)−(5,88)−6,81</v>
       </c>
-      <c r="E47" s="20" t="str">
+      <c r="E47" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>4,53−(5,33)−(5,4)−6,44</v>
       </c>
-      <c r="F47" s="20" t="str">
+      <c r="F47" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>5,64−(6,83)−(6,84)−7,97</v>
       </c>
-      <c r="G47" s="20" t="str">
+      <c r="G47" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>4,53−(5,33)−(5,4)−6,44</v>
       </c>
-      <c r="H47" s="20">
+      <c r="H47" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="20" t="str">
+      <c r="B48" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>39,9−(44,49)−(44,09)−53</v>
       </c>
-      <c r="C48" s="20" t="str">
+      <c r="C48" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>8,77−(9,73)−(9,68)−10,68</v>
       </c>
-      <c r="D48" s="20" t="str">
+      <c r="D48" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>5,5−(7)−(6,98)−7,91</v>
       </c>
-      <c r="E48" s="20" t="str">
+      <c r="E48" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>4,7−(5,72)−(5,57)−7,2</v>
       </c>
-      <c r="F48" s="20" t="str">
+      <c r="F48" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>5,92−(6,88)−(6,87)−7,71</v>
       </c>
-      <c r="G48" s="20" t="str">
+      <c r="G48" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>4,7−(5,72)−(5,57)−7,2</v>
       </c>
-      <c r="H48" s="20">
+      <c r="H48" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="20" t="str">
+      <c r="B49" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>35,1−(38,03)−(38)−40,6</v>
       </c>
-      <c r="C49" s="20" t="str">
+      <c r="C49" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>6,5−(7,98)−(8,24)−8,89</v>
       </c>
-      <c r="D49" s="20" t="str">
+      <c r="D49" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>4,6−(5,31)−(5,35)−6,26</v>
       </c>
-      <c r="E49" s="20" t="str">
+      <c r="E49" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>3,87−(4,89)−(4,97)−5,85</v>
       </c>
-      <c r="F49" s="20" t="str">
+      <c r="F49" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>3,78−(5,35)−(5,49)−6,96</v>
       </c>
-      <c r="G49" s="20" t="str">
+      <c r="G49" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>3,87−(4,89)−(4,97)−5,85</v>
       </c>
-      <c r="H49" s="20">
+      <c r="H49" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="20" t="str">
+      <c r="B50" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>49,8−(52,82)−(52,95)−56,2</v>
       </c>
-      <c r="C50" s="20" t="str">
+      <c r="C50" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>7,5−(9,28)−(9,36)−11,05</v>
       </c>
-      <c r="D50" s="20" t="str">
+      <c r="D50" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>5,2−(5,91)−(5,95)−6,55</v>
       </c>
-      <c r="E50" s="20" t="str">
+      <c r="E50" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>3,3−(4,26)−(4,37)−5</v>
       </c>
-      <c r="F50" s="20" t="str">
+      <c r="F50" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>5,31−(6,75)−(6,56)−8,33</v>
       </c>
-      <c r="G50" s="20" t="str">
+      <c r="G50" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>3,3−(4,26)−(4,37)−5</v>
       </c>
-      <c r="H50" s="20">
+      <c r="H50" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="20" t="str">
+      <c r="B51" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>41,12−(42,73)−(42,74)−44,49</v>
       </c>
-      <c r="C51" s="20" t="str">
+      <c r="C51" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>7,6−(8,7)−(8,63)−9,65</v>
       </c>
-      <c r="D51" s="20" t="str">
+      <c r="D51" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>4,25−(5,16)−(5,11)−6,1</v>
       </c>
-      <c r="E51" s="20" t="str">
+      <c r="E51" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>3,43−(4,11)−(4,19)−4,8</v>
       </c>
-      <c r="F51" s="20" t="str">
+      <c r="F51" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>4,8−(5,52)−(5,5)−6,34</v>
       </c>
-      <c r="G51" s="20" t="str">
+      <c r="G51" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>3,43−(4,11)−(4,19)−4,8</v>
       </c>
-      <c r="H51" s="20">
+      <c r="H51" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="20" t="str">
+      <c r="B52" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>42,2−(46)−(46,35)−49,9</v>
       </c>
-      <c r="C52" s="20" t="str">
+      <c r="C52" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>8,5−(9,66)−(9,63)−10,97</v>
       </c>
-      <c r="D52" s="20" t="str">
+      <c r="D52" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>5,06−(5,92)−(5,86)−6,65</v>
       </c>
-      <c r="E52" s="20" t="str">
+      <c r="E52" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>4,33−(5,13)−(5,18)−5,87</v>
       </c>
-      <c r="F52" s="20" t="str">
+      <c r="F52" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>5,47−(6,3)−(6,25)−7,18</v>
       </c>
-      <c r="G52" s="20" t="str">
+      <c r="G52" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>4,33−(5,13)−(5,18)−5,87</v>
       </c>
-      <c r="H52" s="20">
+      <c r="H52" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="20" t="str">
+      <c r="B53" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>42,2−(44,19)−(44,1)−46,8</v>
       </c>
-      <c r="C53" s="20" t="str">
+      <c r="C53" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>7,7−(9,68)−(9,74)−11,34</v>
       </c>
-      <c r="D53" s="20" t="str">
+      <c r="D53" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>4,5−(5,13)−(5,05)−5,91</v>
       </c>
-      <c r="E53" s="20" t="str">
+      <c r="E53" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>3,78−(4,58)−(4,7)−5,34</v>
       </c>
-      <c r="F53" s="20" t="str">
+      <c r="F53" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>4,47−(6,17)−(6,1)−7,36</v>
       </c>
-      <c r="G53" s="20" t="str">
+      <c r="G53" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>3,78−(4,58)−(4,7)−5,34</v>
       </c>
-      <c r="H53" s="20">
+      <c r="H53" s="18">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="20" t="str">
+      <c r="B54" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>37,2−(39,86)−(39,55)−42,9</v>
       </c>
-      <c r="C54" s="20" t="str">
+      <c r="C54" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>6,7−(8,41)−(8,56)−10,16</v>
       </c>
-      <c r="D54" s="20" t="str">
+      <c r="D54" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>4,2−(5,19)−(5,2)−6,4</v>
       </c>
-      <c r="E54" s="20" t="str">
+      <c r="E54" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>3,74−(4,56)−(4,55)−5,44</v>
       </c>
-      <c r="F54" s="20" t="str">
+      <c r="F54" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>4,59−(5,46)−(5,39)−6,3</v>
       </c>
-      <c r="G54" s="20" t="str">
+      <c r="G54" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>3,74−(4,56)−(4,55)−5,44</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="18">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="20" t="str">
+      <c r="B55" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>38,54−(40,15)−(40,09)−41,86</v>
       </c>
-      <c r="C55" s="20" t="str">
+      <c r="C55" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>6,5−(7,76)−(7,74)−8,75</v>
       </c>
-      <c r="D55" s="20" t="str">
+      <c r="D55" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>4,71−(5,48)−(5,42)−6,22</v>
       </c>
-      <c r="E55" s="20" t="str">
+      <c r="E55" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>3,84−(4,81)−(4,8)−5,58</v>
       </c>
-      <c r="F55" s="20" t="str">
+      <c r="F55" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>4,6−(5,61)−(5,57)−6,9</v>
       </c>
-      <c r="G55" s="20" t="str">
+      <c r="G55" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>3,84−(4,81)−(4,8)−5,58</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="20" t="str">
+      <c r="B56" s="18" t="str">
         <f t="shared" ca="1" si="12"/>
         <v>50,6−(52,97)−(52,7)−56,3</v>
       </c>
-      <c r="C56" s="20" t="str">
+      <c r="C56" s="18" t="str">
         <f t="shared" ca="1" si="13"/>
         <v>9,07−(10,88)−(10,79)−12,41</v>
       </c>
-      <c r="D56" s="20" t="str">
+      <c r="D56" s="18" t="str">
         <f t="shared" ca="1" si="14"/>
         <v>5,97−(6,75)−(6,72)−7,62</v>
       </c>
-      <c r="E56" s="20" t="str">
+      <c r="E56" s="18" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>4,99−(5,91)−(5,91)−6,9</v>
       </c>
-      <c r="F56" s="20" t="str">
+      <c r="F56" s="18" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>4,61−(6,38)−(6,3)−8,03</v>
       </c>
-      <c r="G56" s="20" t="str">
+      <c r="G56" s="18" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>4,99−(5,91)−(5,91)−6,9</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H57" s="20">
+      <c r="H57" s="18">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H58" s="20">
+      <c r="H58" s="18">
         <v>12</v>
       </c>
     </row>
